--- a/G-Calc_master.xlsx
+++ b/G-Calc_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nag/Library/Mobile Documents/com~apple~CloudDocs/【重要】Makanow/マカナウ/★ガスラボ/G-Calc cloud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBB7AE6-4A18-774B-B943-F0038A175E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE349D08-7909-C44A-A8A1-ACB708901D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="27160" windowHeight="28520" xr2:uid="{DF34602E-DE08-474C-98FE-2BF82EF25C2C}"/>
+    <workbookView xWindow="29360" yWindow="600" windowWidth="35360" windowHeight="28520" activeTab="2" xr2:uid="{DF34602E-DE08-474C-98FE-2BF82EF25C2C}"/>
   </bookViews>
   <sheets>
     <sheet name="ナビ" sheetId="16" r:id="rId1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="761">
   <si>
     <t>第３表</t>
     <rPh sb="0" eb="1">
@@ -8569,13 +8569,28 @@
     <xf numFmtId="3" fontId="49" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="86" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8594,9 +8609,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="84" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="84" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -8615,17 +8627,148 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="51" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="53" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="35" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="57" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="77" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -8638,22 +8781,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8684,296 +8815,37 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="53" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="35" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="57" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="51" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="49" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="48" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="48" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="48" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -8995,6 +8867,24 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="40" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9004,15 +8894,147 @@
     <xf numFmtId="40" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyProtection="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyProtection="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="49" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="48" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="48" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="48" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9049,78 +9071,122 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
@@ -9140,15 +9206,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
@@ -9156,9 +9213,6 @@
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -9172,131 +9226,59 @@
       <alignment horizontal="distributed" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="61" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="99" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="17" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="30" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="45" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="100" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="101" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="102" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="16" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="26" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="27" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="28" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="60" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="39" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="59" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="49" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="122" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="123" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="124" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="126" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="123" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="124" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="59" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="23" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="120" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="199" fontId="3" fillId="0" borderId="54" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="3" fillId="0" borderId="55" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="117" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="51" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="8" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="82" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9333,12 +9315,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="59" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="120" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="197" fontId="3" fillId="0" borderId="83" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -9366,52 +9342,76 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="109" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="27" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="28" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="111" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="39" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="59" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="49" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="122" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="123" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="124" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="126" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="123" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="124" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="117" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="23" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="51" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="61" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="99" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="17" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="30" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="45" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="100" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="101" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="102" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="16" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="26" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="60" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="3" fillId="0" borderId="54" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="3" fillId="0" borderId="55" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9959,28 +9959,28 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.40953793175240094</c:v>
+                  <c:v>0.36071361319054807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28432016490490308</c:v>
+                  <c:v>0.26908734379863308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9261776871872973E-2</c:v>
+                  <c:v>4.9285657920966661E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1891728543107639E-2</c:v>
+                  <c:v>1.9051150282629332E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0938066475298479E-2</c:v>
+                  <c:v>0.12207530358958135</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12387112279710895</c:v>
+                  <c:v>0.12300783548848888</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4733823815120477E-2</c:v>
+                  <c:v>5.0617510310133895E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4453848401874051E-3</c:v>
+                  <c:v>6.1615854190186694E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10323,19 +10323,19 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1410517</c:v>
+                  <c:v>2281788</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8875521</c:v>
+                  <c:v>12781377</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3648446</c:v>
+                  <c:v>8647304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>252324</c:v>
+                  <c:v>526327</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4789995.8499999996</c:v>
+                  <c:v>7647368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10671,13 +10671,13 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="#,##0_);[Red]\(#,##0\)">
-                  <c:v>18976803.850000001</c:v>
+                  <c:v>30715365</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1168799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17434,8 +17434,8 @@
   </sheetPr>
   <dimension ref="B1:P32"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18"/>
@@ -17465,27 +17465,27 @@
       <c r="B4" s="158" t="s">
         <v>735</v>
       </c>
-      <c r="C4" s="425" t="s">
+      <c r="C4" s="431" t="s">
         <v>736</v>
       </c>
-      <c r="D4" s="425"/>
-      <c r="E4" s="425"/>
-      <c r="F4" s="425" t="s">
+      <c r="D4" s="431"/>
+      <c r="E4" s="431"/>
+      <c r="F4" s="431" t="s">
         <v>734</v>
       </c>
-      <c r="G4" s="425"/>
-      <c r="H4" s="425"/>
-      <c r="I4" s="425"/>
-      <c r="J4" s="425"/>
+      <c r="G4" s="431"/>
+      <c r="H4" s="431"/>
+      <c r="I4" s="431"/>
+      <c r="J4" s="431"/>
       <c r="L4" s="344" t="s">
         <v>712</v>
       </c>
-      <c r="M4" s="427" t="s">
+      <c r="M4" s="432" t="s">
         <v>713</v>
       </c>
-      <c r="N4" s="428"/>
-      <c r="O4" s="428"/>
-      <c r="P4" s="429"/>
+      <c r="N4" s="433"/>
+      <c r="O4" s="433"/>
+      <c r="P4" s="434"/>
     </row>
     <row r="5" spans="2:16" ht="40" customHeight="1">
       <c r="B5" s="164" t="s">
@@ -17516,12 +17516,12 @@
         <v>490</v>
       </c>
       <c r="L5" s="345"/>
-      <c r="M5" s="430" t="s">
+      <c r="M5" s="435" t="s">
         <v>715</v>
       </c>
-      <c r="N5" s="431"/>
-      <c r="O5" s="431"/>
-      <c r="P5" s="431"/>
+      <c r="N5" s="436"/>
+      <c r="O5" s="436"/>
+      <c r="P5" s="436"/>
     </row>
     <row r="6" spans="2:16" ht="40" customHeight="1">
       <c r="B6" s="165"/>
@@ -17529,11 +17529,11 @@
         <v>517</v>
       </c>
       <c r="D6" s="248" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E6" s="156">
         <f>_xlfn.XLOOKUP(D6,標準係数B!C:C,標準係数B!B:B, "IDなし", 0, 1)</f>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F6" s="156"/>
       <c r="G6" s="246" t="s">
@@ -17547,12 +17547,12 @@
       </c>
       <c r="J6" s="159"/>
       <c r="L6" s="345"/>
-      <c r="M6" s="432" t="s">
+      <c r="M6" s="437" t="s">
         <v>716</v>
       </c>
-      <c r="N6" s="433"/>
-      <c r="O6" s="433"/>
-      <c r="P6" s="433"/>
+      <c r="N6" s="425"/>
+      <c r="O6" s="425"/>
+      <c r="P6" s="425"/>
     </row>
     <row r="7" spans="2:16" ht="40" customHeight="1">
       <c r="B7" s="165"/>
@@ -17571,12 +17571,12 @@
       <c r="I7" s="156"/>
       <c r="J7" s="159"/>
       <c r="L7" s="345"/>
-      <c r="M7" s="430" t="s">
+      <c r="M7" s="435" t="s">
         <v>714</v>
       </c>
-      <c r="N7" s="431"/>
-      <c r="O7" s="431"/>
-      <c r="P7" s="431"/>
+      <c r="N7" s="436"/>
+      <c r="O7" s="436"/>
+      <c r="P7" s="436"/>
     </row>
     <row r="8" spans="2:16" ht="40" customHeight="1">
       <c r="B8" s="166"/>
@@ -17589,12 +17589,12 @@
       <c r="I8" s="156"/>
       <c r="J8" s="159"/>
       <c r="L8" s="345"/>
-      <c r="M8" s="432" t="s">
+      <c r="M8" s="437" t="s">
         <v>717</v>
       </c>
-      <c r="N8" s="431"/>
-      <c r="O8" s="431"/>
-      <c r="P8" s="431"/>
+      <c r="N8" s="436"/>
+      <c r="O8" s="436"/>
+      <c r="P8" s="436"/>
     </row>
     <row r="9" spans="2:16" ht="40" customHeight="1">
       <c r="B9" s="152"/>
@@ -17607,12 +17607,12 @@
       <c r="I9" s="152"/>
       <c r="J9" s="153"/>
       <c r="L9" s="345"/>
-      <c r="M9" s="434" t="s">
+      <c r="M9" s="438" t="s">
         <v>718</v>
       </c>
-      <c r="N9" s="435"/>
-      <c r="O9" s="435"/>
-      <c r="P9" s="435"/>
+      <c r="N9" s="439"/>
+      <c r="O9" s="439"/>
+      <c r="P9" s="439"/>
     </row>
     <row r="10" spans="2:16" ht="40" customHeight="1">
       <c r="B10" s="164" t="s">
@@ -17643,12 +17643,12 @@
         <v>490</v>
       </c>
       <c r="L10" s="345"/>
-      <c r="M10" s="436" t="s">
+      <c r="M10" s="440" t="s">
         <v>719</v>
       </c>
-      <c r="N10" s="437"/>
-      <c r="O10" s="437"/>
-      <c r="P10" s="437"/>
+      <c r="N10" s="441"/>
+      <c r="O10" s="441"/>
+      <c r="P10" s="441"/>
     </row>
     <row r="11" spans="2:16" ht="40" customHeight="1">
       <c r="B11" s="165"/>
@@ -17657,7 +17657,7 @@
       </c>
       <c r="D11" s="160">
         <f>SUM(D12:D13)</f>
-        <v>245</v>
+        <v>487</v>
       </c>
       <c r="E11" s="158"/>
       <c r="F11" s="161"/>
@@ -17670,12 +17670,12 @@
       <c r="I11" s="156"/>
       <c r="J11" s="390"/>
       <c r="L11" s="345"/>
-      <c r="M11" s="430" t="s">
+      <c r="M11" s="435" t="s">
         <v>720</v>
       </c>
-      <c r="N11" s="431"/>
-      <c r="O11" s="431"/>
-      <c r="P11" s="431"/>
+      <c r="N11" s="436"/>
+      <c r="O11" s="436"/>
+      <c r="P11" s="436"/>
     </row>
     <row r="12" spans="2:16" ht="40" customHeight="1">
       <c r="B12" s="165"/>
@@ -17683,7 +17683,7 @@
         <v>520</v>
       </c>
       <c r="D12" s="250">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="E12" s="158"/>
       <c r="F12" s="156"/>
@@ -17695,12 +17695,12 @@
         <v/>
       </c>
       <c r="L12" s="345"/>
-      <c r="M12" s="430" t="s">
+      <c r="M12" s="435" t="s">
         <v>629</v>
       </c>
-      <c r="N12" s="431"/>
-      <c r="O12" s="431"/>
-      <c r="P12" s="431"/>
+      <c r="N12" s="436"/>
+      <c r="O12" s="436"/>
+      <c r="P12" s="436"/>
     </row>
     <row r="13" spans="2:16" ht="40" customHeight="1">
       <c r="B13" s="165"/>
@@ -17708,7 +17708,7 @@
         <v>521</v>
       </c>
       <c r="D13" s="250">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="E13" s="158"/>
       <c r="F13" s="156"/>
@@ -17720,12 +17720,12 @@
         <v/>
       </c>
       <c r="L13" s="345"/>
-      <c r="M13" s="430" t="s">
+      <c r="M13" s="435" t="s">
         <v>721</v>
       </c>
-      <c r="N13" s="431"/>
-      <c r="O13" s="431"/>
-      <c r="P13" s="431"/>
+      <c r="N13" s="436"/>
+      <c r="O13" s="436"/>
+      <c r="P13" s="436"/>
     </row>
     <row r="14" spans="2:16" ht="40" customHeight="1">
       <c r="B14" s="165"/>
@@ -17733,7 +17733,7 @@
         <v>636</v>
       </c>
       <c r="D14" s="248">
-        <v>100</v>
+        <v>106.05</v>
       </c>
       <c r="E14" s="156"/>
       <c r="F14" s="156"/>
@@ -17744,12 +17744,12 @@
       <c r="I14" s="156"/>
       <c r="J14" s="390"/>
       <c r="L14" s="345"/>
-      <c r="M14" s="430" t="s">
+      <c r="M14" s="435" t="s">
         <v>722</v>
       </c>
-      <c r="N14" s="431"/>
-      <c r="O14" s="431"/>
-      <c r="P14" s="431"/>
+      <c r="N14" s="436"/>
+      <c r="O14" s="436"/>
+      <c r="P14" s="436"/>
     </row>
     <row r="15" spans="2:16" ht="40" customHeight="1">
       <c r="B15" s="165"/>
@@ -17771,12 +17771,12 @@
       <c r="I15" s="156"/>
       <c r="J15" s="390"/>
       <c r="L15" s="345"/>
-      <c r="M15" s="430" t="s">
+      <c r="M15" s="435" t="s">
         <v>723</v>
       </c>
-      <c r="N15" s="431"/>
-      <c r="O15" s="431"/>
-      <c r="P15" s="431"/>
+      <c r="N15" s="436"/>
+      <c r="O15" s="436"/>
+      <c r="P15" s="436"/>
     </row>
     <row r="16" spans="2:16" ht="40" customHeight="1">
       <c r="B16" s="165"/>
@@ -17789,10 +17789,10 @@
       <c r="I16" s="158"/>
       <c r="J16" s="158"/>
       <c r="L16" s="345"/>
-      <c r="M16" s="438"/>
-      <c r="N16" s="439"/>
-      <c r="O16" s="439"/>
-      <c r="P16" s="439"/>
+      <c r="M16" s="442"/>
+      <c r="N16" s="443"/>
+      <c r="O16" s="443"/>
+      <c r="P16" s="443"/>
     </row>
     <row r="17" spans="2:16" ht="40" customHeight="1">
       <c r="B17" s="166"/>
@@ -17831,23 +17831,23 @@
       <c r="D19" s="251" t="b">
         <v>0</v>
       </c>
-      <c r="E19" s="440" t="s">
+      <c r="E19" s="430" t="s">
         <v>751</v>
       </c>
-      <c r="F19" s="440"/>
-      <c r="G19" s="440"/>
-      <c r="H19" s="440"/>
-      <c r="I19" s="440"/>
-      <c r="J19" s="440"/>
+      <c r="F19" s="430"/>
+      <c r="G19" s="430"/>
+      <c r="H19" s="430"/>
+      <c r="I19" s="430"/>
+      <c r="J19" s="430"/>
       <c r="L19" s="251" t="b">
         <v>0</v>
       </c>
-      <c r="M19" s="433" t="s">
+      <c r="M19" s="425" t="s">
         <v>648</v>
       </c>
-      <c r="N19" s="433"/>
-      <c r="O19" s="433"/>
-      <c r="P19" s="433"/>
+      <c r="N19" s="425"/>
+      <c r="O19" s="425"/>
+      <c r="P19" s="425"/>
     </row>
     <row r="20" spans="2:16" ht="40" customHeight="1">
       <c r="B20" s="165"/>
@@ -17868,12 +17868,12 @@
       <c r="L20" s="251" t="b">
         <v>0</v>
       </c>
-      <c r="M20" s="433" t="s">
+      <c r="M20" s="425" t="s">
         <v>649</v>
       </c>
-      <c r="N20" s="433"/>
-      <c r="O20" s="433"/>
-      <c r="P20" s="433"/>
+      <c r="N20" s="425"/>
+      <c r="O20" s="425"/>
+      <c r="P20" s="425"/>
     </row>
     <row r="21" spans="2:16" ht="40" customHeight="1">
       <c r="B21" s="165"/>
@@ -17894,12 +17894,12 @@
       <c r="L21" s="251" t="b">
         <v>0</v>
       </c>
-      <c r="M21" s="433" t="s">
+      <c r="M21" s="425" t="s">
         <v>650</v>
       </c>
-      <c r="N21" s="433"/>
-      <c r="O21" s="433"/>
-      <c r="P21" s="433"/>
+      <c r="N21" s="425"/>
+      <c r="O21" s="425"/>
+      <c r="P21" s="425"/>
     </row>
     <row r="22" spans="2:16" ht="40" customHeight="1">
       <c r="B22" s="165"/>
@@ -17920,12 +17920,12 @@
       <c r="L22" s="251" t="b">
         <v>0</v>
       </c>
-      <c r="M22" s="433" t="s">
+      <c r="M22" s="425" t="s">
         <v>651</v>
       </c>
-      <c r="N22" s="433"/>
-      <c r="O22" s="433"/>
-      <c r="P22" s="433"/>
+      <c r="N22" s="425"/>
+      <c r="O22" s="425"/>
+      <c r="P22" s="425"/>
     </row>
     <row r="23" spans="2:16" ht="40" customHeight="1">
       <c r="B23" s="165"/>
@@ -17947,12 +17947,12 @@
       <c r="L23" s="251" t="b">
         <v>0</v>
       </c>
-      <c r="M23" s="433" t="s">
+      <c r="M23" s="425" t="s">
         <v>652</v>
       </c>
-      <c r="N23" s="433"/>
-      <c r="O23" s="433"/>
-      <c r="P23" s="433"/>
+      <c r="N23" s="425"/>
+      <c r="O23" s="425"/>
+      <c r="P23" s="425"/>
     </row>
     <row r="24" spans="2:16" ht="40" customHeight="1">
       <c r="B24" s="165"/>
@@ -17971,12 +17971,12 @@
       <c r="L24" s="252" t="b">
         <v>0</v>
       </c>
-      <c r="M24" s="433" t="s">
+      <c r="M24" s="425" t="s">
         <v>653</v>
       </c>
-      <c r="N24" s="433"/>
-      <c r="O24" s="433"/>
-      <c r="P24" s="433"/>
+      <c r="N24" s="425"/>
+      <c r="O24" s="425"/>
+      <c r="P24" s="425"/>
     </row>
     <row r="25" spans="2:16" ht="40" customHeight="1">
       <c r="B25" s="165"/>
@@ -17986,21 +17986,21 @@
       <c r="D25" s="252" t="b">
         <v>0</v>
       </c>
-      <c r="E25" s="441"/>
-      <c r="F25" s="442"/>
-      <c r="G25" s="442"/>
-      <c r="H25" s="442"/>
-      <c r="I25" s="442"/>
-      <c r="J25" s="443"/>
+      <c r="E25" s="427"/>
+      <c r="F25" s="428"/>
+      <c r="G25" s="428"/>
+      <c r="H25" s="428"/>
+      <c r="I25" s="428"/>
+      <c r="J25" s="429"/>
       <c r="L25" s="252" t="b">
         <v>0</v>
       </c>
-      <c r="M25" s="433" t="s">
+      <c r="M25" s="425" t="s">
         <v>654</v>
       </c>
-      <c r="N25" s="433"/>
-      <c r="O25" s="433"/>
-      <c r="P25" s="433"/>
+      <c r="N25" s="425"/>
+      <c r="O25" s="425"/>
+      <c r="P25" s="425"/>
     </row>
     <row r="26" spans="2:16" ht="40" customHeight="1">
       <c r="B26" s="165"/>
@@ -18017,12 +18017,12 @@
       <c r="L26" s="252" t="b">
         <v>0</v>
       </c>
-      <c r="M26" s="433" t="s">
+      <c r="M26" s="425" t="s">
         <v>655</v>
       </c>
-      <c r="N26" s="433"/>
-      <c r="O26" s="433"/>
-      <c r="P26" s="433"/>
+      <c r="N26" s="425"/>
+      <c r="O26" s="425"/>
+      <c r="P26" s="425"/>
     </row>
     <row r="27" spans="2:16" ht="36" customHeight="1">
       <c r="B27" s="166"/>
@@ -18039,12 +18039,12 @@
       <c r="L27" s="252" t="b">
         <v>0</v>
       </c>
-      <c r="M27" s="433" t="s">
+      <c r="M27" s="425" t="s">
         <v>733</v>
       </c>
-      <c r="N27" s="433"/>
-      <c r="O27" s="433"/>
-      <c r="P27" s="433"/>
+      <c r="N27" s="425"/>
+      <c r="O27" s="425"/>
+      <c r="P27" s="425"/>
     </row>
     <row r="28" spans="2:16" ht="36" customHeight="1">
       <c r="B28" s="152"/>
@@ -18089,23 +18089,6 @@
     <row r="32" spans="2:16" ht="36" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="M21:P21"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="E27:J27"/>
@@ -18122,6 +18105,23 @@
     <mergeCell ref="M14:P14"/>
     <mergeCell ref="M15:P15"/>
     <mergeCell ref="M16:P16"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -18206,7 +18206,7 @@
   <dimension ref="B1:M43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -18235,43 +18235,43 @@
     </row>
     <row r="3" spans="2:7" ht="20" customHeight="1"/>
     <row r="4" spans="2:7" ht="20" customHeight="1">
-      <c r="B4" s="439" t="s">
+      <c r="B4" s="443" t="s">
         <v>533</v>
       </c>
-      <c r="C4" s="439"/>
+      <c r="C4" s="443"/>
       <c r="D4" s="352">
-        <f>'2_b'!B29</f>
-        <v>18976803.850000001</v>
+        <f ca="1">'2_b'!B29</f>
+        <v>30715365</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="20" customHeight="1">
-      <c r="B5" s="439" t="s">
+      <c r="B5" s="443" t="s">
         <v>541</v>
       </c>
-      <c r="C5" s="439"/>
+      <c r="C5" s="443"/>
       <c r="D5" s="353">
         <f>IF(HKS=1,'1_a'!F7*12,販売量!R8)</f>
-        <v>2940</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="20" customHeight="1">
-      <c r="B6" s="439" t="s">
+      <c r="B6" s="443" t="s">
         <v>505</v>
       </c>
-      <c r="C6" s="439"/>
+      <c r="C6" s="443"/>
       <c r="D6" s="354">
         <f>IF(HKS=1,'1_a'!H7,販売量!O8)</f>
-        <v>37926</v>
+        <v>48604.486618181822</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="20" customHeight="1">
-      <c r="B7" s="439" t="s">
+      <c r="B7" s="443" t="s">
         <v>546</v>
       </c>
-      <c r="C7" s="439"/>
+      <c r="C7" s="443"/>
       <c r="D7" s="355">
         <f>D6/D5</f>
-        <v>12.9</v>
+        <v>8.3858672564150822</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="20" customHeight="1"/>
@@ -18309,18 +18309,18 @@
         <v>303</v>
       </c>
       <c r="C11" s="360">
-        <v>0.23</v>
+        <v>0.85</v>
       </c>
       <c r="D11" s="360">
-        <v>0.05</v>
+        <v>0.34</v>
       </c>
       <c r="E11" s="361">
         <f>D5-SUM(E12:E13)</f>
-        <v>677</v>
+        <v>4927</v>
       </c>
       <c r="F11" s="362">
         <f>D6-SUM(F12:F13)</f>
-        <v>1896.3000000000029</v>
+        <v>16525.486618181822</v>
       </c>
       <c r="G11" s="363"/>
     </row>
@@ -18329,18 +18329,18 @@
         <v>304</v>
       </c>
       <c r="C12" s="360">
-        <v>0.61</v>
+        <v>0.13</v>
       </c>
       <c r="D12" s="360">
-        <v>0.56999999999999995</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E12" s="364">
         <f>ROUND($D$5*C12,0)</f>
-        <v>1793</v>
+        <v>753</v>
       </c>
       <c r="F12" s="362">
         <f>ROUND($D$6*D12,1)</f>
-        <v>21617.8</v>
+        <v>14095.3</v>
       </c>
       <c r="G12" s="363"/>
     </row>
@@ -18349,29 +18349,29 @@
         <v>305</v>
       </c>
       <c r="C13" s="360">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="D13" s="360">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="E13" s="364">
         <f>ROUND($D$5*C13,0)</f>
-        <v>470</v>
+        <v>116</v>
       </c>
       <c r="F13" s="362">
         <f>ROUND($D$6*D13,1)</f>
-        <v>14411.9</v>
+        <v>17983.7</v>
       </c>
       <c r="G13" s="363"/>
     </row>
     <row r="14" spans="2:7" ht="20" customHeight="1">
       <c r="E14" s="364">
         <f>SUM(E11:E13)</f>
-        <v>2940</v>
+        <v>5796</v>
       </c>
       <c r="F14" s="365">
         <f>SUM(F11:F13)</f>
-        <v>37926</v>
+        <v>48604.486618181822</v>
       </c>
       <c r="G14" s="366"/>
     </row>
@@ -18430,10 +18430,10 @@
         <v>8</v>
       </c>
       <c r="E20" s="373">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="F20" s="373">
-        <v>460</v>
+        <v>550</v>
       </c>
       <c r="G20" s="374"/>
       <c r="I20" s="370" t="s">
@@ -18446,10 +18446,10 @@
         <v>8</v>
       </c>
       <c r="L20" s="373">
-        <v>980</v>
+        <v>1080</v>
       </c>
       <c r="M20" s="373">
-        <v>450</v>
+        <v>493.04</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="20" customHeight="1">
@@ -18465,10 +18465,10 @@
       </c>
       <c r="E21" s="375">
         <f>E20+D20*F20-D20*F21</f>
-        <v>2078</v>
+        <v>1800</v>
       </c>
       <c r="F21" s="373">
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="G21" s="374"/>
       <c r="I21" s="370" t="s">
@@ -18483,10 +18483,10 @@
       </c>
       <c r="L21" s="375">
         <f>L20+K20*M20-K20*M21</f>
-        <v>1780</v>
+        <v>1679.9999999999995</v>
       </c>
       <c r="M21" s="373">
-        <v>350</v>
+        <v>418.04</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="20" customHeight="1">
@@ -18502,10 +18502,10 @@
       </c>
       <c r="E22" s="375">
         <f>E21+D21*F21-D21*F22</f>
-        <v>4028</v>
+        <v>4050</v>
       </c>
       <c r="F22" s="373">
-        <v>285</v>
+        <v>400</v>
       </c>
       <c r="G22" s="374"/>
       <c r="I22" s="370" t="s">
@@ -18520,10 +18520,10 @@
       </c>
       <c r="L22" s="375">
         <f>L21+K21*M21-K21*M22</f>
-        <v>3880</v>
+        <v>3930</v>
       </c>
       <c r="M22" s="373">
-        <v>280</v>
+        <v>343.04</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="20" customHeight="1"/>
@@ -18567,30 +18567,30 @@
       </c>
       <c r="C26" s="361">
         <f t="shared" ref="C26:D28" si="0">E11*E20</f>
-        <v>811046</v>
+        <v>5912400</v>
       </c>
       <c r="D26" s="364">
         <f t="shared" si="0"/>
-        <v>872298.0000000014</v>
+        <v>9089017.6400000025</v>
       </c>
       <c r="E26" s="361">
         <f>SUM(C26:D26)</f>
-        <v>1683344.0000000014</v>
+        <v>15001417.640000002</v>
       </c>
       <c r="I26" s="348" t="s">
         <v>303</v>
       </c>
       <c r="J26" s="361">
         <f t="shared" ref="J26:K28" si="1">E11*L20</f>
-        <v>663460</v>
+        <v>5321160</v>
       </c>
       <c r="K26" s="364">
         <f t="shared" si="1"/>
-        <v>853335.00000000128</v>
+        <v>8147725.9222283652</v>
       </c>
       <c r="L26" s="361">
         <f>SUM(J26:K26)</f>
-        <v>1516795.0000000014</v>
+        <v>13468885.922228366</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="20" customHeight="1">
@@ -18599,30 +18599,30 @@
       </c>
       <c r="C27" s="361">
         <f t="shared" si="0"/>
-        <v>3725854</v>
+        <v>1355400</v>
       </c>
       <c r="D27" s="364">
         <f t="shared" si="0"/>
-        <v>7566230</v>
+        <v>6695267.5</v>
       </c>
       <c r="E27" s="361">
         <f t="shared" ref="E27:E29" si="2">SUM(C27:D27)</f>
-        <v>11292084</v>
+        <v>8050667.5</v>
       </c>
       <c r="I27" s="348" t="s">
         <v>304</v>
       </c>
       <c r="J27" s="361">
         <f t="shared" si="1"/>
-        <v>3191540</v>
+        <v>1265039.9999999998</v>
       </c>
       <c r="K27" s="364">
         <f t="shared" si="1"/>
-        <v>7566230</v>
+        <v>5892399.2120000003</v>
       </c>
       <c r="L27" s="361">
         <f t="shared" ref="L27:L29" si="3">SUM(J27:K27)</f>
-        <v>10757770</v>
+        <v>7157439.2120000003</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="20" customHeight="1">
@@ -18631,30 +18631,30 @@
       </c>
       <c r="C28" s="361">
         <f>E13*E22</f>
-        <v>1893160</v>
+        <v>469800</v>
       </c>
       <c r="D28" s="364">
         <f t="shared" si="0"/>
-        <v>4107391.5</v>
+        <v>7193480</v>
       </c>
       <c r="E28" s="361">
         <f t="shared" si="2"/>
-        <v>6000551.5</v>
+        <v>7663280</v>
       </c>
       <c r="I28" s="348" t="s">
         <v>305</v>
       </c>
       <c r="J28" s="361">
         <f t="shared" si="1"/>
-        <v>1823600</v>
+        <v>455880</v>
       </c>
       <c r="K28" s="364">
         <f t="shared" si="1"/>
-        <v>4035332</v>
+        <v>6169128.4480000008</v>
       </c>
       <c r="L28" s="361">
         <f t="shared" si="3"/>
-        <v>5858932</v>
+        <v>6625008.4480000008</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="20" customHeight="1">
@@ -18663,15 +18663,15 @@
       </c>
       <c r="C29" s="361">
         <f>SUM(C26:C28)</f>
-        <v>6430060</v>
+        <v>7737600</v>
       </c>
       <c r="D29" s="364">
         <f>SUM(D26:D28)</f>
-        <v>12545919.500000002</v>
+        <v>22977765.140000001</v>
       </c>
       <c r="E29" s="361">
         <f t="shared" si="2"/>
-        <v>18975979.5</v>
+        <v>30715365.140000001</v>
       </c>
       <c r="F29" s="376"/>
       <c r="G29" s="376"/>
@@ -18680,15 +18680,15 @@
       </c>
       <c r="J29" s="361">
         <f>SUM(J26:J28)</f>
-        <v>5678600</v>
+        <v>7042080</v>
       </c>
       <c r="K29" s="364">
         <f>SUM(K26:K28)</f>
-        <v>12454897.000000002</v>
+        <v>20209253.582228366</v>
       </c>
       <c r="L29" s="361">
         <f t="shared" si="3"/>
-        <v>18133497</v>
+        <v>27251333.582228366</v>
       </c>
       <c r="M29" s="376"/>
     </row>
@@ -18697,12 +18697,12 @@
         <v>630</v>
       </c>
       <c r="E30" s="361">
-        <f>E29-D4</f>
-        <v>-824.35000000149012</v>
+        <f ca="1">E29-D4</f>
+        <v>0.14000000059604645</v>
       </c>
       <c r="L30" s="361">
-        <f>L29-D4</f>
-        <v>-843306.85000000149</v>
+        <f ca="1">L29-D4</f>
+        <v>-3464031.4177716337</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="25" customHeight="1"/>
@@ -18749,8 +18749,8 @@
   </sheetPr>
   <dimension ref="B1:U15"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -18786,7 +18786,7 @@
         <v>645</v>
       </c>
       <c r="C4" s="112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="405" t="s">
         <v>347</v>
@@ -18797,7 +18797,7 @@
         <v>646</v>
       </c>
       <c r="C5" s="112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="405" t="s">
         <v>347</v>
@@ -18807,7 +18807,7 @@
       <c r="O6" s="99"/>
       <c r="S6" s="231">
         <f ca="1">OFFSET(INDEX(C11:N11, 1, MATCH(MAX(C11:N11), C11:N11, 0)), -4, 0)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:21" s="98" customFormat="1" ht="50" customHeight="1">
@@ -18876,61 +18876,109 @@
       <c r="B8" s="110" t="s">
         <v>338</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
+      <c r="C8" s="141">
+        <v>4620</v>
+      </c>
+      <c r="D8" s="141">
+        <v>4525</v>
+      </c>
+      <c r="E8" s="141">
+        <v>4325</v>
+      </c>
+      <c r="F8" s="141">
+        <v>3725</v>
+      </c>
+      <c r="G8" s="141">
+        <v>3525</v>
+      </c>
+      <c r="H8" s="141">
+        <v>3425</v>
+      </c>
+      <c r="I8" s="141">
+        <v>3425</v>
+      </c>
+      <c r="J8" s="141">
+        <v>3425</v>
+      </c>
+      <c r="K8" s="141">
+        <v>3525</v>
+      </c>
+      <c r="L8" s="141">
+        <v>3825</v>
+      </c>
+      <c r="M8" s="141">
+        <v>4325</v>
+      </c>
+      <c r="N8" s="141">
+        <v>5934.4866181818179</v>
+      </c>
       <c r="O8" s="115">
         <f>SUM(C8:N8)</f>
-        <v>0</v>
+        <v>48604.486618181822</v>
       </c>
       <c r="P8" s="111">
         <f>IFERROR(O8/R8,0)</f>
-        <v>0</v>
+        <v>8.3858672564150822</v>
       </c>
       <c r="Q8" s="114">
-        <v>245</v>
+        <v>483</v>
       </c>
       <c r="R8" s="108">
         <f>Q8*12</f>
-        <v>2940</v>
+        <v>5796</v>
       </c>
       <c r="S8" s="116">
         <f ca="1">OFFSET(INDEX(C11:N11, 1, MATCH(MAX(C11:N11), C11:N11, 0)), -3, 0)</f>
-        <v>0</v>
+        <v>5934.4866181818179</v>
       </c>
       <c r="T8" s="141">
         <v>2.5</v>
       </c>
       <c r="U8" s="116">
         <f>R8*T8</f>
-        <v>7350</v>
+        <v>14490</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="38" customHeight="1">
       <c r="B9" s="110" t="s">
         <v>642</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
+      <c r="C9" s="141">
+        <v>0</v>
+      </c>
+      <c r="D9" s="141">
+        <v>0</v>
+      </c>
+      <c r="E9" s="141">
+        <v>0</v>
+      </c>
+      <c r="F9" s="141">
+        <v>0</v>
+      </c>
+      <c r="G9" s="141">
+        <v>0</v>
+      </c>
+      <c r="H9" s="141">
+        <v>0</v>
+      </c>
+      <c r="I9" s="141">
+        <v>0</v>
+      </c>
+      <c r="J9" s="141">
+        <v>0</v>
+      </c>
+      <c r="K9" s="141">
+        <v>0</v>
+      </c>
+      <c r="L9" s="141">
+        <v>0</v>
+      </c>
+      <c r="M9" s="141">
+        <v>0</v>
+      </c>
+      <c r="N9" s="141">
+        <v>0</v>
+      </c>
       <c r="O9" s="115">
         <f>SUM(C9:N9)</f>
         <v>0</v>
@@ -18939,7 +18987,9 @@
         <f>IFERROR(O9/R9,0)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="114"/>
+      <c r="Q9" s="114">
+        <v>0</v>
+      </c>
       <c r="R9" s="108">
         <f>Q9*12</f>
         <v>0</v>
@@ -18960,115 +19010,143 @@
       <c r="B10" s="110" t="s">
         <v>641</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
+      <c r="C10" s="141">
+        <v>100.1</v>
+      </c>
+      <c r="D10" s="141">
+        <v>124</v>
+      </c>
+      <c r="E10" s="141">
+        <v>42.3</v>
+      </c>
+      <c r="F10" s="141">
+        <v>24</v>
+      </c>
+      <c r="G10" s="141">
+        <v>16.5</v>
+      </c>
+      <c r="H10" s="141">
+        <v>15.2</v>
+      </c>
+      <c r="I10" s="141">
+        <v>35.6</v>
+      </c>
+      <c r="J10" s="141">
+        <v>167.1</v>
+      </c>
+      <c r="K10" s="141">
+        <v>307.5</v>
+      </c>
+      <c r="L10" s="141">
+        <v>715.4</v>
+      </c>
+      <c r="M10" s="141">
+        <v>715.3</v>
+      </c>
+      <c r="N10" s="141">
+        <v>754.4</v>
+      </c>
       <c r="O10" s="115">
         <f>SUM(C10:N10)</f>
-        <v>0</v>
+        <v>3017.4</v>
       </c>
       <c r="P10" s="111">
         <f>IFERROR(O10/R10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="114"/>
+        <v>62.862500000000004</v>
+      </c>
+      <c r="Q10" s="114">
+        <v>4</v>
+      </c>
       <c r="R10" s="108">
         <f>Q10*12</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="S10" s="116">
         <f ca="1">OFFSET(INDEX(C11:N11, 1, MATCH(MAX(C11:N11), C11:N11, 0)), -1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="141"/>
+        <v>754.4</v>
+      </c>
+      <c r="T10" s="141">
+        <v>2.5</v>
+      </c>
       <c r="U10" s="116">
         <f>R10*T10</f>
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="38" customHeight="1">
       <c r="B11" s="110"/>
       <c r="C11" s="115">
         <f>SUM(C8:C10)</f>
-        <v>0</v>
+        <v>4720.1000000000004</v>
       </c>
       <c r="D11" s="115">
         <f t="shared" ref="D11:O11" si="0">SUM(D8:D10)</f>
-        <v>0</v>
+        <v>4649</v>
       </c>
       <c r="E11" s="115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4367.3</v>
       </c>
       <c r="F11" s="115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3749</v>
       </c>
       <c r="G11" s="115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3541.5</v>
       </c>
       <c r="H11" s="115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3440.2</v>
       </c>
       <c r="I11" s="115">
         <f>SUM(I8:I10)</f>
-        <v>0</v>
+        <v>3460.6</v>
       </c>
       <c r="J11" s="115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3592.1</v>
       </c>
       <c r="K11" s="115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3832.5</v>
       </c>
       <c r="L11" s="115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4540.3999999999996</v>
       </c>
       <c r="M11" s="115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5040.3</v>
       </c>
       <c r="N11" s="115">
         <f>SUM(N8:N10)</f>
-        <v>0</v>
+        <v>6688.8866181818175</v>
       </c>
       <c r="O11" s="115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>51621.886618181823</v>
       </c>
       <c r="P11" s="193">
         <f>IFERROR(ROUNDDOWN(O11/R11,3),0)</f>
-        <v>0</v>
+        <v>8.8330000000000002</v>
       </c>
       <c r="Q11" s="108">
         <f>IF(SUM(Q8:Q10)=ナビ!D11,SUM(Q8:Q10),"需要家数相違")</f>
-        <v>245</v>
+        <v>487</v>
       </c>
       <c r="R11" s="117">
         <f>SUM(R8:R10)</f>
-        <v>2940</v>
+        <v>5844</v>
       </c>
       <c r="S11" s="115">
         <f ca="1">SUM(S8:S10)</f>
-        <v>0</v>
+        <v>6688.8866181818175</v>
       </c>
       <c r="T11" s="110"/>
       <c r="U11" s="115">
         <f>SUM(U8:U10)</f>
-        <v>7350</v>
+        <v>14610</v>
       </c>
     </row>
     <row r="12" spans="2:21" ht="25" customHeight="1">
@@ -19112,7 +19190,7 @@
   <dimension ref="B1:P26"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -19199,24 +19277,24 @@
       </c>
       <c r="C5" s="112"/>
       <c r="D5" s="196">
-        <v>30441</v>
+        <v>32153</v>
       </c>
       <c r="E5" s="113">
-        <v>150</v>
+        <v>649.1</v>
       </c>
       <c r="F5" s="114">
-        <v>15000000</v>
+        <v>15300000</v>
       </c>
       <c r="G5" s="108">
         <f>IFERROR(ROUND(F5/E5,0), "")</f>
-        <v>100000</v>
+        <v>23571</v>
       </c>
       <c r="H5" s="114">
-        <v>6000000</v>
+        <v>6126190</v>
       </c>
       <c r="I5" s="108">
         <f>IFERROR(ROUND(H5/E5,0), "")</f>
-        <v>40000</v>
+        <v>9438</v>
       </c>
       <c r="J5" s="107" t="str">
         <f>IF(K5="","",_xlfn.XLOOKUP(K5,標準係数B!T:T,標準係数B!S:S, "IDなし", 0, 1))</f>
@@ -19226,19 +19304,19 @@
         <v>640</v>
       </c>
       <c r="L5" s="112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M5" s="109">
         <f>IFERROR(VLOOKUP(J5,標準係数B!$S$4:$X$20,L5+2,FALSE), "")</f>
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="N5" s="108">
         <f>IFERROR(IF(E5&lt;=M5,F5,M5*G5),"")</f>
-        <v>12700000</v>
+        <v>6953445</v>
       </c>
       <c r="O5" s="108">
         <f>IFERROR(IF(E5&lt;=M5,H5,M5*I5),"")</f>
-        <v>5080000</v>
+        <v>2784210</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="38" customHeight="1">
@@ -19573,16 +19651,16 @@
       <c r="D15" s="110"/>
       <c r="E15" s="111">
         <f>SUM(E5:E14)</f>
-        <v>150</v>
+        <v>649.1</v>
       </c>
       <c r="F15" s="111">
         <f>SUM(F5:F14)</f>
-        <v>15000000</v>
+        <v>15300000</v>
       </c>
       <c r="G15" s="110"/>
       <c r="H15" s="111">
         <f>SUM(H5:H14)</f>
-        <v>6000000</v>
+        <v>6126190</v>
       </c>
       <c r="I15" s="110"/>
       <c r="J15" s="107"/>
@@ -19590,15 +19668,15 @@
       <c r="L15" s="110"/>
       <c r="M15" s="111">
         <f>SUM(M5:M14)</f>
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="N15" s="193">
         <f>SUM(N5:N14)</f>
-        <v>12700000</v>
+        <v>6953445</v>
       </c>
       <c r="O15" s="195">
         <f>SUM(O5:O14)</f>
-        <v>5080000</v>
+        <v>2784210</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="25" customHeight="1"/>
@@ -19641,7 +19719,7 @@
       <selection activeCell="N8" sqref="N8"/>
       <selection pane="topRight" activeCell="N8" sqref="N8"/>
       <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -19675,7 +19753,7 @@
       </c>
       <c r="H2" s="97">
         <f>MATCH(償却資産!G6, 標準係数A!B:B, 0)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="20" customHeight="1">
@@ -19789,18 +19867,18 @@
         <v>TTM</v>
       </c>
       <c r="E6" s="114">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="F6" s="196">
-        <v>30317</v>
+        <v>36483</v>
       </c>
       <c r="G6" s="110" t="str">
         <f t="shared" ref="G6:G26" si="0">IF(F6="","",VLOOKUP(F6,$U$5:$V$24,2,TRUE))</f>
-        <v>HK08</v>
+        <v>HK12</v>
       </c>
       <c r="H6" s="120">
         <f>IF(C6="","",INDEX(標準係数A!$E:$R, MATCH(償却資産!G6, 標準係数A!B:B, 0), MATCH(償却資産!D6, 標準係数A!$E$4:$R$4, 0)))</f>
-        <v>8770</v>
+        <v>12670</v>
       </c>
       <c r="I6" s="121">
         <f t="shared" ref="I6:I26" si="1">IF(F6="","",IF(AND( F6 &lt;= DATE(2017,4,1), OR(D6="SGS",D6="DKK",D6="DPK",D6="DKT",D6="DPT",D6="SSB")),1,0))</f>
@@ -19815,15 +19893,15 @@
       <c r="L6" s="140"/>
       <c r="M6" s="108">
         <f t="shared" ref="M6:M26" si="2">IF(E6="","",E6*H6)</f>
-        <v>2148650</v>
+        <v>1786470</v>
       </c>
       <c r="N6" s="108">
         <f t="shared" ref="N6:N26" si="3">IF(E6="","",IF(K6=0,M6,L6))</f>
-        <v>2148650</v>
+        <v>1786470</v>
       </c>
       <c r="O6" s="108">
         <f t="shared" ref="O6:O26" si="4">IF(E6="","",IF(P6=N6,0, N6))</f>
-        <v>2148650</v>
+        <v>1786470</v>
       </c>
       <c r="P6" s="108">
         <f t="shared" ref="P6:P26" si="5">IF(E6="","",IF(AND(I6=1, J6=1), N6, 0))</f>
@@ -19831,7 +19909,7 @@
       </c>
       <c r="Q6" s="108">
         <f t="shared" ref="Q6:Q26" si="6">IF(M6="","",ROUND(M6*$Q$4,0))</f>
-        <v>64460</v>
+        <v>53594</v>
       </c>
       <c r="R6" s="126">
         <f>IF(M6="","",HLOOKUP(D6,標準係数A!$E$4:$R$5,2,FALSE))</f>
@@ -19839,7 +19917,7 @@
       </c>
       <c r="S6" s="108">
         <f t="shared" ref="S6:S26" si="7">IF(N6="","",N6*R6)</f>
-        <v>64459.5</v>
+        <v>53594.1</v>
       </c>
       <c r="U6" s="136">
         <v>1</v>
@@ -19853,25 +19931,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="112" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D7" s="110" t="str">
         <f>IF(C7="","",_xlfn.XLOOKUP(C7,標準係数A!$3:$3,標準係数A!$4:$4, "IDなし", 0, 1))</f>
-        <v>KCB</v>
+        <v>TTM</v>
       </c>
       <c r="E7" s="114">
-        <v>245</v>
+        <v>5</v>
       </c>
       <c r="F7" s="196">
-        <v>30317</v>
+        <v>32599</v>
       </c>
       <c r="G7" s="110" t="str">
         <f t="shared" si="0"/>
-        <v>HK08</v>
+        <v>HK11</v>
       </c>
       <c r="H7" s="120">
         <f>IF(C7="","",INDEX(標準係数A!$E:$R, MATCH(償却資産!G7, 標準係数A!B:B, 0), MATCH(償却資産!D7, 標準係数A!$E$4:$R$4, 0)))</f>
-        <v>1450</v>
+        <v>10485</v>
       </c>
       <c r="I7" s="121">
         <f t="shared" si="1"/>
@@ -19886,15 +19964,15 @@
       <c r="L7" s="140"/>
       <c r="M7" s="108">
         <f t="shared" si="2"/>
-        <v>355250</v>
+        <v>52425</v>
       </c>
       <c r="N7" s="108">
         <f t="shared" si="3"/>
-        <v>355250</v>
+        <v>52425</v>
       </c>
       <c r="O7" s="108">
         <f t="shared" si="4"/>
-        <v>355250</v>
+        <v>52425</v>
       </c>
       <c r="P7" s="108">
         <f t="shared" si="5"/>
@@ -19902,15 +19980,15 @@
       </c>
       <c r="Q7" s="108">
         <f t="shared" si="6"/>
-        <v>10658</v>
+        <v>1573</v>
       </c>
       <c r="R7" s="126">
         <f>IF(M7="","",HLOOKUP(D7,標準係数A!$E$4:$R$5,2,FALSE))</f>
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="S7" s="108">
         <f t="shared" si="7"/>
-        <v>35525</v>
+        <v>1572.75</v>
       </c>
       <c r="U7" s="136">
         <v>26846</v>
@@ -19924,25 +20002,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="112" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D8" s="110" t="str">
         <f>IF(C8="","",_xlfn.XLOOKUP(C8,標準係数A!$3:$3,標準係数A!$4:$4, "IDなし", 0, 1))</f>
-        <v>KKS</v>
+        <v>TTM</v>
       </c>
       <c r="E8" s="114">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="F8" s="196">
-        <v>37622</v>
+        <v>32069</v>
       </c>
       <c r="G8" s="110" t="str">
         <f t="shared" si="0"/>
-        <v>HK12</v>
+        <v>HK10</v>
       </c>
       <c r="H8" s="120">
         <f>IF(C8="","",INDEX(標準係数A!$E:$R, MATCH(償却資産!G8, 標準係数A!B:B, 0), MATCH(償却資産!D8, 標準係数A!$E$4:$R$4, 0)))</f>
-        <v>0</v>
+        <v>10350</v>
       </c>
       <c r="I8" s="121">
         <f t="shared" si="1"/>
@@ -19957,15 +20035,15 @@
       <c r="L8" s="140"/>
       <c r="M8" s="108">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3529350</v>
       </c>
       <c r="N8" s="108">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3529350</v>
       </c>
       <c r="O8" s="108">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3529350</v>
       </c>
       <c r="P8" s="108">
         <f t="shared" si="5"/>
@@ -19973,15 +20051,15 @@
       </c>
       <c r="Q8" s="108">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>105881</v>
       </c>
       <c r="R8" s="126">
         <f>IF(M8="","",HLOOKUP(D8,標準係数A!$E$4:$R$5,2,FALSE))</f>
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="S8" s="108">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>105880.5</v>
       </c>
       <c r="U8" s="136">
         <v>27292</v>
@@ -19995,29 +20073,29 @@
         <v>4</v>
       </c>
       <c r="C9" s="112" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9" s="110" t="str">
         <f>IF(C9="","",_xlfn.XLOOKUP(C9,標準係数A!$3:$3,標準係数A!$4:$4, "IDなし", 0, 1))</f>
-        <v>SGS</v>
+        <v>KCB</v>
       </c>
       <c r="E9" s="114">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="F9" s="196">
-        <v>32123</v>
+        <v>36483</v>
       </c>
       <c r="G9" s="110" t="str">
         <f t="shared" si="0"/>
-        <v>HK10</v>
+        <v>HK12</v>
       </c>
       <c r="H9" s="120">
         <f>IF(C9="","",INDEX(標準係数A!$E:$R, MATCH(償却資産!G9, 標準係数A!B:B, 0), MATCH(償却資産!D9, 標準係数A!$E$4:$R$4, 0)))</f>
-        <v>5960</v>
+        <v>4960</v>
       </c>
       <c r="I9" s="121">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="140">
         <v>0</v>
@@ -20028,15 +20106,15 @@
       <c r="L9" s="140"/>
       <c r="M9" s="108">
         <f t="shared" si="2"/>
-        <v>1460200</v>
+        <v>699360</v>
       </c>
       <c r="N9" s="108">
         <f t="shared" si="3"/>
-        <v>1460200</v>
+        <v>699360</v>
       </c>
       <c r="O9" s="108">
         <f t="shared" si="4"/>
-        <v>1460200</v>
+        <v>699360</v>
       </c>
       <c r="P9" s="108">
         <f t="shared" si="5"/>
@@ -20044,7 +20122,7 @@
       </c>
       <c r="Q9" s="108">
         <f t="shared" si="6"/>
-        <v>43806</v>
+        <v>20981</v>
       </c>
       <c r="R9" s="126">
         <f>IF(M9="","",HLOOKUP(D9,標準係数A!$E$4:$R$5,2,FALSE))</f>
@@ -20052,7 +20130,7 @@
       </c>
       <c r="S9" s="108">
         <f t="shared" si="7"/>
-        <v>146020</v>
+        <v>69936</v>
       </c>
       <c r="U9" s="136">
         <v>27687</v>
@@ -20066,25 +20144,25 @@
         <v>5</v>
       </c>
       <c r="C10" s="112" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D10" s="110" t="str">
         <f>IF(C10="","",_xlfn.XLOOKUP(C10,標準係数A!$3:$3,標準係数A!$4:$4, "IDなし", 0, 1))</f>
-        <v>YKI</v>
+        <v>KCB</v>
       </c>
       <c r="E10" s="114">
-        <v>245</v>
+        <v>5</v>
       </c>
       <c r="F10" s="196">
-        <v>37622</v>
+        <v>32599</v>
       </c>
       <c r="G10" s="110" t="str">
         <f t="shared" si="0"/>
-        <v>HK12</v>
+        <v>HK11</v>
       </c>
       <c r="H10" s="120">
         <f>IF(C10="","",INDEX(標準係数A!$E:$R, MATCH(償却資産!G10, 標準係数A!B:B, 0), MATCH(償却資産!D10, 標準係数A!$E$4:$R$4, 0)))</f>
-        <v>5270</v>
+        <v>1700</v>
       </c>
       <c r="I10" s="121">
         <f t="shared" si="1"/>
@@ -20099,15 +20177,15 @@
       <c r="L10" s="140"/>
       <c r="M10" s="108">
         <f t="shared" si="2"/>
-        <v>1291150</v>
+        <v>8500</v>
       </c>
       <c r="N10" s="108">
         <f t="shared" si="3"/>
-        <v>1291150</v>
+        <v>8500</v>
       </c>
       <c r="O10" s="108">
         <f t="shared" si="4"/>
-        <v>1291150</v>
+        <v>8500</v>
       </c>
       <c r="P10" s="108">
         <f t="shared" si="5"/>
@@ -20115,15 +20193,15 @@
       </c>
       <c r="Q10" s="108">
         <f t="shared" si="6"/>
-        <v>38735</v>
+        <v>255</v>
       </c>
       <c r="R10" s="126">
         <f>IF(M10="","",HLOOKUP(D10,標準係数A!$E$4:$R$5,2,FALSE))</f>
-        <v>0.16700000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="S10" s="108">
         <f t="shared" si="7"/>
-        <v>215622.05000000002</v>
+        <v>850</v>
       </c>
       <c r="U10" s="136">
         <v>28135</v>
@@ -20137,32 +20215,32 @@
         <v>6</v>
       </c>
       <c r="C11" s="112" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D11" s="110" t="str">
         <f>IF(C11="","",_xlfn.XLOOKUP(C11,標準係数A!$3:$3,標準係数A!$4:$4, "IDなし", 0, 1))</f>
-        <v>DPK</v>
+        <v>KCB</v>
       </c>
       <c r="E11" s="114">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="F11" s="196">
-        <v>40179</v>
+        <v>32069</v>
       </c>
       <c r="G11" s="110" t="str">
         <f t="shared" si="0"/>
-        <v>HK14</v>
+        <v>HK10</v>
       </c>
       <c r="H11" s="120">
         <f>IF(C11="","",INDEX(標準係数A!$E:$R, MATCH(償却資産!G11, 標準係数A!B:B, 0), MATCH(償却資産!D11, 標準係数A!$E$4:$R$4, 0)))</f>
-        <v>32080</v>
+        <v>1680</v>
       </c>
       <c r="I11" s="121">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="140">
         <v>0</v>
@@ -20170,31 +20248,31 @@
       <c r="L11" s="140"/>
       <c r="M11" s="108">
         <f t="shared" si="2"/>
-        <v>7859600</v>
+        <v>572880</v>
       </c>
       <c r="N11" s="108">
         <f t="shared" si="3"/>
-        <v>7859600</v>
+        <v>572880</v>
       </c>
       <c r="O11" s="108">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>572880</v>
       </c>
       <c r="P11" s="108">
         <f t="shared" si="5"/>
-        <v>7859600</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="108">
         <f t="shared" si="6"/>
-        <v>235788</v>
+        <v>17186</v>
       </c>
       <c r="R11" s="126">
         <f>IF(M11="","",HLOOKUP(D11,標準係数A!$E$4:$R$5,2,FALSE))</f>
-        <v>7.6999999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="S11" s="108">
         <f t="shared" si="7"/>
-        <v>605189.19999999995</v>
+        <v>57288</v>
       </c>
       <c r="U11" s="136">
         <v>28491</v>
@@ -20208,32 +20286,32 @@
         <v>7</v>
       </c>
       <c r="C12" s="112" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D12" s="110" t="str">
         <f>IF(C12="","",_xlfn.XLOOKUP(C12,標準係数A!$3:$3,標準係数A!$4:$4, "IDなし", 0, 1))</f>
-        <v>MTR</v>
+        <v>SGS</v>
       </c>
       <c r="E12" s="114">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="F12" s="196">
-        <v>39083</v>
+        <v>36483</v>
       </c>
       <c r="G12" s="110" t="str">
         <f t="shared" si="0"/>
-        <v>HK13</v>
+        <v>HK12</v>
       </c>
       <c r="H12" s="120">
         <f>IF(C12="","",INDEX(標準係数A!$E:$R, MATCH(償却資産!G12, 標準係数A!B:B, 0), MATCH(償却資産!D12, 標準係数A!$E$4:$R$4, 0)))</f>
-        <v>13940</v>
+        <v>10590</v>
       </c>
       <c r="I12" s="121">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="140">
         <v>0</v>
@@ -20241,31 +20319,31 @@
       <c r="L12" s="140"/>
       <c r="M12" s="108">
         <f t="shared" si="2"/>
-        <v>3415300</v>
+        <v>1493190</v>
       </c>
       <c r="N12" s="108">
         <f t="shared" si="3"/>
-        <v>3415300</v>
+        <v>1493190</v>
       </c>
       <c r="O12" s="108">
         <f t="shared" si="4"/>
-        <v>3415300</v>
+        <v>0</v>
       </c>
       <c r="P12" s="108">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1493190</v>
       </c>
       <c r="Q12" s="108">
         <f t="shared" si="6"/>
-        <v>102459</v>
+        <v>44796</v>
       </c>
       <c r="R12" s="126">
         <f>IF(M12="","",HLOOKUP(D12,標準係数A!$E$4:$R$5,2,FALSE))</f>
-        <v>7.6999999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="S12" s="108">
         <f t="shared" si="7"/>
-        <v>262978.09999999998</v>
+        <v>149319</v>
       </c>
       <c r="U12" s="136">
         <v>29188</v>
@@ -20279,32 +20357,32 @@
         <v>8</v>
       </c>
       <c r="C13" s="112" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D13" s="110" t="str">
         <f>IF(C13="","",_xlfn.XLOOKUP(C13,標準係数A!$3:$3,標準係数A!$4:$4, "IDなし", 0, 1))</f>
-        <v>BHN</v>
+        <v>SGS</v>
       </c>
       <c r="E13" s="114">
-        <v>245</v>
+        <v>5</v>
       </c>
       <c r="F13" s="196">
-        <v>39083</v>
+        <v>32599</v>
       </c>
       <c r="G13" s="110" t="str">
         <f t="shared" si="0"/>
-        <v>HK13</v>
+        <v>HK11</v>
       </c>
       <c r="H13" s="120">
         <f>IF(C13="","",INDEX(標準係数A!$E:$R, MATCH(償却資産!G13, 標準係数A!B:B, 0), MATCH(償却資産!D13, 標準係数A!$E$4:$R$4, 0)))</f>
-        <v>810</v>
+        <v>6040</v>
       </c>
       <c r="I13" s="121">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="140">
         <v>0</v>
@@ -20312,31 +20390,31 @@
       <c r="L13" s="140"/>
       <c r="M13" s="108">
         <f t="shared" si="2"/>
-        <v>198450</v>
+        <v>30200</v>
       </c>
       <c r="N13" s="108">
         <f t="shared" si="3"/>
-        <v>198450</v>
+        <v>30200</v>
       </c>
       <c r="O13" s="108">
         <f t="shared" si="4"/>
-        <v>198450</v>
+        <v>0</v>
       </c>
       <c r="P13" s="108">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30200</v>
       </c>
       <c r="Q13" s="108">
         <f t="shared" si="6"/>
-        <v>5954</v>
+        <v>906</v>
       </c>
       <c r="R13" s="126">
         <f>IF(M13="","",HLOOKUP(D13,標準係数A!$E$4:$R$5,2,FALSE))</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S13" s="108">
         <f t="shared" si="7"/>
-        <v>39690</v>
+        <v>3020</v>
       </c>
       <c r="U13" s="136">
         <v>29634</v>
@@ -20349,55 +20427,65 @@
       <c r="B14" s="110">
         <v>9</v>
       </c>
-      <c r="C14" s="112"/>
+      <c r="C14" s="112" t="s">
+        <v>275</v>
+      </c>
       <c r="D14" s="110" t="str">
         <f>IF(C14="","",_xlfn.XLOOKUP(C14,標準係数A!$3:$3,標準係数A!$4:$4, "IDなし", 0, 1))</f>
-        <v/>
-      </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="196"/>
+        <v>SGS</v>
+      </c>
+      <c r="E14" s="114">
+        <v>341</v>
+      </c>
+      <c r="F14" s="196">
+        <v>32069</v>
+      </c>
       <c r="G14" s="110" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H14" s="120" t="str">
+        <v>HK10</v>
+      </c>
+      <c r="H14" s="120">
         <f>IF(C14="","",INDEX(標準係数A!$E:$R, MATCH(償却資産!G14, 標準係数A!B:B, 0), MATCH(償却資産!D14, 標準係数A!$E$4:$R$4, 0)))</f>
-        <v/>
-      </c>
-      <c r="I14" s="121" t="str">
+        <v>5960</v>
+      </c>
+      <c r="I14" s="121">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="140">
+        <v>1</v>
+      </c>
+      <c r="K14" s="140">
+        <v>0</v>
+      </c>
       <c r="L14" s="140"/>
-      <c r="M14" s="108" t="str">
+      <c r="M14" s="108">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N14" s="108" t="str">
+        <v>2032360</v>
+      </c>
+      <c r="N14" s="108">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O14" s="108" t="str">
+        <v>2032360</v>
+      </c>
+      <c r="O14" s="108">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P14" s="108" t="str">
+        <v>0</v>
+      </c>
+      <c r="P14" s="108">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q14" s="108" t="str">
+        <v>2032360</v>
+      </c>
+      <c r="Q14" s="108">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R14" s="126" t="str">
+        <v>60971</v>
+      </c>
+      <c r="R14" s="126">
         <f>IF(M14="","",HLOOKUP(D14,標準係数A!$E$4:$R$5,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="S14" s="108" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="S14" s="108">
         <f t="shared" si="7"/>
-        <v/>
+        <v>203236</v>
       </c>
       <c r="U14" s="136">
         <v>30545</v>
@@ -20410,55 +20498,65 @@
       <c r="B15" s="110">
         <v>10</v>
       </c>
-      <c r="C15" s="112"/>
+      <c r="C15" s="112" t="s">
+        <v>281</v>
+      </c>
       <c r="D15" s="110" t="str">
         <f>IF(C15="","",_xlfn.XLOOKUP(C15,標準係数A!$3:$3,標準係数A!$4:$4, "IDなし", 0, 1))</f>
-        <v/>
-      </c>
-      <c r="E15" s="114"/>
-      <c r="F15" s="196"/>
+        <v>MTR</v>
+      </c>
+      <c r="E15" s="114">
+        <v>487</v>
+      </c>
+      <c r="F15" s="196">
+        <v>40424</v>
+      </c>
       <c r="G15" s="110" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H15" s="120" t="str">
+        <v>HK15</v>
+      </c>
+      <c r="H15" s="120">
         <f>IF(C15="","",INDEX(標準係数A!$E:$R, MATCH(償却資産!G15, 標準係数A!B:B, 0), MATCH(償却資産!D15, 標準係数A!$E$4:$R$4, 0)))</f>
-        <v/>
-      </c>
-      <c r="I15" s="121" t="str">
+        <v>11010</v>
+      </c>
+      <c r="I15" s="121">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="140">
+        <v>0</v>
+      </c>
+      <c r="K15" s="140">
+        <v>0</v>
+      </c>
       <c r="L15" s="140"/>
-      <c r="M15" s="108" t="str">
+      <c r="M15" s="108">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N15" s="108" t="str">
+        <v>5361870</v>
+      </c>
+      <c r="N15" s="108">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O15" s="108" t="str">
+        <v>5361870</v>
+      </c>
+      <c r="O15" s="108">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P15" s="108" t="str">
+        <v>5361870</v>
+      </c>
+      <c r="P15" s="108">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q15" s="108" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="108">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R15" s="126" t="str">
+        <v>160856</v>
+      </c>
+      <c r="R15" s="126">
         <f>IF(M15="","",HLOOKUP(D15,標準係数A!$E$4:$R$5,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="S15" s="108" t="str">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="S15" s="108">
         <f t="shared" si="7"/>
-        <v/>
+        <v>412863.99</v>
       </c>
       <c r="U15" s="136">
         <v>32069</v>
@@ -20471,55 +20569,65 @@
       <c r="B16" s="110">
         <v>11</v>
       </c>
-      <c r="C16" s="112"/>
+      <c r="C16" s="112" t="s">
+        <v>280</v>
+      </c>
       <c r="D16" s="110" t="str">
         <f>IF(C16="","",_xlfn.XLOOKUP(C16,標準係数A!$3:$3,標準係数A!$4:$4, "IDなし", 0, 1))</f>
-        <v/>
-      </c>
-      <c r="E16" s="114"/>
-      <c r="F16" s="196"/>
+        <v>DPT</v>
+      </c>
+      <c r="E16" s="114">
+        <v>141</v>
+      </c>
+      <c r="F16" s="196">
+        <v>36483</v>
+      </c>
       <c r="G16" s="110" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H16" s="120" t="str">
+        <v>HK12</v>
+      </c>
+      <c r="H16" s="120">
         <f>IF(C16="","",INDEX(標準係数A!$E:$R, MATCH(償却資産!G16, 標準係数A!B:B, 0), MATCH(償却資産!D16, 標準係数A!$E$4:$R$4, 0)))</f>
-        <v/>
-      </c>
-      <c r="I16" s="121" t="str">
+        <v>108630</v>
+      </c>
+      <c r="I16" s="121">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="140">
+        <v>1</v>
+      </c>
+      <c r="K16" s="140">
+        <v>0</v>
+      </c>
       <c r="L16" s="140"/>
-      <c r="M16" s="108" t="str">
+      <c r="M16" s="108">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N16" s="108" t="str">
+        <v>15316830</v>
+      </c>
+      <c r="N16" s="108">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O16" s="108" t="str">
+        <v>15316830</v>
+      </c>
+      <c r="O16" s="108">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P16" s="108" t="str">
+        <v>0</v>
+      </c>
+      <c r="P16" s="108">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q16" s="108" t="str">
+        <v>15316830</v>
+      </c>
+      <c r="Q16" s="108">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R16" s="126" t="str">
+        <v>459505</v>
+      </c>
+      <c r="R16" s="126">
         <f>IF(M16="","",HLOOKUP(D16,標準係数A!$E$4:$R$5,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="S16" s="108" t="str">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="S16" s="108">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1179395.9099999999</v>
       </c>
       <c r="U16" s="136">
         <v>32599</v>
@@ -20532,55 +20640,65 @@
       <c r="B17" s="110">
         <v>12</v>
       </c>
-      <c r="C17" s="112"/>
+      <c r="C17" s="112" t="s">
+        <v>280</v>
+      </c>
       <c r="D17" s="110" t="str">
         <f>IF(C17="","",_xlfn.XLOOKUP(C17,標準係数A!$3:$3,標準係数A!$4:$4, "IDなし", 0, 1))</f>
-        <v/>
-      </c>
-      <c r="E17" s="114"/>
-      <c r="F17" s="196"/>
+        <v>DPT</v>
+      </c>
+      <c r="E17" s="114">
+        <v>5</v>
+      </c>
+      <c r="F17" s="196">
+        <v>32599</v>
+      </c>
       <c r="G17" s="110" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H17" s="120" t="str">
+        <v>HK11</v>
+      </c>
+      <c r="H17" s="120">
         <f>IF(C17="","",INDEX(標準係数A!$E:$R, MATCH(償却資産!G17, 標準係数A!B:B, 0), MATCH(償却資産!D17, 標準係数A!$E$4:$R$4, 0)))</f>
-        <v/>
-      </c>
-      <c r="I17" s="121" t="str">
+        <v>62930</v>
+      </c>
+      <c r="I17" s="121">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J17" s="140"/>
-      <c r="K17" s="140"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="140">
+        <v>1</v>
+      </c>
+      <c r="K17" s="140">
+        <v>0</v>
+      </c>
       <c r="L17" s="140"/>
-      <c r="M17" s="108" t="str">
+      <c r="M17" s="108">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N17" s="108" t="str">
+        <v>314650</v>
+      </c>
+      <c r="N17" s="108">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O17" s="108" t="str">
+        <v>314650</v>
+      </c>
+      <c r="O17" s="108">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P17" s="108" t="str">
+        <v>0</v>
+      </c>
+      <c r="P17" s="108">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q17" s="108" t="str">
+        <v>314650</v>
+      </c>
+      <c r="Q17" s="108">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R17" s="126" t="str">
+        <v>9440</v>
+      </c>
+      <c r="R17" s="126">
         <f>IF(M17="","",HLOOKUP(D17,標準係数A!$E$4:$R$5,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="S17" s="108" t="str">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="S17" s="108">
         <f t="shared" si="7"/>
-        <v/>
+        <v>24228.05</v>
       </c>
       <c r="U17" s="136">
         <v>36483</v>
@@ -20593,55 +20711,65 @@
       <c r="B18" s="110">
         <v>13</v>
       </c>
-      <c r="C18" s="112"/>
+      <c r="C18" s="112" t="s">
+        <v>280</v>
+      </c>
       <c r="D18" s="110" t="str">
         <f>IF(C18="","",_xlfn.XLOOKUP(C18,標準係数A!$3:$3,標準係数A!$4:$4, "IDなし", 0, 1))</f>
-        <v/>
-      </c>
-      <c r="E18" s="114"/>
-      <c r="F18" s="196"/>
+        <v>DPT</v>
+      </c>
+      <c r="E18" s="114">
+        <v>341</v>
+      </c>
+      <c r="F18" s="196">
+        <v>32069</v>
+      </c>
       <c r="G18" s="110" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H18" s="120" t="str">
+        <v>HK10</v>
+      </c>
+      <c r="H18" s="120">
         <f>IF(C18="","",INDEX(標準係数A!$E:$R, MATCH(償却資産!G18, 標準係数A!B:B, 0), MATCH(償却資産!D18, 標準係数A!$E$4:$R$4, 0)))</f>
-        <v/>
-      </c>
-      <c r="I18" s="121" t="str">
+        <v>62120</v>
+      </c>
+      <c r="I18" s="121">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="140">
+        <v>1</v>
+      </c>
+      <c r="K18" s="140">
+        <v>0</v>
+      </c>
       <c r="L18" s="140"/>
-      <c r="M18" s="108" t="str">
+      <c r="M18" s="108">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N18" s="108" t="str">
+        <v>21182920</v>
+      </c>
+      <c r="N18" s="108">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O18" s="108" t="str">
+        <v>21182920</v>
+      </c>
+      <c r="O18" s="108">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P18" s="108" t="str">
+        <v>0</v>
+      </c>
+      <c r="P18" s="108">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q18" s="108" t="str">
+        <v>21182920</v>
+      </c>
+      <c r="Q18" s="108">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R18" s="126" t="str">
+        <v>635488</v>
+      </c>
+      <c r="R18" s="126">
         <f>IF(M18="","",HLOOKUP(D18,標準係数A!$E$4:$R$5,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="S18" s="108" t="str">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="S18" s="108">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1631084.84</v>
       </c>
       <c r="U18" s="136">
         <v>37987</v>
@@ -22756,30 +22884,30 @@
       </c>
       <c r="M56" s="131">
         <f t="shared" si="16"/>
-        <v>16728600</v>
+        <v>52381005</v>
       </c>
       <c r="N56" s="131">
         <f t="shared" si="16"/>
-        <v>16728600</v>
+        <v>52381005</v>
       </c>
       <c r="O56" s="131">
         <f t="shared" si="16"/>
-        <v>8869000</v>
+        <v>12010855</v>
       </c>
       <c r="P56" s="131">
         <f t="shared" si="16"/>
-        <v>7859600</v>
+        <v>40370150</v>
       </c>
       <c r="Q56" s="131">
         <f t="shared" si="16"/>
-        <v>501860</v>
+        <v>1571432</v>
       </c>
       <c r="R56" s="130" t="s">
         <v>447</v>
       </c>
       <c r="S56" s="131">
         <f>SUM(S6:S55)</f>
-        <v>1369483.85</v>
+        <v>3892269.1399999997</v>
       </c>
     </row>
     <row r="57" spans="2:19" ht="25" customHeight="1"/>
@@ -22813,10 +22941,10 @@
       <c r="I59" s="197" t="b">
         <v>0</v>
       </c>
-      <c r="J59" s="694" t="s">
+      <c r="J59" s="692" t="s">
         <v>436</v>
       </c>
-      <c r="K59" s="695"/>
+      <c r="K59" s="693"/>
       <c r="M59" s="102"/>
       <c r="N59" s="102"/>
       <c r="O59" s="123"/>
@@ -22832,11 +22960,11 @@
       </c>
       <c r="D60" s="108">
         <f t="shared" ref="D60:D73" si="17">SUMIF($D$6:$D$55, $C60, $E$6:$E$55)</f>
-        <v>245</v>
+        <v>487</v>
       </c>
       <c r="E60" s="108">
         <f t="shared" ref="E60:E73" si="18">SUMIF($D$6:$D$55, $C60, $O$6:$O$55)</f>
-        <v>2148650</v>
+        <v>5368245</v>
       </c>
       <c r="F60" s="108">
         <f t="shared" ref="F60:F73" si="19">SUMIF($D$6:$D$55, $C60, $P$6:$P$55)</f>
@@ -22844,15 +22972,15 @@
       </c>
       <c r="G60" s="117">
         <f>SUM(E60:F60)</f>
-        <v>2148650</v>
+        <v>5368245</v>
       </c>
       <c r="I60" s="197" t="b">
         <v>0</v>
       </c>
-      <c r="J60" s="694" t="s">
+      <c r="J60" s="692" t="s">
         <v>437</v>
       </c>
-      <c r="K60" s="695"/>
+      <c r="K60" s="693"/>
       <c r="M60" s="97"/>
       <c r="N60" s="97"/>
       <c r="R60" s="97"/>
@@ -22867,11 +22995,11 @@
       </c>
       <c r="D61" s="108">
         <f t="shared" si="17"/>
-        <v>245</v>
+        <v>487</v>
       </c>
       <c r="E61" s="108">
         <f t="shared" si="18"/>
-        <v>355250</v>
+        <v>1280740</v>
       </c>
       <c r="F61" s="108">
         <f t="shared" si="19"/>
@@ -22879,15 +23007,15 @@
       </c>
       <c r="G61" s="117">
         <f t="shared" ref="G61:G74" si="20">SUM(E61:F61)</f>
-        <v>355250</v>
+        <v>1280740</v>
       </c>
       <c r="I61" s="197" t="b">
         <v>0</v>
       </c>
-      <c r="J61" s="694" t="s">
+      <c r="J61" s="692" t="s">
         <v>438</v>
       </c>
-      <c r="K61" s="695"/>
+      <c r="K61" s="693"/>
       <c r="M61" s="97"/>
       <c r="N61" s="97"/>
       <c r="R61" s="97"/>
@@ -22902,27 +23030,27 @@
       </c>
       <c r="D62" s="108">
         <f t="shared" si="17"/>
-        <v>245</v>
+        <v>487</v>
       </c>
       <c r="E62" s="108">
         <f t="shared" si="18"/>
-        <v>1460200</v>
+        <v>0</v>
       </c>
       <c r="F62" s="108">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3555750</v>
       </c>
       <c r="G62" s="117">
         <f t="shared" si="20"/>
-        <v>1460200</v>
+        <v>3555750</v>
       </c>
       <c r="I62" s="197" t="b">
         <v>0</v>
       </c>
-      <c r="J62" s="694" t="s">
+      <c r="J62" s="692" t="s">
         <v>439</v>
       </c>
-      <c r="K62" s="695"/>
+      <c r="K62" s="693"/>
       <c r="M62" s="97"/>
       <c r="N62" s="97"/>
       <c r="R62" s="97"/>
@@ -22937,11 +23065,11 @@
       </c>
       <c r="D63" s="108">
         <f t="shared" si="17"/>
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="E63" s="108">
         <f t="shared" si="18"/>
-        <v>1291150</v>
+        <v>0</v>
       </c>
       <c r="F63" s="108">
         <f t="shared" si="19"/>
@@ -22949,15 +23077,15 @@
       </c>
       <c r="G63" s="117">
         <f t="shared" si="20"/>
-        <v>1291150</v>
+        <v>0</v>
       </c>
       <c r="I63" s="197" t="b">
         <v>0</v>
       </c>
-      <c r="J63" s="694" t="s">
+      <c r="J63" s="692" t="s">
         <v>442</v>
       </c>
-      <c r="K63" s="695"/>
+      <c r="K63" s="693"/>
       <c r="M63" s="97"/>
       <c r="N63" s="97"/>
       <c r="R63" s="97"/>
@@ -22989,10 +23117,10 @@
       <c r="I64" s="197" t="b">
         <v>0</v>
       </c>
-      <c r="J64" s="694" t="s">
+      <c r="J64" s="692" t="s">
         <v>443</v>
       </c>
-      <c r="K64" s="695"/>
+      <c r="K64" s="693"/>
       <c r="M64" s="97"/>
       <c r="N64" s="97"/>
       <c r="R64" s="97"/>
@@ -23007,7 +23135,7 @@
       </c>
       <c r="D65" s="108">
         <f t="shared" si="17"/>
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="E65" s="108">
         <f t="shared" si="18"/>
@@ -23015,19 +23143,19 @@
       </c>
       <c r="F65" s="108">
         <f t="shared" si="19"/>
-        <v>7859600</v>
+        <v>0</v>
       </c>
       <c r="G65" s="117">
         <f t="shared" si="20"/>
-        <v>7859600</v>
+        <v>0</v>
       </c>
       <c r="I65" s="197" t="b">
         <v>0</v>
       </c>
-      <c r="J65" s="694" t="s">
+      <c r="J65" s="692" t="s">
         <v>281</v>
       </c>
-      <c r="K65" s="695"/>
+      <c r="K65" s="693"/>
       <c r="M65" s="97"/>
       <c r="N65" s="97"/>
       <c r="R65" s="97"/>
@@ -23059,10 +23187,10 @@
       <c r="I66" s="197" t="b">
         <v>0</v>
       </c>
-      <c r="J66" s="694" t="s">
+      <c r="J66" s="692" t="s">
         <v>441</v>
       </c>
-      <c r="K66" s="695"/>
+      <c r="K66" s="693"/>
       <c r="M66" s="97"/>
       <c r="N66" s="97"/>
       <c r="R66" s="97"/>
@@ -23077,7 +23205,7 @@
       </c>
       <c r="D67" s="108">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="E67" s="108">
         <f t="shared" si="18"/>
@@ -23085,19 +23213,19 @@
       </c>
       <c r="F67" s="108">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>36814400</v>
       </c>
       <c r="G67" s="117">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>36814400</v>
       </c>
       <c r="I67" s="197" t="b">
         <v>0</v>
       </c>
-      <c r="J67" s="694" t="s">
+      <c r="J67" s="692" t="s">
         <v>531</v>
       </c>
-      <c r="K67" s="695"/>
+      <c r="K67" s="693"/>
       <c r="M67" s="97"/>
       <c r="N67" s="97"/>
       <c r="R67" s="97"/>
@@ -23112,11 +23240,11 @@
       </c>
       <c r="D68" s="108">
         <f t="shared" si="17"/>
-        <v>245</v>
+        <v>487</v>
       </c>
       <c r="E68" s="108">
         <f t="shared" si="18"/>
-        <v>3415300</v>
+        <v>5361870</v>
       </c>
       <c r="F68" s="108">
         <f t="shared" si="19"/>
@@ -23124,7 +23252,7 @@
       </c>
       <c r="G68" s="117">
         <f t="shared" si="20"/>
-        <v>3415300</v>
+        <v>5361870</v>
       </c>
       <c r="I68" s="97"/>
       <c r="M68" s="102"/>
@@ -23142,11 +23270,11 @@
       </c>
       <c r="D69" s="108">
         <f t="shared" si="17"/>
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="E69" s="108">
         <f t="shared" si="18"/>
-        <v>198450</v>
+        <v>0</v>
       </c>
       <c r="F69" s="108">
         <f t="shared" si="19"/>
@@ -23154,7 +23282,7 @@
       </c>
       <c r="G69" s="117">
         <f t="shared" si="20"/>
-        <v>198450</v>
+        <v>0</v>
       </c>
       <c r="I69" s="97"/>
       <c r="M69" s="102"/>
@@ -23262,7 +23390,7 @@
       </c>
       <c r="D73" s="108">
         <f t="shared" si="17"/>
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="E73" s="108">
         <f t="shared" si="18"/>
@@ -23290,19 +23418,19 @@
       <c r="C74" s="127"/>
       <c r="D74" s="131">
         <f>SUM(D60:D73)</f>
-        <v>1960</v>
+        <v>2435</v>
       </c>
       <c r="E74" s="131">
         <f>SUM(E60:E73)</f>
-        <v>8869000</v>
+        <v>12010855</v>
       </c>
       <c r="F74" s="132">
         <f>SUM(F60:F73)</f>
-        <v>7859600</v>
+        <v>40370150</v>
       </c>
       <c r="G74" s="132">
         <f t="shared" si="20"/>
-        <v>16728600</v>
+        <v>52381005</v>
       </c>
       <c r="I74" s="97"/>
       <c r="M74" s="102"/>
@@ -23333,10 +23461,10 @@
       <c r="S76" s="125"/>
     </row>
     <row r="77" spans="2:19" ht="20" customHeight="1">
-      <c r="B77" s="693" t="s">
+      <c r="B77" s="695" t="s">
         <v>445</v>
       </c>
-      <c r="C77" s="693"/>
+      <c r="C77" s="695"/>
       <c r="D77" s="131" t="s">
         <v>450</v>
       </c>
@@ -23357,17 +23485,17 @@
       <c r="S77" s="125"/>
     </row>
     <row r="78" spans="2:19" ht="20" customHeight="1">
-      <c r="B78" s="692" t="s">
+      <c r="B78" s="694" t="s">
         <v>436</v>
       </c>
-      <c r="C78" s="692"/>
+      <c r="C78" s="694"/>
       <c r="D78" s="108">
         <f>SUMIF($B$60:$B$73,$B78,$D$60:$D$73)</f>
-        <v>245</v>
+        <v>487</v>
       </c>
       <c r="E78" s="108">
         <f t="shared" ref="E78:E85" si="21">SUMIF($B$60:$B$73,$B78,$E$60:$E$73)</f>
-        <v>2148650</v>
+        <v>5368245</v>
       </c>
       <c r="F78" s="108">
         <f t="shared" ref="F78:F85" si="22">SUMIF($B$60:$B$73,$B78,$F$60:$F$73)</f>
@@ -23375,7 +23503,7 @@
       </c>
       <c r="G78" s="117">
         <f>SUM(E78:F78)</f>
-        <v>2148650</v>
+        <v>5368245</v>
       </c>
       <c r="I78" s="97"/>
       <c r="M78" s="102"/>
@@ -23385,17 +23513,17 @@
       <c r="S78" s="125"/>
     </row>
     <row r="79" spans="2:19" ht="20" customHeight="1">
-      <c r="B79" s="692" t="s">
+      <c r="B79" s="694" t="s">
         <v>437</v>
       </c>
-      <c r="C79" s="692"/>
+      <c r="C79" s="694"/>
       <c r="D79" s="108">
         <f t="shared" ref="D79:D85" si="23">SUMIF($B$60:$B$73,$B79,$D$60:$D$73)</f>
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E79" s="108">
         <f t="shared" si="21"/>
-        <v>355250</v>
+        <v>1280740</v>
       </c>
       <c r="F79" s="108">
         <f t="shared" si="22"/>
@@ -23403,7 +23531,7 @@
       </c>
       <c r="G79" s="117">
         <f t="shared" ref="G79:G86" si="24">SUM(E79:F79)</f>
-        <v>355250</v>
+        <v>1280740</v>
       </c>
       <c r="I79" s="97"/>
       <c r="M79" s="102"/>
@@ -23413,25 +23541,25 @@
       <c r="S79" s="125"/>
     </row>
     <row r="80" spans="2:19" ht="20" customHeight="1">
-      <c r="B80" s="692" t="s">
+      <c r="B80" s="694" t="s">
         <v>438</v>
       </c>
-      <c r="C80" s="692"/>
+      <c r="C80" s="694"/>
       <c r="D80" s="108">
         <f t="shared" si="23"/>
-        <v>245</v>
+        <v>487</v>
       </c>
       <c r="E80" s="108">
         <f t="shared" si="21"/>
-        <v>1460200</v>
+        <v>0</v>
       </c>
       <c r="F80" s="108">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3555750</v>
       </c>
       <c r="G80" s="117">
         <f t="shared" si="24"/>
-        <v>1460200</v>
+        <v>3555750</v>
       </c>
       <c r="I80" s="97"/>
       <c r="M80" s="102"/>
@@ -23441,17 +23569,17 @@
       <c r="S80" s="125"/>
     </row>
     <row r="81" spans="2:19" ht="20" customHeight="1">
-      <c r="B81" s="692" t="s">
+      <c r="B81" s="694" t="s">
         <v>439</v>
       </c>
-      <c r="C81" s="692"/>
+      <c r="C81" s="694"/>
       <c r="D81" s="108">
         <f t="shared" si="23"/>
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="E81" s="108">
         <f t="shared" si="21"/>
-        <v>1291150</v>
+        <v>0</v>
       </c>
       <c r="F81" s="108">
         <f t="shared" si="22"/>
@@ -23459,7 +23587,7 @@
       </c>
       <c r="G81" s="117">
         <f t="shared" si="24"/>
-        <v>1291150</v>
+        <v>0</v>
       </c>
       <c r="I81" s="97"/>
       <c r="M81" s="102"/>
@@ -23469,13 +23597,13 @@
       <c r="S81" s="125"/>
     </row>
     <row r="82" spans="2:19" ht="20" customHeight="1">
-      <c r="B82" s="692" t="s">
+      <c r="B82" s="694" t="s">
         <v>442</v>
       </c>
-      <c r="C82" s="692"/>
+      <c r="C82" s="694"/>
       <c r="D82" s="108">
         <f t="shared" si="23"/>
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="E82" s="108">
         <f t="shared" si="21"/>
@@ -23483,11 +23611,11 @@
       </c>
       <c r="F82" s="108">
         <f t="shared" si="22"/>
-        <v>7859600</v>
+        <v>0</v>
       </c>
       <c r="G82" s="117">
         <f t="shared" si="24"/>
-        <v>7859600</v>
+        <v>0</v>
       </c>
       <c r="I82" s="97"/>
       <c r="M82" s="102"/>
@@ -23497,13 +23625,13 @@
       <c r="S82" s="125"/>
     </row>
     <row r="83" spans="2:19" ht="20" customHeight="1">
-      <c r="B83" s="692" t="s">
+      <c r="B83" s="694" t="s">
         <v>443</v>
       </c>
-      <c r="C83" s="692"/>
+      <c r="C83" s="694"/>
       <c r="D83" s="108">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="E83" s="108">
         <f t="shared" si="21"/>
@@ -23511,11 +23639,11 @@
       </c>
       <c r="F83" s="108">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>36814400</v>
       </c>
       <c r="G83" s="117">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>36814400</v>
       </c>
       <c r="I83" s="97"/>
       <c r="M83" s="102"/>
@@ -23525,17 +23653,17 @@
       <c r="S83" s="125"/>
     </row>
     <row r="84" spans="2:19" ht="20" customHeight="1">
-      <c r="B84" s="692" t="s">
+      <c r="B84" s="694" t="s">
         <v>440</v>
       </c>
-      <c r="C84" s="692"/>
+      <c r="C84" s="694"/>
       <c r="D84" s="108">
         <f t="shared" si="23"/>
-        <v>245</v>
+        <v>487</v>
       </c>
       <c r="E84" s="108">
         <f t="shared" si="21"/>
-        <v>3415300</v>
+        <v>5361870</v>
       </c>
       <c r="F84" s="108">
         <f t="shared" si="22"/>
@@ -23543,7 +23671,7 @@
       </c>
       <c r="G84" s="117">
         <f t="shared" si="24"/>
-        <v>3415300</v>
+        <v>5361870</v>
       </c>
       <c r="I84" s="97"/>
       <c r="M84" s="102"/>
@@ -23553,17 +23681,17 @@
       <c r="S84" s="125"/>
     </row>
     <row r="85" spans="2:19" ht="20" customHeight="1">
-      <c r="B85" s="692" t="s">
+      <c r="B85" s="694" t="s">
         <v>441</v>
       </c>
-      <c r="C85" s="692"/>
+      <c r="C85" s="694"/>
       <c r="D85" s="108">
         <f t="shared" si="23"/>
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="E85" s="108">
         <f t="shared" si="21"/>
-        <v>198450</v>
+        <v>0</v>
       </c>
       <c r="F85" s="108">
         <f t="shared" si="22"/>
@@ -23571,7 +23699,7 @@
       </c>
       <c r="G85" s="117">
         <f t="shared" si="24"/>
-        <v>198450</v>
+        <v>0</v>
       </c>
       <c r="I85" s="97"/>
       <c r="M85" s="102"/>
@@ -23581,22 +23709,22 @@
       <c r="S85" s="125"/>
     </row>
     <row r="86" spans="2:19" ht="20" customHeight="1">
-      <c r="B86" s="693" t="s">
+      <c r="B86" s="695" t="s">
         <v>339</v>
       </c>
-      <c r="C86" s="693"/>
+      <c r="C86" s="695"/>
       <c r="D86" s="131"/>
       <c r="E86" s="131">
         <f>SUM(E78:E85)</f>
-        <v>8869000</v>
+        <v>12010855</v>
       </c>
       <c r="F86" s="131">
         <f>SUM(F78:F85)</f>
-        <v>7859600</v>
+        <v>40370150</v>
       </c>
       <c r="G86" s="132">
         <f t="shared" si="24"/>
-        <v>16728600</v>
+        <v>52381005</v>
       </c>
       <c r="I86" s="97"/>
       <c r="M86" s="102"/>
@@ -23607,15 +23735,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J63:K63"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="B85:C85"/>
@@ -23626,6 +23745,15 @@
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B82:C82"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J63:K63"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -23662,7 +23790,7 @@
   <dimension ref="B1:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="20" customHeight="1"/>
@@ -23689,12 +23817,10 @@
       <c r="B4" s="110" t="s">
         <v>470</v>
       </c>
-      <c r="C4" s="196">
-        <v>39083</v>
-      </c>
+      <c r="C4" s="196"/>
       <c r="D4" s="110" t="str">
         <f>IF(C4="","",VLOOKUP(C4,償却資産!U6:V24,2,TRUE))</f>
-        <v>HK13</v>
+        <v/>
       </c>
       <c r="E4" s="97" t="s">
         <v>494</v>
@@ -23764,37 +23890,37 @@
       <c r="B7" s="110" t="s">
         <v>471</v>
       </c>
-      <c r="C7" s="147">
+      <c r="C7" s="147" t="str">
         <f>IF(C4="","",INDEX(標準係数A!$A:$AA, MATCH($D$4,標準係数A!$B:$B, 0), MATCH(C6, 標準係数A!$4:$4, 0)))</f>
-        <v>7270</v>
-      </c>
-      <c r="D7" s="147">
+        <v/>
+      </c>
+      <c r="D7" s="147" t="str">
         <f>IF(C4="","",INDEX(標準係数A!$A:$AA, MATCH($D$4,標準係数A!$B:$B, 0), MATCH(D6, 標準係数A!$4:$4, 0)))</f>
-        <v>5450</v>
-      </c>
-      <c r="E7" s="147">
+        <v/>
+      </c>
+      <c r="E7" s="147" t="str">
         <f>IF(C4="","",INDEX(標準係数A!$A:$AA, MATCH($D$4,標準係数A!$B:$B, 0), MATCH(E6, 標準係数A!$4:$4, 0)))</f>
-        <v>4540</v>
-      </c>
-      <c r="F7" s="147">
+        <v/>
+      </c>
+      <c r="F7" s="147" t="str">
         <f>IF(C4="","",INDEX(標準係数A!$A:$AA, MATCH($D$4,標準係数A!$B:$B, 0), MATCH(F6, 標準係数A!$4:$4, 0)))</f>
-        <v>4240</v>
-      </c>
-      <c r="G7" s="147">
+        <v/>
+      </c>
+      <c r="G7" s="147" t="str">
         <f>IF(C4="","",INDEX(標準係数A!$A:$AA, MATCH($D$4,標準係数A!$B:$B, 0), MATCH(G6, 標準係数A!$4:$4, 0)))</f>
-        <v>4090</v>
-      </c>
-      <c r="H7" s="147">
+        <v/>
+      </c>
+      <c r="H7" s="147" t="str">
         <f>IF(C4="","",INDEX(標準係数A!$A:$AA, MATCH($D$4,標準係数A!$B:$B, 0), MATCH(H6, 標準係数A!$4:$4, 0)))</f>
-        <v>4000</v>
-      </c>
-      <c r="I7" s="147">
+        <v/>
+      </c>
+      <c r="I7" s="147" t="str">
         <f>IF(C4="","",INDEX(標準係数A!$A:$AA, MATCH($D$4,標準係数A!$B:$B, 0), MATCH(I6, 標準係数A!$4:$4, 0)))</f>
-        <v>3790</v>
-      </c>
-      <c r="J7" s="147">
+        <v/>
+      </c>
+      <c r="J7" s="147" t="str">
         <f>IF(C4="","",INDEX(標準係数A!$A:$AA, MATCH($D$4,標準係数A!$B:$B, 0), MATCH(J6, 標準係数A!$4:$4, 0)))</f>
-        <v>3640</v>
+        <v/>
       </c>
       <c r="K7" s="110"/>
     </row>
@@ -23834,11 +23960,11 @@
       </c>
       <c r="C9" s="108">
         <f>MIN(ナビ!$D$11, C8)</f>
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D9" s="108">
         <f>MAX(0, MIN(D8-C8, ナビ!$D$11-C8))</f>
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="E9" s="108">
         <f>MAX(0, MIN(E8-D8, ナビ!$D$11-D8))</f>
@@ -23872,7 +23998,7 @@
       </c>
       <c r="C10" s="108">
         <f>IFERROR(C7*C9,0)</f>
-        <v>1781150</v>
+        <v>0</v>
       </c>
       <c r="D10" s="108">
         <f t="shared" ref="D10:J10" si="0">IFERROR(D7*D9,0)</f>
@@ -23904,7 +24030,7 @@
       </c>
       <c r="K10" s="243">
         <f>SUM(C10:J10)</f>
-        <v>1781150</v>
+        <v>0</v>
       </c>
       <c r="L10" s="242"/>
     </row>
@@ -23923,7 +24049,7 @@
       </c>
       <c r="K12" s="243">
         <f>ROUND(K10*K11,0)</f>
-        <v>53435</v>
+        <v>0</v>
       </c>
       <c r="L12" s="242"/>
     </row>
@@ -23978,7 +24104,7 @@
       </c>
       <c r="C4" s="155"/>
       <c r="D4" s="253" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20" customHeight="1">
@@ -23999,15 +24125,15 @@
       </c>
       <c r="C6" s="117">
         <f>ナビ!D12</f>
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D6" s="110">
         <f>VLOOKUP(D4,標準係数B!$AA$4:$AC$6,3,FALSE)</f>
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="E6" s="108">
         <f>C6*D6</f>
-        <v>36750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20" customHeight="1">
@@ -24016,15 +24142,15 @@
       </c>
       <c r="C7" s="117">
         <f>ナビ!D13</f>
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="D7" s="110">
         <f>VLOOKUP(D4,標準係数B!$AA$4:$AC$6,2,FALSE)</f>
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="E7" s="108">
         <f>C7*D7</f>
-        <v>0</v>
+        <v>340900</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20" customHeight="1">
@@ -24035,7 +24161,7 @@
       <c r="D8" s="110"/>
       <c r="E8" s="192">
         <f>SUM(E6:E7)</f>
-        <v>36750</v>
+        <v>340900</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="25" customHeight="1"/>
@@ -31567,6 +31693,7 @@
   <dimension ref="B1:V38"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
           <xlsdti:showDataTypeIcons visible="0"/>
@@ -31603,16 +31730,16 @@
       </c>
     </row>
     <row r="4" spans="2:22" ht="27" customHeight="1">
-      <c r="B4" s="487" t="s">
+      <c r="B4" s="452" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="488"/>
-      <c r="D4" s="488"/>
-      <c r="E4" s="488"/>
-      <c r="F4" s="488"/>
-      <c r="G4" s="488"/>
-      <c r="H4" s="488"/>
-      <c r="I4" s="488"/>
+      <c r="C4" s="453"/>
+      <c r="D4" s="453"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="453"/>
+      <c r="G4" s="453"/>
+      <c r="H4" s="453"/>
+      <c r="I4" s="453"/>
     </row>
     <row r="5" spans="2:22" ht="27" customHeight="1" thickBot="1">
       <c r="B5" s="61"/>
@@ -31629,39 +31756,39 @@
       <c r="V5"/>
     </row>
     <row r="6" spans="2:22" ht="27" customHeight="1">
-      <c r="B6" s="489" t="s">
+      <c r="B6" s="454" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="490"/>
-      <c r="D6" s="490"/>
-      <c r="E6" s="490"/>
-      <c r="F6" s="490"/>
-      <c r="G6" s="490"/>
-      <c r="H6" s="490"/>
-      <c r="I6" s="491"/>
+      <c r="C6" s="455"/>
+      <c r="D6" s="455"/>
+      <c r="E6" s="455"/>
+      <c r="F6" s="455"/>
+      <c r="G6" s="455"/>
+      <c r="H6" s="455"/>
+      <c r="I6" s="456"/>
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
     </row>
     <row r="7" spans="2:22" ht="27" customHeight="1" thickBot="1">
-      <c r="B7" s="492">
+      <c r="B7" s="457">
         <f>IF(AND(KYN=1,HKS=1),VLOOKUP(ナビ!$E$6,標準係数B!$B$4:$G$50,3,FALSE),販売量!$P$11)</f>
-        <v>12.9</v>
-      </c>
-      <c r="C7" s="493"/>
-      <c r="D7" s="493"/>
+        <v>8.8330000000000002</v>
+      </c>
+      <c r="C7" s="458"/>
+      <c r="D7" s="458"/>
       <c r="E7" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="494">
+      <c r="F7" s="459">
         <f>ナビ!$D$11</f>
-        <v>245</v>
-      </c>
-      <c r="G7" s="495"/>
+        <v>487</v>
+      </c>
+      <c r="G7" s="460"/>
       <c r="H7" s="238">
         <f>IF(AND(KYN=1,HKS=1),B7*F7*12,販売量!$O$11)</f>
-        <v>37926</v>
+        <v>51621.886618181823</v>
       </c>
       <c r="I7" s="63" t="s">
         <v>71</v>
@@ -31697,16 +31824,16 @@
       <c r="I9" s="64"/>
     </row>
     <row r="10" spans="2:22" ht="27" customHeight="1">
-      <c r="B10" s="487" t="s">
+      <c r="B10" s="452" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="488"/>
-      <c r="D10" s="488"/>
-      <c r="E10" s="488"/>
-      <c r="F10" s="488"/>
-      <c r="G10" s="488"/>
-      <c r="H10" s="488"/>
-      <c r="I10" s="488"/>
+      <c r="C10" s="453"/>
+      <c r="D10" s="453"/>
+      <c r="E10" s="453"/>
+      <c r="F10" s="453"/>
+      <c r="G10" s="453"/>
+      <c r="H10" s="453"/>
+      <c r="I10" s="453"/>
       <c r="M10" s="199"/>
     </row>
     <row r="11" spans="2:22" ht="27" customHeight="1" thickBot="1">
@@ -31726,16 +31853,16 @@
       <c r="E12" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="496" t="s">
+      <c r="F12" s="444" t="s">
         <v>118</v>
       </c>
-      <c r="G12" s="496" t="s">
+      <c r="G12" s="444" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="496" t="s">
+      <c r="H12" s="444" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="498" t="s">
+      <c r="I12" s="446" t="s">
         <v>120</v>
       </c>
       <c r="K12" s="162" t="s">
@@ -31743,21 +31870,21 @@
       </c>
     </row>
     <row r="13" spans="2:22" ht="27" customHeight="1">
-      <c r="B13" s="482" t="s">
+      <c r="B13" s="448" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="447" t="s">
+      <c r="C13" s="450" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="481"/>
+      <c r="D13" s="451"/>
       <c r="E13" s="69"/>
-      <c r="F13" s="497"/>
-      <c r="G13" s="497"/>
-      <c r="H13" s="497"/>
-      <c r="I13" s="499"/>
+      <c r="F13" s="445"/>
+      <c r="G13" s="445"/>
+      <c r="H13" s="445"/>
+      <c r="I13" s="447"/>
     </row>
     <row r="14" spans="2:22" ht="27" customHeight="1">
-      <c r="B14" s="483"/>
+      <c r="B14" s="449"/>
       <c r="C14" s="70" t="s">
         <v>123</v>
       </c>
@@ -31765,7 +31892,7 @@
       <c r="E14" s="71"/>
       <c r="F14" s="119">
         <f>IF(COUNT(土地!$D$5:$D$14) = 1,土地!$D$5, "複数土地")</f>
-        <v>30441</v>
+        <v>32153</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="73"/>
@@ -31773,56 +31900,56 @@
     </row>
     <row r="15" spans="2:22" ht="27" customHeight="1">
       <c r="B15" s="75"/>
-      <c r="C15" s="450" t="s">
+      <c r="C15" s="461" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="451"/>
+      <c r="D15" s="462"/>
       <c r="E15" s="76" t="s">
         <v>125</v>
       </c>
       <c r="F15" s="77">
         <f>土地!E15</f>
-        <v>150</v>
+        <v>649.1</v>
       </c>
       <c r="G15" s="77"/>
       <c r="H15" s="77">
         <f>IF(F15="","",F15+G15)</f>
-        <v>150</v>
+        <v>649.1</v>
       </c>
       <c r="I15" s="74"/>
     </row>
     <row r="16" spans="2:22" ht="27" customHeight="1">
       <c r="B16" s="78"/>
-      <c r="C16" s="450" t="s">
+      <c r="C16" s="461" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="451"/>
+      <c r="D16" s="462"/>
       <c r="E16" s="76" t="s">
         <v>127</v>
       </c>
       <c r="F16" s="79">
         <f>土地!F15</f>
-        <v>15000000</v>
+        <v>15300000</v>
       </c>
       <c r="G16" s="79"/>
       <c r="H16" s="79">
         <f>IF(F16="","",F16+G16)</f>
-        <v>15000000</v>
+        <v>15300000</v>
       </c>
       <c r="I16" s="74"/>
     </row>
     <row r="17" spans="2:11" ht="27" customHeight="1">
-      <c r="B17" s="482" t="s">
+      <c r="B17" s="448" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="484" t="s">
+      <c r="C17" s="463" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="485"/>
-      <c r="E17" s="486"/>
+      <c r="D17" s="464"/>
+      <c r="E17" s="465"/>
       <c r="F17" s="80">
         <f>IF(F15="","",IF(F15&gt;0,ROUND(F16/F15,0),0))</f>
-        <v>100000</v>
+        <v>23571</v>
       </c>
       <c r="G17" s="80" t="str">
         <f>IF(G15="","",IF(G15&gt;0,ROUND(G16/G15,0),0))</f>
@@ -31830,22 +31957,22 @@
       </c>
       <c r="H17" s="80">
         <f>IF(H15="","",ROUND(H16/H15,0))</f>
-        <v>100000</v>
+        <v>23571</v>
       </c>
       <c r="I17" s="74"/>
     </row>
     <row r="18" spans="2:11" ht="27" customHeight="1">
-      <c r="B18" s="483"/>
-      <c r="C18" s="450" t="s">
+      <c r="B18" s="449"/>
+      <c r="C18" s="461" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="451"/>
+      <c r="D18" s="462"/>
       <c r="E18" s="76" t="s">
         <v>131</v>
       </c>
       <c r="F18" s="118">
         <f>IF(COUNT(土地!$M$5:M14) = 1,土地!$M$5, "複数土地")</f>
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="G18" s="81"/>
       <c r="H18" s="73"/>
@@ -31853,16 +31980,16 @@
     </row>
     <row r="19" spans="2:11" ht="27" customHeight="1" thickBot="1">
       <c r="B19" s="82"/>
-      <c r="C19" s="465" t="s">
+      <c r="C19" s="476" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="466"/>
+      <c r="D19" s="477"/>
       <c r="E19" s="83" t="s">
         <v>133</v>
       </c>
       <c r="F19" s="84">
         <f>土地!N15</f>
-        <v>12700000</v>
+        <v>6953445</v>
       </c>
       <c r="G19" s="84" t="str">
         <f>IF(G15&gt;0,IF(G15=G18,G16,ROUND(G17*G18,0)),"")</f>
@@ -31870,7 +31997,7 @@
       </c>
       <c r="H19" s="84">
         <f>土地!N15</f>
-        <v>12700000</v>
+        <v>6953445</v>
       </c>
       <c r="I19" s="85"/>
     </row>
@@ -31885,7 +32012,7 @@
       <c r="I20" s="86"/>
     </row>
     <row r="21" spans="2:11" ht="27" customHeight="1">
-      <c r="B21" s="467" t="s">
+      <c r="B21" s="478" t="s">
         <v>134</v>
       </c>
       <c r="C21" s="66"/>
@@ -31893,16 +32020,16 @@
       <c r="E21" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="470" t="s">
+      <c r="F21" s="466" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="470" t="s">
+      <c r="G21" s="466" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="470" t="s">
+      <c r="H21" s="466" t="s">
         <v>138</v>
       </c>
-      <c r="I21" s="479" t="s">
+      <c r="I21" s="469" t="s">
         <v>139</v>
       </c>
       <c r="K21" s="162" t="s">
@@ -31910,116 +32037,116 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="27" customHeight="1">
-      <c r="B22" s="468"/>
-      <c r="C22" s="447" t="s">
+      <c r="B22" s="479"/>
+      <c r="C22" s="450" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="481"/>
+      <c r="D22" s="451"/>
       <c r="E22" s="88"/>
-      <c r="F22" s="471"/>
-      <c r="G22" s="477"/>
-      <c r="H22" s="478"/>
-      <c r="I22" s="480"/>
+      <c r="F22" s="481"/>
+      <c r="G22" s="467"/>
+      <c r="H22" s="468"/>
+      <c r="I22" s="470"/>
     </row>
     <row r="23" spans="2:11" ht="27" customHeight="1">
-      <c r="B23" s="468"/>
-      <c r="C23" s="450" t="s">
+      <c r="B23" s="479"/>
+      <c r="C23" s="461" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="451"/>
-      <c r="E23" s="452"/>
+      <c r="D23" s="462"/>
+      <c r="E23" s="471"/>
       <c r="F23" s="89">
         <f>IFERROR(ROUND(H23/G23,0), "")</f>
-        <v>8770</v>
+        <v>11023</v>
       </c>
       <c r="G23" s="89">
         <f>償却資産!D78</f>
-        <v>245</v>
+        <v>487</v>
       </c>
       <c r="H23" s="90">
         <f>償却資産!E78</f>
-        <v>2148650</v>
+        <v>5368245</v>
       </c>
       <c r="I23" s="91" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="27" customHeight="1">
-      <c r="B24" s="468"/>
-      <c r="C24" s="450" t="s">
+      <c r="B24" s="479"/>
+      <c r="C24" s="461" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="451"/>
-      <c r="E24" s="452"/>
+      <c r="D24" s="462"/>
+      <c r="E24" s="471"/>
       <c r="F24" s="89">
         <f>IFERROR(ROUND(H24/G24,0), "")</f>
-        <v>725</v>
+        <v>2630</v>
       </c>
       <c r="G24" s="89">
         <f>償却資産!D79</f>
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H24" s="90">
         <f>償却資産!E79</f>
-        <v>355250</v>
+        <v>1280740</v>
       </c>
       <c r="I24" s="91" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="27" customHeight="1">
-      <c r="B25" s="468"/>
-      <c r="C25" s="450" t="s">
+      <c r="B25" s="479"/>
+      <c r="C25" s="461" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="451"/>
-      <c r="E25" s="452"/>
+      <c r="D25" s="462"/>
+      <c r="E25" s="471"/>
       <c r="F25" s="89">
         <f>IFERROR(ROUND((H25+I25)/G25,0), "")</f>
-        <v>5960</v>
+        <v>7301</v>
       </c>
       <c r="G25" s="89">
         <f>償却資産!D80</f>
-        <v>245</v>
+        <v>487</v>
       </c>
       <c r="H25" s="90">
         <f>償却資産!E80</f>
-        <v>1460200</v>
+        <v>0</v>
       </c>
       <c r="I25" s="133">
         <f>償却資産!F80</f>
-        <v>0</v>
+        <v>3555750</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="27" customHeight="1">
-      <c r="B26" s="468"/>
-      <c r="C26" s="472" t="s">
+      <c r="B26" s="479"/>
+      <c r="C26" s="482" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="473"/>
-      <c r="E26" s="474"/>
-      <c r="F26" s="89">
+      <c r="D26" s="483"/>
+      <c r="E26" s="484"/>
+      <c r="F26" s="89" t="str">
         <f t="shared" ref="F26:F33" si="0">IFERROR(ROUND(H26/G26,0), "")</f>
-        <v>5270</v>
+        <v/>
       </c>
       <c r="G26" s="89">
         <f>償却資産!D81</f>
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="H26" s="90">
         <f>償却資産!E81</f>
-        <v>1291150</v>
+        <v>0</v>
       </c>
       <c r="I26" s="91" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="27" customHeight="1">
-      <c r="B27" s="468"/>
-      <c r="C27" s="475" t="s">
+      <c r="B27" s="479"/>
+      <c r="C27" s="485" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="463" t="s">
+      <c r="D27" s="474" t="s">
         <v>146</v>
       </c>
       <c r="E27" s="92" t="s">
@@ -32037,19 +32164,19 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="27" customHeight="1">
-      <c r="B28" s="468"/>
-      <c r="C28" s="461"/>
-      <c r="D28" s="476"/>
+      <c r="B28" s="479"/>
+      <c r="C28" s="472"/>
+      <c r="D28" s="486"/>
       <c r="E28" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="89">
+      <c r="F28" s="89" t="str">
         <f>IFERROR(ROUND((H28+I28)/G28,0), "")</f>
-        <v>32080</v>
+        <v/>
       </c>
       <c r="G28" s="89">
         <f>償却資産!D82</f>
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="H28" s="90">
         <f>償却資産!E82</f>
@@ -32057,15 +32184,15 @@
       </c>
       <c r="I28" s="133">
         <f>償却資産!F82</f>
-        <v>7859600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="27" customHeight="1">
-      <c r="B29" s="468"/>
-      <c r="C29" s="461" t="s">
+      <c r="B29" s="479"/>
+      <c r="C29" s="472" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="463" t="s">
+      <c r="D29" s="474" t="s">
         <v>150</v>
       </c>
       <c r="E29" s="92" t="s">
@@ -32083,19 +32210,19 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="27" customHeight="1">
-      <c r="B30" s="468"/>
-      <c r="C30" s="462"/>
-      <c r="D30" s="464"/>
+      <c r="B30" s="479"/>
+      <c r="C30" s="473"/>
+      <c r="D30" s="475"/>
       <c r="E30" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="F30" s="89" t="str">
+      <c r="F30" s="89">
         <f>IFERROR(ROUND((H30+I30)/G30,0), "")</f>
-        <v/>
+        <v>75594</v>
       </c>
       <c r="G30" s="89">
         <f>償却資産!D83</f>
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="H30" s="90">
         <f>償却資産!E83</f>
@@ -32103,141 +32230,141 @@
       </c>
       <c r="I30" s="133">
         <f>償却資産!F83</f>
-        <v>0</v>
+        <v>36814400</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="27" customHeight="1">
-      <c r="B31" s="468"/>
-      <c r="C31" s="447" t="s">
+      <c r="B31" s="479"/>
+      <c r="C31" s="450" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="448"/>
-      <c r="E31" s="449"/>
+      <c r="D31" s="490"/>
+      <c r="E31" s="491"/>
       <c r="F31" s="89">
         <f t="shared" si="0"/>
-        <v>13940</v>
+        <v>11010</v>
       </c>
       <c r="G31" s="89">
         <f>償却資産!D84</f>
-        <v>245</v>
+        <v>487</v>
       </c>
       <c r="H31" s="90">
         <f>償却資産!E84</f>
-        <v>3415300</v>
+        <v>5361870</v>
       </c>
       <c r="I31" s="91" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="27" customHeight="1">
-      <c r="B32" s="468"/>
-      <c r="C32" s="450" t="s">
+      <c r="B32" s="479"/>
+      <c r="C32" s="461" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="451"/>
-      <c r="E32" s="452"/>
-      <c r="F32" s="89">
+      <c r="D32" s="462"/>
+      <c r="E32" s="471"/>
+      <c r="F32" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>810</v>
+        <v/>
       </c>
       <c r="G32" s="89">
         <f>償却資産!D85</f>
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="H32" s="90">
         <f>償却資産!E85</f>
-        <v>198450</v>
+        <v>0</v>
       </c>
       <c r="I32" s="91" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="27" customHeight="1">
-      <c r="B33" s="468"/>
-      <c r="C33" s="450" t="s">
+      <c r="B33" s="479"/>
+      <c r="C33" s="461" t="s">
         <v>759</v>
       </c>
-      <c r="D33" s="451"/>
-      <c r="E33" s="452"/>
+      <c r="D33" s="462"/>
+      <c r="E33" s="471"/>
       <c r="F33" s="89">
         <f t="shared" si="0"/>
-        <v>7270</v>
+        <v>0</v>
       </c>
       <c r="G33" s="90">
         <f>ナビ!D11</f>
-        <v>245</v>
+        <v>487</v>
       </c>
       <c r="H33" s="90">
         <f>車両!K10</f>
-        <v>1781150</v>
+        <v>0</v>
       </c>
       <c r="I33" s="91" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="27" customHeight="1">
-      <c r="B34" s="468"/>
-      <c r="C34" s="453" t="s">
+      <c r="B34" s="479"/>
+      <c r="C34" s="492" t="s">
         <v>154</v>
       </c>
-      <c r="D34" s="454"/>
-      <c r="E34" s="454"/>
-      <c r="F34" s="454"/>
-      <c r="G34" s="455"/>
+      <c r="D34" s="493"/>
+      <c r="E34" s="493"/>
+      <c r="F34" s="493"/>
+      <c r="G34" s="494"/>
       <c r="H34" s="94">
         <f>SUM(H23:H33)</f>
-        <v>10650150</v>
+        <v>12010855</v>
       </c>
       <c r="I34" s="91" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="27" customHeight="1">
-      <c r="B35" s="468"/>
-      <c r="C35" s="453" t="s">
+      <c r="B35" s="479"/>
+      <c r="C35" s="492" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="456"/>
-      <c r="E35" s="456"/>
-      <c r="F35" s="456"/>
-      <c r="G35" s="457"/>
+      <c r="D35" s="495"/>
+      <c r="E35" s="495"/>
+      <c r="F35" s="495"/>
+      <c r="G35" s="496"/>
       <c r="H35" s="95" t="s">
         <v>141</v>
       </c>
       <c r="I35" s="96">
         <f>SUM(I23:I34)</f>
-        <v>7859600</v>
+        <v>40370150</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="27" customHeight="1" thickBot="1">
-      <c r="B36" s="469"/>
-      <c r="C36" s="458" t="s">
+      <c r="B36" s="480"/>
+      <c r="C36" s="497" t="s">
         <v>156</v>
       </c>
-      <c r="D36" s="459"/>
-      <c r="E36" s="459"/>
-      <c r="F36" s="459"/>
-      <c r="G36" s="460"/>
+      <c r="D36" s="498"/>
+      <c r="E36" s="498"/>
+      <c r="F36" s="498"/>
+      <c r="G36" s="499"/>
       <c r="H36" s="143"/>
       <c r="I36" s="144">
         <f>H34+I35</f>
-        <v>18509750</v>
+        <v>52381005</v>
       </c>
       <c r="K36" s="148"/>
     </row>
     <row r="37" spans="2:11" ht="27" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B37" s="444" t="s">
+      <c r="B37" s="487" t="s">
         <v>157</v>
       </c>
-      <c r="C37" s="445"/>
-      <c r="D37" s="445"/>
-      <c r="E37" s="445"/>
-      <c r="F37" s="445"/>
-      <c r="G37" s="446"/>
+      <c r="C37" s="488"/>
+      <c r="D37" s="488"/>
+      <c r="E37" s="488"/>
+      <c r="F37" s="488"/>
+      <c r="G37" s="489"/>
       <c r="H37" s="145"/>
       <c r="I37" s="146">
         <f>SUM(H19,I36)</f>
-        <v>31209750</v>
+        <v>59334450</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -32252,27 +32379,13 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="C19:D19"/>
@@ -32283,13 +32396,27 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -32313,8 +32440,8 @@
   </sheetPr>
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="24" customHeight="1"/>
@@ -32343,15 +32470,15 @@
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="563" t="s">
+      <c r="B3" s="502" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="488"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="488"/>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="488"/>
+      <c r="C3" s="453"/>
+      <c r="D3" s="453"/>
+      <c r="E3" s="453"/>
+      <c r="F3" s="453"/>
+      <c r="G3" s="453"/>
+      <c r="H3" s="453"/>
     </row>
     <row r="4" spans="1:14" ht="24" customHeight="1">
       <c r="A4" s="2"/>
@@ -32365,27 +32492,27 @@
     </row>
     <row r="5" spans="1:14" ht="24" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="500" t="s">
+      <c r="B5" s="503" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="546"/>
-      <c r="D5" s="546"/>
-      <c r="E5" s="546"/>
-      <c r="F5" s="546"/>
-      <c r="G5" s="546"/>
-      <c r="H5" s="546"/>
+      <c r="C5" s="504"/>
+      <c r="D5" s="504"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="504"/>
     </row>
     <row r="6" spans="1:14" ht="24" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="547" t="s">
+      <c r="B6" s="505" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="548"/>
-      <c r="D6" s="548"/>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
+      <c r="C6" s="506"/>
+      <c r="D6" s="506"/>
+      <c r="E6" s="506"/>
+      <c r="F6" s="506"/>
+      <c r="G6" s="506"/>
+      <c r="H6" s="507"/>
       <c r="J6" s="142"/>
       <c r="K6" s="142"/>
     </row>
@@ -32393,22 +32520,22 @@
       <c r="A7" s="2"/>
       <c r="B7" s="5">
         <f>'1_a'!H7</f>
-        <v>37926</v>
+        <v>51621.886618181823</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="564">
+      <c r="D7" s="508">
         <f>VLOOKUP(ナビ!E6,標準係数B!B4:G50,6,FALSE)</f>
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="E7" s="565"/>
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="E7" s="509"/>
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="7">
         <f>ROUND(B7/D7,2)</f>
-        <v>77717.210000000006</v>
+        <v>108449.34</v>
       </c>
       <c r="H7" s="415" t="s">
         <v>6</v>
@@ -32430,36 +32557,36 @@
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="547" t="s">
+      <c r="B9" s="505" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="548"/>
-      <c r="D9" s="548"/>
-      <c r="E9" s="548"/>
-      <c r="F9" s="548"/>
-      <c r="G9" s="548"/>
-      <c r="H9" s="549"/>
+      <c r="C9" s="506"/>
+      <c r="D9" s="506"/>
+      <c r="E9" s="506"/>
+      <c r="F9" s="506"/>
+      <c r="G9" s="506"/>
+      <c r="H9" s="507"/>
     </row>
     <row r="10" spans="1:14" ht="24" customHeight="1" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="224">
         <f>ナビ!D14</f>
-        <v>100</v>
+        <v>106.05</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="561">
+      <c r="D10" s="500">
         <f>G7</f>
-        <v>77717.210000000006</v>
-      </c>
-      <c r="E10" s="562"/>
+        <v>108449.34</v>
+      </c>
+      <c r="E10" s="501"/>
       <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="12">
         <f>ROUNDDOWN(B10*D10,0)</f>
-        <v>7771721</v>
+        <v>11501052</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>10</v>
@@ -32477,15 +32604,15 @@
     </row>
     <row r="12" spans="1:14" ht="24" customHeight="1" thickBot="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="500" t="s">
+      <c r="B12" s="503" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="546"/>
-      <c r="D12" s="546"/>
-      <c r="E12" s="546"/>
-      <c r="F12" s="546"/>
-      <c r="G12" s="546"/>
-      <c r="H12" s="546"/>
+      <c r="C12" s="504"/>
+      <c r="D12" s="504"/>
+      <c r="E12" s="504"/>
+      <c r="F12" s="504"/>
+      <c r="G12" s="504"/>
+      <c r="H12" s="504"/>
       <c r="K12" s="378" t="s">
         <v>732</v>
       </c>
@@ -32495,15 +32622,15 @@
     </row>
     <row r="13" spans="1:14" ht="24" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="547" t="s">
+      <c r="B13" s="505" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="548"/>
-      <c r="D13" s="548"/>
-      <c r="E13" s="548"/>
-      <c r="F13" s="548"/>
-      <c r="G13" s="548"/>
-      <c r="H13" s="549"/>
+      <c r="C13" s="506"/>
+      <c r="D13" s="506"/>
+      <c r="E13" s="506"/>
+      <c r="F13" s="506"/>
+      <c r="G13" s="506"/>
+      <c r="H13" s="507"/>
       <c r="K13" s="379" t="s">
         <v>727</v>
       </c>
@@ -32526,15 +32653,15 @@
       <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="550">
+      <c r="D14" s="512">
         <f>ナビ!D11</f>
-        <v>245</v>
-      </c>
-      <c r="E14" s="551"/>
+        <v>487</v>
+      </c>
+      <c r="E14" s="513"/>
       <c r="F14" s="14"/>
       <c r="G14" s="15">
         <f>N16</f>
-        <v>0.75949999999999995</v>
+        <v>1.5097</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>13</v>
@@ -32573,55 +32700,55 @@
       </c>
       <c r="M15" s="117">
         <f>償却資産!D65+償却資産!D67</f>
-        <v>245</v>
+        <v>487</v>
       </c>
       <c r="N15" s="383">
         <f>L15*M15</f>
-        <v>0.75949999999999995</v>
+        <v>1.5097</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="24" customHeight="1" thickBot="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="547" t="s">
+      <c r="B16" s="505" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="548"/>
-      <c r="D16" s="548"/>
-      <c r="E16" s="548"/>
-      <c r="F16" s="548"/>
-      <c r="G16" s="548"/>
-      <c r="H16" s="549"/>
+      <c r="C16" s="506"/>
+      <c r="D16" s="506"/>
+      <c r="E16" s="506"/>
+      <c r="F16" s="506"/>
+      <c r="G16" s="506"/>
+      <c r="H16" s="507"/>
       <c r="K16" s="385" t="s">
         <v>339</v>
       </c>
       <c r="L16" s="386"/>
       <c r="M16" s="387">
         <f>SUM(M14:M15)</f>
-        <v>245</v>
+        <v>487</v>
       </c>
       <c r="N16" s="388">
         <f>SUM(N14:N15)</f>
-        <v>0.75949999999999995</v>
+        <v>1.5097</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A17" s="2"/>
       <c r="B17" s="254">
         <f>VLOOKUP(ナビ!E6,標準係数B!B4:G50,4,FALSE)</f>
-        <v>7104000</v>
+        <v>5683000</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="505">
+      <c r="D17" s="520">
         <f>G14</f>
-        <v>0.75949999999999995</v>
-      </c>
-      <c r="E17" s="529"/>
-      <c r="F17" s="530"/>
+        <v>1.5097</v>
+      </c>
+      <c r="E17" s="521"/>
+      <c r="F17" s="522"/>
       <c r="G17" s="12">
         <f>ROUND(B17*D17,0)</f>
-        <v>5395488</v>
+        <v>8579625</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>10</v>
@@ -32644,46 +32771,46 @@
     </row>
     <row r="19" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="500" t="s">
+      <c r="B19" s="503" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="546"/>
-      <c r="D19" s="546"/>
-      <c r="E19" s="546"/>
-      <c r="F19" s="546"/>
-      <c r="G19" s="546"/>
-      <c r="H19" s="546"/>
+      <c r="C19" s="504"/>
+      <c r="D19" s="504"/>
+      <c r="E19" s="504"/>
+      <c r="F19" s="504"/>
+      <c r="G19" s="504"/>
+      <c r="H19" s="504"/>
     </row>
     <row r="20" spans="1:13" ht="24" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="552" t="s">
+      <c r="B20" s="514" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="553"/>
-      <c r="D20" s="553"/>
-      <c r="E20" s="553"/>
-      <c r="F20" s="553"/>
-      <c r="G20" s="553"/>
-      <c r="H20" s="554"/>
+      <c r="C20" s="515"/>
+      <c r="D20" s="515"/>
+      <c r="E20" s="515"/>
+      <c r="F20" s="515"/>
+      <c r="G20" s="515"/>
+      <c r="H20" s="516"/>
     </row>
     <row r="21" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="16">
         <f>'1_a'!I36</f>
-        <v>18509750</v>
+        <v>52381005</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="D21" s="558">
+      <c r="D21" s="526">
         <f>G21/B21</f>
-        <v>3.0000135063952781E-2</v>
-      </c>
-      <c r="E21" s="559"/>
-      <c r="F21" s="560"/>
+        <v>3.000003531814634E-2</v>
+      </c>
+      <c r="E21" s="527"/>
+      <c r="F21" s="528"/>
       <c r="G21" s="12">
         <f>償却資産!Q56+車両!K12</f>
-        <v>555295</v>
+        <v>1571432</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>10</v>
@@ -32701,15 +32828,15 @@
     </row>
     <row r="23" spans="1:13" ht="24" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="555" t="s">
+      <c r="B23" s="517" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="556"/>
-      <c r="D23" s="556"/>
-      <c r="E23" s="556"/>
-      <c r="F23" s="556"/>
-      <c r="G23" s="556"/>
-      <c r="H23" s="557"/>
+      <c r="C23" s="518"/>
+      <c r="D23" s="518"/>
+      <c r="E23" s="518"/>
+      <c r="F23" s="518"/>
+      <c r="G23" s="518"/>
+      <c r="H23" s="519"/>
     </row>
     <row r="24" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A24" s="2"/>
@@ -32717,12 +32844,12 @@
       <c r="C24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="505" t="str">
+      <c r="D24" s="520" t="str">
         <f>IF(B24=0,"－",ROUND(G24/B24,5))</f>
         <v>－</v>
       </c>
-      <c r="E24" s="529"/>
-      <c r="F24" s="530"/>
+      <c r="E24" s="521"/>
+      <c r="F24" s="522"/>
       <c r="G24" s="12">
         <v>0</v>
       </c>
@@ -32742,16 +32869,16 @@
     </row>
     <row r="26" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="520" t="s">
+      <c r="B26" s="523" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="521"/>
-      <c r="D26" s="521"/>
-      <c r="E26" s="521"/>
-      <c r="F26" s="522"/>
+      <c r="C26" s="524"/>
+      <c r="D26" s="524"/>
+      <c r="E26" s="524"/>
+      <c r="F26" s="525"/>
       <c r="G26" s="20">
         <f>SUM(G21,G24)</f>
-        <v>555295</v>
+        <v>1571432</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>10</v>
@@ -32793,27 +32920,27 @@
     </row>
     <row r="30" spans="1:13" ht="24" customHeight="1">
       <c r="A30" s="2"/>
-      <c r="B30" s="544" t="s">
+      <c r="B30" s="510" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="545"/>
-      <c r="D30" s="545"/>
-      <c r="E30" s="545"/>
-      <c r="F30" s="545"/>
-      <c r="G30" s="545"/>
-      <c r="H30" s="545"/>
+      <c r="C30" s="511"/>
+      <c r="D30" s="511"/>
+      <c r="E30" s="511"/>
+      <c r="F30" s="511"/>
+      <c r="G30" s="511"/>
+      <c r="H30" s="511"/>
     </row>
     <row r="31" spans="1:13" ht="24" customHeight="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="526" t="s">
+      <c r="B31" s="532" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="526"/>
-      <c r="D31" s="526"/>
-      <c r="E31" s="526"/>
-      <c r="F31" s="526"/>
-      <c r="G31" s="526"/>
-      <c r="H31" s="526"/>
+      <c r="C31" s="532"/>
+      <c r="D31" s="532"/>
+      <c r="E31" s="532"/>
+      <c r="F31" s="532"/>
+      <c r="G31" s="532"/>
+      <c r="H31" s="532"/>
     </row>
     <row r="32" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A32" s="2"/>
@@ -32829,36 +32956,36 @@
     </row>
     <row r="33" spans="1:8" ht="32" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="527" t="s">
+      <c r="B33" s="533" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="528"/>
-      <c r="D33" s="542" t="s">
+      <c r="C33" s="534"/>
+      <c r="D33" s="548" t="s">
         <v>760</v>
       </c>
-      <c r="E33" s="542"/>
-      <c r="F33" s="542"/>
-      <c r="G33" s="542"/>
-      <c r="H33" s="543"/>
+      <c r="E33" s="548"/>
+      <c r="F33" s="548"/>
+      <c r="G33" s="548"/>
+      <c r="H33" s="549"/>
     </row>
     <row r="34" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A34" s="2"/>
       <c r="B34" s="16">
         <f>ROUND(土地!O15,0)</f>
-        <v>5080000</v>
+        <v>2784210</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="505">
+      <c r="D34" s="520">
         <f>IF(B34&gt;=0,標準係数B!K9,"－")</f>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E34" s="529"/>
-      <c r="F34" s="530"/>
+      <c r="E34" s="521"/>
+      <c r="F34" s="522"/>
       <c r="G34" s="12">
         <f>ROUND(B34*D34,0)</f>
-        <v>86360</v>
+        <v>47332</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>10</v>
@@ -32898,14 +33025,14 @@
       <c r="A37" s="2"/>
       <c r="B37" s="24">
         <f>'1_a'!H34</f>
-        <v>10650150</v>
+        <v>12010855</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="25">
         <f>'1_a'!I35</f>
-        <v>7859600</v>
+        <v>40370150</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>27</v>
@@ -32916,7 +33043,7 @@
       </c>
       <c r="G37" s="12">
         <f>ROUND(B37/2+D37*F37/2,0)</f>
-        <v>7132783</v>
+        <v>15290562</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>10</v>
@@ -32952,20 +33079,20 @@
       <c r="A40" s="2"/>
       <c r="B40" s="16">
         <f>G37</f>
-        <v>7132783</v>
+        <v>15290562</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="505">
+      <c r="D40" s="520">
         <f>標準係数B!K10</f>
         <v>1.4E-2</v>
       </c>
-      <c r="E40" s="506"/>
-      <c r="F40" s="507"/>
+      <c r="E40" s="535"/>
+      <c r="F40" s="536"/>
       <c r="G40" s="12">
         <f>ROUND(B40*D40,0)</f>
-        <v>99859</v>
+        <v>214068</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>10</v>
@@ -32983,16 +33110,16 @@
     </row>
     <row r="42" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="520" t="s">
+      <c r="B42" s="523" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="531"/>
-      <c r="D42" s="531"/>
-      <c r="E42" s="531"/>
-      <c r="F42" s="532"/>
+      <c r="C42" s="537"/>
+      <c r="D42" s="537"/>
+      <c r="E42" s="537"/>
+      <c r="F42" s="538"/>
       <c r="G42" s="20">
         <f>G34+G40</f>
-        <v>186219</v>
+        <v>261400</v>
       </c>
       <c r="H42" s="21" t="s">
         <v>10</v>
@@ -33010,37 +33137,37 @@
     </row>
     <row r="44" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="533" t="s">
+      <c r="B44" s="539" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="533"/>
-      <c r="D44" s="533"/>
-      <c r="E44" s="533"/>
-      <c r="F44" s="533"/>
-      <c r="G44" s="533"/>
-      <c r="H44" s="533"/>
+      <c r="C44" s="539"/>
+      <c r="D44" s="539"/>
+      <c r="E44" s="539"/>
+      <c r="F44" s="539"/>
+      <c r="G44" s="539"/>
+      <c r="H44" s="539"/>
     </row>
     <row r="45" spans="1:8" ht="30" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="421" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="534" t="s">
+      <c r="C45" s="540" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="534"/>
-      <c r="E45" s="535" t="s">
+      <c r="D45" s="540"/>
+      <c r="E45" s="541" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="535"/>
-      <c r="G45" s="535"/>
-      <c r="H45" s="536"/>
+      <c r="F45" s="541"/>
+      <c r="G45" s="541"/>
+      <c r="H45" s="542"/>
     </row>
     <row r="46" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A46" s="2"/>
       <c r="B46" s="16">
         <f>'1_c'!G25</f>
-        <v>848905</v>
+        <v>1613897</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>10</v>
@@ -33049,14 +33176,14 @@
         <f>標準係数B!K15</f>
         <v>0.35</v>
       </c>
-      <c r="E46" s="537">
+      <c r="E46" s="543">
         <f>標準係数B!K13/(1-標準係数B!K13)</f>
         <v>9.081735620585266E-3</v>
       </c>
-      <c r="F46" s="538"/>
+      <c r="F46" s="544"/>
       <c r="G46" s="12">
         <f>ROUND(B46*D46*E46,0)</f>
-        <v>2698</v>
+        <v>5130</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>10</v>
@@ -33074,46 +33201,46 @@
     </row>
     <row r="48" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A48" s="2"/>
-      <c r="B48" s="533" t="s">
+      <c r="B48" s="539" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="533"/>
-      <c r="D48" s="533"/>
-      <c r="E48" s="533"/>
-      <c r="F48" s="533"/>
-      <c r="G48" s="533"/>
-      <c r="H48" s="533"/>
+      <c r="C48" s="539"/>
+      <c r="D48" s="539"/>
+      <c r="E48" s="539"/>
+      <c r="F48" s="539"/>
+      <c r="G48" s="539"/>
+      <c r="H48" s="539"/>
     </row>
     <row r="49" spans="1:8" ht="24" customHeight="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="539" t="s">
+      <c r="B49" s="545" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="540"/>
-      <c r="D49" s="540"/>
-      <c r="E49" s="540"/>
-      <c r="F49" s="540"/>
-      <c r="G49" s="540"/>
-      <c r="H49" s="541"/>
+      <c r="C49" s="546"/>
+      <c r="D49" s="546"/>
+      <c r="E49" s="546"/>
+      <c r="F49" s="546"/>
+      <c r="G49" s="546"/>
+      <c r="H49" s="547"/>
     </row>
     <row r="50" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A50" s="2"/>
       <c r="B50" s="24">
         <f>G50/D50</f>
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="C50" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="523">
+      <c r="D50" s="529">
         <f>SUM(ナビ!D11)</f>
-        <v>245</v>
-      </c>
-      <c r="E50" s="524"/>
-      <c r="F50" s="525"/>
+        <v>487</v>
+      </c>
+      <c r="E50" s="530"/>
+      <c r="F50" s="531"/>
       <c r="G50" s="12">
         <f>SUM(道路占用料!E8)</f>
-        <v>36750</v>
+        <v>340900</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>10</v>
@@ -33131,46 +33258,46 @@
     </row>
     <row r="52" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A52" s="2"/>
-      <c r="B52" s="500" t="s">
+      <c r="B52" s="503" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="500"/>
-      <c r="D52" s="500"/>
-      <c r="E52" s="500"/>
-      <c r="F52" s="500"/>
-      <c r="G52" s="500"/>
-      <c r="H52" s="500"/>
+      <c r="C52" s="503"/>
+      <c r="D52" s="503"/>
+      <c r="E52" s="503"/>
+      <c r="F52" s="503"/>
+      <c r="G52" s="503"/>
+      <c r="H52" s="503"/>
     </row>
     <row r="53" spans="1:8" ht="24" customHeight="1">
       <c r="A53" s="2"/>
-      <c r="B53" s="508" t="s">
+      <c r="B53" s="554" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="509"/>
-      <c r="D53" s="509"/>
-      <c r="E53" s="509"/>
-      <c r="F53" s="509"/>
-      <c r="G53" s="509"/>
-      <c r="H53" s="510"/>
+      <c r="C53" s="555"/>
+      <c r="D53" s="555"/>
+      <c r="E53" s="555"/>
+      <c r="F53" s="555"/>
+      <c r="G53" s="555"/>
+      <c r="H53" s="556"/>
     </row>
     <row r="54" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A54" s="2"/>
       <c r="B54" s="16">
         <f>'1_a'!I36-'1_a'!H33</f>
-        <v>16728600</v>
+        <v>52381005</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="511">
+      <c r="D54" s="557">
         <f>G54/B54</f>
-        <v>8.1864821323960169E-2</v>
-      </c>
-      <c r="E54" s="512"/>
-      <c r="F54" s="513"/>
+        <v>7.4306878991726097E-2</v>
+      </c>
+      <c r="E54" s="558"/>
+      <c r="F54" s="559"/>
       <c r="G54" s="12">
-        <f>償却資産!S56</f>
-        <v>1369483.85</v>
+        <f>ROUND(償却資産!S56,0)</f>
+        <v>3892269</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>10</v>
@@ -33188,34 +33315,34 @@
     </row>
     <row r="56" spans="1:8" ht="24" customHeight="1">
       <c r="A56" s="2"/>
-      <c r="B56" s="514" t="s">
+      <c r="B56" s="560" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="515"/>
-      <c r="D56" s="515"/>
-      <c r="E56" s="515"/>
-      <c r="F56" s="515"/>
-      <c r="G56" s="515"/>
-      <c r="H56" s="516"/>
+      <c r="C56" s="561"/>
+      <c r="D56" s="561"/>
+      <c r="E56" s="561"/>
+      <c r="F56" s="561"/>
+      <c r="G56" s="561"/>
+      <c r="H56" s="562"/>
     </row>
     <row r="57" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A57" s="2"/>
       <c r="B57" s="16">
         <f>'1_a'!H33</f>
-        <v>1781150</v>
+        <v>0</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="517">
+      <c r="D57" s="563">
         <f>標準係数B!K30</f>
         <v>0.2</v>
       </c>
-      <c r="E57" s="518"/>
-      <c r="F57" s="519"/>
+      <c r="E57" s="564"/>
+      <c r="F57" s="565"/>
       <c r="G57" s="12">
         <f>IF(B57=0,0,ROUND(B57*D57,0))</f>
-        <v>356230</v>
+        <v>0</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>10</v>
@@ -33233,16 +33360,16 @@
     </row>
     <row r="59" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="520" t="s">
+      <c r="B59" s="523" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="521"/>
-      <c r="D59" s="521"/>
-      <c r="E59" s="521"/>
-      <c r="F59" s="522"/>
+      <c r="C59" s="524"/>
+      <c r="D59" s="524"/>
+      <c r="E59" s="524"/>
+      <c r="F59" s="525"/>
       <c r="G59" s="20">
         <f>G54+G57</f>
-        <v>1725713.85</v>
+        <v>3892269</v>
       </c>
       <c r="H59" s="21" t="s">
         <v>10</v>
@@ -33260,48 +33387,48 @@
     </row>
     <row r="61" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A61" s="2"/>
-      <c r="B61" s="500" t="s">
+      <c r="B61" s="503" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="500"/>
-      <c r="D61" s="500"/>
-      <c r="E61" s="500"/>
-      <c r="F61" s="500"/>
-      <c r="G61" s="500"/>
-      <c r="H61" s="500"/>
+      <c r="C61" s="503"/>
+      <c r="D61" s="503"/>
+      <c r="E61" s="503"/>
+      <c r="F61" s="503"/>
+      <c r="G61" s="503"/>
+      <c r="H61" s="503"/>
     </row>
     <row r="62" spans="1:8" ht="32" customHeight="1">
       <c r="A62" s="2"/>
-      <c r="B62" s="501" t="s">
+      <c r="B62" s="550" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="502"/>
-      <c r="D62" s="502"/>
-      <c r="E62" s="503" t="s">
+      <c r="C62" s="551"/>
+      <c r="D62" s="551"/>
+      <c r="E62" s="552" t="s">
         <v>44</v>
       </c>
-      <c r="F62" s="503"/>
-      <c r="G62" s="503"/>
-      <c r="H62" s="504"/>
+      <c r="F62" s="552"/>
+      <c r="G62" s="552"/>
+      <c r="H62" s="553"/>
     </row>
     <row r="63" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A63" s="2"/>
       <c r="B63" s="24">
         <f>SUM('2_a'!E9:E12,'2_a'!E14:E15)</f>
-        <v>15671186.85</v>
+        <v>26146678</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="505">
+      <c r="D63" s="520">
         <f>標準係数B!K7</f>
         <v>0.15</v>
       </c>
-      <c r="E63" s="506"/>
-      <c r="F63" s="507"/>
+      <c r="E63" s="535"/>
+      <c r="F63" s="536"/>
       <c r="G63" s="12">
         <f>ROUND(B63*D63,0)</f>
-        <v>2350678</v>
+        <v>3922002</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>10</v>
@@ -33332,24 +33459,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="B59:F59"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="B33:C33"/>
@@ -33363,16 +33482,24 @@
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="D33:H33"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B9:H9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -33396,7 +33523,7 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="24" customHeight="1"/>
   <cols>
@@ -33448,15 +33575,15 @@
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="563" t="s">
+      <c r="B4" s="502" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="488"/>
-      <c r="D4" s="488"/>
-      <c r="E4" s="488"/>
-      <c r="F4" s="488"/>
-      <c r="G4" s="488"/>
-      <c r="H4" s="488"/>
+      <c r="C4" s="453"/>
+      <c r="D4" s="453"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="453"/>
+      <c r="G4" s="453"/>
+      <c r="H4" s="453"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1">
       <c r="A5" s="2"/>
@@ -33470,54 +33597,54 @@
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" thickBot="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="581" t="s">
+      <c r="B6" s="569" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="581"/>
-      <c r="D6" s="581"/>
-      <c r="E6" s="581"/>
-      <c r="F6" s="581"/>
-      <c r="G6" s="581"/>
-      <c r="H6" s="581"/>
+      <c r="C6" s="569"/>
+      <c r="D6" s="569"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="569"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="566" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="577"/>
-      <c r="D7" s="502" t="s">
+      <c r="C7" s="567"/>
+      <c r="D7" s="551" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="509" t="s">
+      <c r="E7" s="570"/>
+      <c r="F7" s="555" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="509"/>
-      <c r="H7" s="510"/>
+      <c r="G7" s="555"/>
+      <c r="H7" s="556"/>
       <c r="J7" s="149"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="16">
         <f>G25</f>
-        <v>848905</v>
+        <v>1613897</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="582">
+      <c r="D8" s="571">
         <f>標準係数B!K15</f>
         <v>0.35</v>
       </c>
-      <c r="E8" s="583"/>
+      <c r="E8" s="572"/>
       <c r="F8" s="225">
         <f>ROUND(ナビ!D7/(1-(ナビ!D7+ナビ!D7*(標準係数B!K31+標準係数B!K32+標準係数B!K35))),4)</f>
         <v>0.29649999999999999</v>
       </c>
       <c r="G8" s="12">
         <f>ROUND(B8*D8*F8,0)</f>
-        <v>88095</v>
+        <v>167482</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>10</v>
@@ -33528,50 +33655,50 @@
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" thickBot="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="581" t="s">
+      <c r="B10" s="569" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="581"/>
-      <c r="D10" s="581"/>
-      <c r="E10" s="581"/>
-      <c r="F10" s="581"/>
-      <c r="G10" s="581"/>
-      <c r="H10" s="581"/>
+      <c r="C10" s="569"/>
+      <c r="D10" s="569"/>
+      <c r="E10" s="569"/>
+      <c r="F10" s="569"/>
+      <c r="G10" s="569"/>
+      <c r="H10" s="569"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="576" t="s">
+      <c r="B11" s="566" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="577"/>
-      <c r="D11" s="502" t="s">
+      <c r="C11" s="567"/>
+      <c r="D11" s="551" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="502"/>
-      <c r="F11" s="502"/>
-      <c r="G11" s="580" t="s">
+      <c r="E11" s="551"/>
+      <c r="F11" s="551"/>
+      <c r="G11" s="568" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="510"/>
+      <c r="H11" s="556"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="16">
         <f>G8</f>
-        <v>88095</v>
+        <v>167482</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="572">
+      <c r="D12" s="579">
         <f>標準係数B!K35</f>
         <v>0.10299999999999999</v>
       </c>
-      <c r="E12" s="573"/>
-      <c r="F12" s="574"/>
+      <c r="E12" s="580"/>
+      <c r="F12" s="581"/>
       <c r="G12" s="12">
         <f>ROUND(B12*D12,0)</f>
-        <v>9074</v>
+        <v>17251</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>10</v>
@@ -33582,50 +33709,50 @@
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" thickBot="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="575" t="s">
+      <c r="B14" s="582" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="575"/>
-      <c r="D14" s="575"/>
-      <c r="E14" s="575"/>
-      <c r="F14" s="575"/>
-      <c r="G14" s="575"/>
-      <c r="H14" s="575"/>
+      <c r="C14" s="582"/>
+      <c r="D14" s="582"/>
+      <c r="E14" s="582"/>
+      <c r="F14" s="582"/>
+      <c r="G14" s="582"/>
+      <c r="H14" s="582"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="576" t="s">
+      <c r="B15" s="566" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="577"/>
-      <c r="D15" s="578" t="s">
+      <c r="C15" s="567"/>
+      <c r="D15" s="570" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="578"/>
-      <c r="F15" s="578"/>
-      <c r="G15" s="579" t="s">
+      <c r="E15" s="570"/>
+      <c r="F15" s="570"/>
+      <c r="G15" s="583" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="504"/>
+      <c r="H15" s="553"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" thickBot="1">
       <c r="A16" s="2"/>
       <c r="B16" s="16">
         <f>G8</f>
-        <v>88095</v>
+        <v>167482</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="505">
+      <c r="D16" s="520">
         <f>標準係数B!K31+標準係数B!K32</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E16" s="529"/>
-      <c r="F16" s="530"/>
+      <c r="E16" s="521"/>
+      <c r="F16" s="522"/>
       <c r="G16" s="12">
         <f>IF(B16=0,0,ROUND(B16*D16,0))</f>
-        <v>6167</v>
+        <v>11724</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>10</v>
@@ -33643,16 +33770,16 @@
     </row>
     <row r="18" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="566" t="s">
+      <c r="B18" s="573" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="567"/>
-      <c r="D18" s="567"/>
-      <c r="E18" s="567"/>
-      <c r="F18" s="568"/>
+      <c r="C18" s="574"/>
+      <c r="D18" s="574"/>
+      <c r="E18" s="574"/>
+      <c r="F18" s="575"/>
       <c r="G18" s="20">
         <f>G8+G12+G16</f>
-        <v>103336</v>
+        <v>196457</v>
       </c>
       <c r="H18" s="21" t="s">
         <v>10</v>
@@ -33685,15 +33812,15 @@
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="563" t="s">
+      <c r="B22" s="502" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="563"/>
-      <c r="D22" s="563"/>
-      <c r="E22" s="563"/>
-      <c r="F22" s="563"/>
-      <c r="G22" s="563"/>
-      <c r="H22" s="563"/>
+      <c r="C22" s="502"/>
+      <c r="D22" s="502"/>
+      <c r="E22" s="502"/>
+      <c r="F22" s="502"/>
+      <c r="G22" s="502"/>
+      <c r="H22" s="502"/>
     </row>
     <row r="23" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A23" s="2"/>
@@ -33707,34 +33834,34 @@
     </row>
     <row r="24" spans="1:8" ht="24" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="569" t="s">
+      <c r="B24" s="576" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="570"/>
-      <c r="D24" s="570"/>
-      <c r="E24" s="570"/>
-      <c r="F24" s="570"/>
-      <c r="G24" s="570"/>
-      <c r="H24" s="571"/>
+      <c r="C24" s="577"/>
+      <c r="D24" s="577"/>
+      <c r="E24" s="577"/>
+      <c r="F24" s="577"/>
+      <c r="G24" s="577"/>
+      <c r="H24" s="578"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A25" s="2"/>
       <c r="B25" s="16">
         <f>'1_a'!I37</f>
-        <v>31209750</v>
+        <v>59334450</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="505">
+      <c r="D25" s="520">
         <f>標準係数B!K8</f>
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="E25" s="529"/>
-      <c r="F25" s="530"/>
+      <c r="E25" s="521"/>
+      <c r="F25" s="522"/>
       <c r="G25" s="12">
         <f>ROUND(B25*D25,0)</f>
-        <v>848905</v>
+        <v>1613897</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>10</v>
@@ -33751,6 +33878,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:H11"/>
@@ -33761,16 +33898,6 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -33822,12 +33949,12 @@
       <c r="B5" s="587" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="488"/>
-      <c r="D5" s="488"/>
-      <c r="E5" s="488"/>
-      <c r="F5" s="488"/>
-      <c r="G5" s="488"/>
-      <c r="H5" s="488"/>
+      <c r="C5" s="453"/>
+      <c r="D5" s="453"/>
+      <c r="E5" s="453"/>
+      <c r="F5" s="453"/>
+      <c r="G5" s="453"/>
+      <c r="H5" s="453"/>
     </row>
     <row r="6" spans="2:17" ht="36" customHeight="1">
       <c r="B6" s="34"/>
@@ -33870,12 +33997,12 @@
       <c r="D9" s="594"/>
       <c r="E9" s="38">
         <f>'1_b'!G10</f>
-        <v>7771721</v>
+        <v>11501052</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="39">
         <f t="shared" ref="G9:G21" si="0">E9/E$22*100</f>
-        <v>40.953793175240094</v>
+        <v>36.071361319054809</v>
       </c>
       <c r="H9" s="40"/>
       <c r="P9" s="97" t="s">
@@ -33883,7 +34010,7 @@
       </c>
       <c r="Q9" s="198">
         <f>G9/100</f>
-        <v>0.40953793175240094</v>
+        <v>0.36071361319054807</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="36" customHeight="1">
@@ -33894,12 +34021,12 @@
       <c r="D10" s="594"/>
       <c r="E10" s="38">
         <f>'1_b'!G17</f>
-        <v>5395488</v>
+        <v>8579625</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="39">
         <f t="shared" si="0"/>
-        <v>28.432016490490309</v>
+        <v>26.908734379863308</v>
       </c>
       <c r="H10" s="40"/>
       <c r="P10" s="97" t="s">
@@ -33907,7 +34034,7 @@
       </c>
       <c r="Q10" s="198">
         <f>G10/100</f>
-        <v>0.28432016490490308</v>
+        <v>0.26908734379863308</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="36" customHeight="1">
@@ -33920,12 +34047,12 @@
       <c r="D11" s="594"/>
       <c r="E11" s="38">
         <f>'1_b'!G26</f>
-        <v>555295</v>
+        <v>1571432</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="39">
         <f t="shared" si="0"/>
-        <v>2.9261776871872973</v>
+        <v>4.9285657920966663</v>
       </c>
       <c r="H11" s="40"/>
       <c r="P11" s="97" t="s">
@@ -33933,7 +34060,7 @@
       </c>
       <c r="Q11" s="198">
         <f>G11/100</f>
-        <v>2.9261776871872973E-2</v>
+        <v>4.9285657920966661E-2</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="36" customHeight="1">
@@ -33946,12 +34073,12 @@
       </c>
       <c r="E12" s="38">
         <f>'1_b'!G42</f>
-        <v>186219</v>
+        <v>261400</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="39">
         <f t="shared" si="0"/>
-        <v>0.98129801768489056</v>
+        <v>0.81984272819572745</v>
       </c>
       <c r="H12" s="40"/>
       <c r="P12" s="97" t="s">
@@ -33959,7 +34086,7 @@
       </c>
       <c r="Q12" s="198">
         <f>SUM(G12:G14)/100</f>
-        <v>1.1891728543107639E-2</v>
+        <v>1.9051150282629332E-2</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="36" customHeight="1">
@@ -33970,12 +34097,12 @@
       </c>
       <c r="E13" s="38">
         <f>'1_b'!G46</f>
-        <v>2698</v>
+        <v>5130</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="39">
         <f t="shared" si="0"/>
-        <v>1.4217357260611616E-2</v>
+        <v>1.6089491949671318E-2</v>
       </c>
       <c r="H13" s="40"/>
       <c r="P13" s="97" t="s">
@@ -33983,7 +34110,7 @@
       </c>
       <c r="Q13" s="198">
         <f>G15/100</f>
-        <v>9.0938066475298479E-2</v>
+        <v>0.12207530358958135</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="36" customHeight="1">
@@ -33994,12 +34121,12 @@
       </c>
       <c r="E14" s="38">
         <f>'1_b'!G50</f>
-        <v>36750</v>
+        <v>340900</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="39">
         <f t="shared" si="0"/>
-        <v>0.19365747936526201</v>
+        <v>1.0691828081175345</v>
       </c>
       <c r="H14" s="40"/>
       <c r="P14" s="97" t="s">
@@ -34007,7 +34134,7 @@
       </c>
       <c r="Q14" s="198">
         <f>G16/100</f>
-        <v>0.12387112279710895</v>
+        <v>0.12300783548848888</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="36" customHeight="1">
@@ -34018,12 +34145,12 @@
       <c r="D15" s="594"/>
       <c r="E15" s="38">
         <f>'1_b'!G59</f>
-        <v>1725713.85</v>
+        <v>3892269</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="39">
         <f t="shared" si="0"/>
-        <v>9.0938066475298474</v>
+        <v>12.207530358958135</v>
       </c>
       <c r="H15" s="40"/>
       <c r="P15" s="97" t="s">
@@ -34031,7 +34158,7 @@
       </c>
       <c r="Q15" s="198">
         <f>G18/100</f>
-        <v>4.4733823815120477E-2</v>
+        <v>5.0617510310133895E-2</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="36" customHeight="1">
@@ -34042,12 +34169,12 @@
       <c r="D16" s="594"/>
       <c r="E16" s="38">
         <f>'1_b'!G63</f>
-        <v>2350678</v>
+        <v>3922002</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="39">
         <f t="shared" si="0"/>
-        <v>12.387112279710895</v>
+        <v>12.300783548848889</v>
       </c>
       <c r="H16" s="40"/>
       <c r="P16" s="97" t="s">
@@ -34055,7 +34182,7 @@
       </c>
       <c r="Q16" s="198">
         <f>SUM(G19:G21)/100</f>
-        <v>5.4453848401874051E-3</v>
+        <v>6.1615854190186694E-3</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="36" customHeight="1">
@@ -34066,12 +34193,12 @@
       <c r="D17" s="594"/>
       <c r="E17" s="38">
         <f>SUM(E9:E16)</f>
-        <v>18024562.850000001</v>
+        <v>30073810</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="39">
         <f t="shared" si="0"/>
-        <v>94.982079134469217</v>
+        <v>94.322090427084746</v>
       </c>
       <c r="H17" s="40"/>
     </row>
@@ -34083,12 +34210,12 @@
       <c r="D18" s="594"/>
       <c r="E18" s="38">
         <f>'1_c'!G25</f>
-        <v>848905</v>
+        <v>1613897</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="39">
         <f t="shared" si="0"/>
-        <v>4.4733823815120477</v>
+        <v>5.0617510310133893</v>
       </c>
       <c r="H18" s="40"/>
     </row>
@@ -34102,12 +34229,12 @@
       </c>
       <c r="E19" s="38">
         <f>'1_c'!G8</f>
-        <v>88095</v>
+        <v>167482</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="39">
         <f>E19/E$22*100</f>
-        <v>0.46422464339272806</v>
+        <v>0.52528270774168639</v>
       </c>
       <c r="H19" s="40"/>
     </row>
@@ -34119,12 +34246,12 @@
       </c>
       <c r="E20" s="38">
         <f>'1_c'!G12</f>
-        <v>9074</v>
+        <v>17251</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="39">
         <f>E20/E$22*100</f>
-        <v>4.7816271231575169E-2</v>
+        <v>5.4105229166428827E-2</v>
       </c>
       <c r="H20" s="40"/>
     </row>
@@ -34136,12 +34263,12 @@
       </c>
       <c r="E21" s="38">
         <f>'1_c'!G16</f>
-        <v>6167</v>
+        <v>11724</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="39">
         <f t="shared" si="0"/>
-        <v>3.2497569394437299E-2</v>
+        <v>3.677060499375176E-2</v>
       </c>
       <c r="H21" s="40"/>
     </row>
@@ -34153,7 +34280,7 @@
       <c r="D22" s="586"/>
       <c r="E22" s="45">
         <f>SUM(E17:E21)</f>
-        <v>18976803.850000001</v>
+        <v>31884164</v>
       </c>
       <c r="F22" s="45"/>
       <c r="G22" s="46">
@@ -34179,7 +34306,7 @@
       <c r="D24" s="590"/>
       <c r="E24" s="50">
         <f>'1_a'!H7</f>
-        <v>37926</v>
+        <v>51621.886618181823</v>
       </c>
       <c r="F24" s="51" t="s">
         <v>71</v>
@@ -34195,7 +34322,7 @@
       <c r="D25" s="586"/>
       <c r="E25" s="54">
         <f>ROUND(E22/E24,2)</f>
-        <v>500.36</v>
+        <v>617.65</v>
       </c>
       <c r="F25" s="55" t="s">
         <v>27</v>
@@ -34237,7 +34364,7 @@
   </sheetPr>
   <dimension ref="B1:R29"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="28"/>
   <cols>
@@ -34267,14 +34394,14 @@
       <c r="H2" s="171"/>
     </row>
     <row r="3" spans="2:18" ht="27" customHeight="1">
-      <c r="B3" s="617" t="s">
+      <c r="B3" s="603" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="618"/>
-      <c r="D3" s="618"/>
-      <c r="E3" s="618"/>
-      <c r="F3" s="618"/>
-      <c r="G3" s="618"/>
+      <c r="C3" s="604"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="604"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
       <c r="H3" s="32"/>
     </row>
     <row r="4" spans="2:18" ht="27" customHeight="1" thickBot="1">
@@ -34289,24 +34416,24 @@
       <c r="H4" s="172"/>
     </row>
     <row r="5" spans="2:18" ht="27" customHeight="1">
-      <c r="B5" s="619" t="s">
+      <c r="B5" s="605" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="613" t="s">
+      <c r="C5" s="607" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="621"/>
-      <c r="E5" s="622" t="s">
+      <c r="D5" s="608"/>
+      <c r="E5" s="609" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="623"/>
-      <c r="G5" s="624" t="s">
+      <c r="F5" s="610"/>
+      <c r="G5" s="611" t="s">
         <v>89</v>
       </c>
       <c r="H5" s="189"/>
     </row>
     <row r="6" spans="2:18" ht="27" customHeight="1" thickBot="1">
-      <c r="B6" s="620"/>
+      <c r="B6" s="606"/>
       <c r="C6" s="174" t="s">
         <v>73</v>
       </c>
@@ -34319,7 +34446,7 @@
       <c r="F6" s="177" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="625"/>
+      <c r="G6" s="612"/>
       <c r="H6" s="189"/>
     </row>
     <row r="7" spans="2:18" ht="27" customHeight="1">
@@ -34329,7 +34456,7 @@
       <c r="C7" s="204"/>
       <c r="D7" s="205">
         <f>'別表4,5'!F31</f>
-        <v>7771721</v>
+        <v>11501052</v>
       </c>
       <c r="E7" s="205"/>
       <c r="F7" s="205"/>
@@ -34340,7 +34467,7 @@
       </c>
       <c r="R7" s="229">
         <f>C17</f>
-        <v>1410517</v>
+        <v>2281788</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="27" customHeight="1">
@@ -34351,12 +34478,12 @@
       <c r="D8" s="180"/>
       <c r="E8" s="180">
         <f>'別表4,5'!H32</f>
-        <v>2190029</v>
+        <v>3482470</v>
       </c>
       <c r="F8" s="180"/>
       <c r="G8" s="181">
         <f>'別表4,5'!K32</f>
-        <v>3205459</v>
+        <v>5097155</v>
       </c>
       <c r="H8" s="200"/>
       <c r="Q8" s="395" t="s">
@@ -34364,7 +34491,7 @@
       </c>
       <c r="R8" s="229">
         <f>D17</f>
-        <v>8875521</v>
+        <v>12781377</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="27" customHeight="1">
@@ -34373,17 +34500,17 @@
       </c>
       <c r="C9" s="179">
         <f>'別表4,5'!E33</f>
-        <v>157658</v>
+        <v>306142</v>
       </c>
       <c r="D9" s="180"/>
       <c r="E9" s="180">
         <f>'別表4,5'!H33</f>
-        <v>224291</v>
+        <v>921097</v>
       </c>
       <c r="F9" s="180"/>
       <c r="G9" s="181">
         <f>'別表4,5'!K33</f>
-        <v>173346</v>
+        <v>344193</v>
       </c>
       <c r="H9" s="200"/>
       <c r="Q9" s="395" t="s">
@@ -34391,7 +34518,7 @@
       </c>
       <c r="R9" s="229">
         <f>E17</f>
-        <v>3648446</v>
+        <v>8647304</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="27" customHeight="1">
@@ -34400,17 +34527,17 @@
       </c>
       <c r="C10" s="179">
         <f>'別表4,5'!E34</f>
-        <v>107133</v>
+        <v>75591</v>
       </c>
       <c r="D10" s="180"/>
       <c r="E10" s="180">
         <f>'別表4,5'!H34</f>
-        <v>44609</v>
+        <v>135264</v>
       </c>
       <c r="F10" s="180"/>
       <c r="G10" s="181">
         <f>'別表4,5'!K34</f>
-        <v>34477</v>
+        <v>50545</v>
       </c>
       <c r="H10" s="200"/>
       <c r="Q10" s="395" t="s">
@@ -34418,7 +34545,7 @@
       </c>
       <c r="R10" s="229">
         <f>F17</f>
-        <v>252324</v>
+        <v>526327</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="27" customHeight="1">
@@ -34429,7 +34556,7 @@
       <c r="D11" s="180"/>
       <c r="E11" s="180">
         <f>'別表4,5'!H35</f>
-        <v>36750</v>
+        <v>340900</v>
       </c>
       <c r="F11" s="180"/>
       <c r="G11" s="181"/>
@@ -34439,7 +34566,7 @@
       </c>
       <c r="R11" s="229">
         <f>G17</f>
-        <v>4789995.8499999996</v>
+        <v>7647368</v>
       </c>
     </row>
     <row r="12" spans="2:18" ht="27" customHeight="1">
@@ -34448,17 +34575,17 @@
       </c>
       <c r="C12" s="179">
         <f>'別表4,5'!E38</f>
-        <v>430220</v>
+        <v>758282</v>
       </c>
       <c r="D12" s="180"/>
       <c r="E12" s="180">
         <f>'別表4,5'!H38</f>
-        <v>697456</v>
+        <v>2281460</v>
       </c>
       <c r="F12" s="180"/>
       <c r="G12" s="181">
         <f>'別表4,5'!K38</f>
-        <v>598037.85000000009</v>
+        <v>852527</v>
       </c>
       <c r="H12" s="200"/>
       <c r="Q12" s="395"/>
@@ -34469,23 +34596,23 @@
       </c>
       <c r="C13" s="179">
         <f>'別表4,5'!E40</f>
-        <v>640181</v>
+        <v>1062103</v>
       </c>
       <c r="D13" s="180">
         <f>'別表4,5'!F40</f>
-        <v>629829</v>
+        <v>834058</v>
       </c>
       <c r="E13" s="180">
         <f>'別表4,5'!H40</f>
-        <v>241437</v>
+        <v>601683</v>
       </c>
       <c r="F13" s="180">
         <f>'別表4,5'!I40</f>
-        <v>237533</v>
+        <v>472495</v>
       </c>
       <c r="G13" s="181">
         <f>'別表4,5'!K40</f>
-        <v>601698</v>
+        <v>951663</v>
       </c>
       <c r="H13" s="200"/>
       <c r="Q13" s="395"/>
@@ -34496,23 +34623,23 @@
       </c>
       <c r="C14" s="179">
         <f>'別表4,5'!E42</f>
-        <v>66972</v>
+        <v>70697</v>
       </c>
       <c r="D14" s="180">
         <f>'別表4,5'!F42</f>
-        <v>421411</v>
+        <v>396006</v>
       </c>
       <c r="E14" s="180">
         <f>'別表4,5'!H42</f>
-        <v>190202</v>
+        <v>787213</v>
       </c>
       <c r="F14" s="180">
         <f>'別表4,5'!I42</f>
-        <v>13154</v>
+        <v>47914</v>
       </c>
       <c r="G14" s="181">
         <f>'別表4,5'!K42</f>
-        <v>157166</v>
+        <v>312067</v>
       </c>
       <c r="H14" s="200"/>
       <c r="Q14" s="395"/>
@@ -34523,23 +34650,23 @@
       </c>
       <c r="C15" s="179">
         <f>'別表4,5'!E43</f>
-        <v>8152</v>
+        <v>8606</v>
       </c>
       <c r="D15" s="180">
         <f>'別表4,5'!F43</f>
-        <v>51298</v>
+        <v>48205</v>
       </c>
       <c r="E15" s="180">
         <f>'別表4,5'!H43</f>
-        <v>23153</v>
+        <v>95826</v>
       </c>
       <c r="F15" s="180">
         <f>'別表4,5'!I43</f>
-        <v>1601</v>
+        <v>5833</v>
       </c>
       <c r="G15" s="181">
         <f>'別表4,5'!K43</f>
-        <v>19132</v>
+        <v>37987</v>
       </c>
       <c r="H15" s="200"/>
       <c r="Q15" s="395"/>
@@ -34550,23 +34677,23 @@
       </c>
       <c r="C16" s="179">
         <f>'別表4,5'!E45</f>
-        <v>201</v>
+        <v>367</v>
       </c>
       <c r="D16" s="180">
         <f>'別表4,5'!F45</f>
-        <v>1262</v>
+        <v>2056</v>
       </c>
       <c r="E16" s="180">
         <f>'別表4,5'!H45</f>
-        <v>519</v>
+        <v>1391</v>
       </c>
       <c r="F16" s="180">
         <f>'別表4,5'!I45</f>
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="G16" s="181">
         <f>'別表4,5'!K45</f>
-        <v>680</v>
+        <v>1231</v>
       </c>
       <c r="H16" s="200"/>
       <c r="Q16" s="395"/>
@@ -34577,23 +34704,23 @@
       </c>
       <c r="C17" s="183">
         <f>SUM(C7:C16)</f>
-        <v>1410517</v>
+        <v>2281788</v>
       </c>
       <c r="D17" s="184">
         <f>SUM(D7:D16)</f>
-        <v>8875521</v>
+        <v>12781377</v>
       </c>
       <c r="E17" s="184">
         <f>SUM(E7:E16)</f>
-        <v>3648446</v>
+        <v>8647304</v>
       </c>
       <c r="F17" s="184">
         <f>SUM(F7:F16)</f>
-        <v>252324</v>
+        <v>526327</v>
       </c>
       <c r="G17" s="185">
         <f>SUM(G7:G16)</f>
-        <v>4789995.8499999996</v>
+        <v>7647368</v>
       </c>
       <c r="H17" s="200"/>
       <c r="Q17" s="395"/>
@@ -34621,14 +34748,14 @@
       <c r="Q19" s="395"/>
     </row>
     <row r="20" spans="2:18" ht="27" customHeight="1">
-      <c r="B20" s="617" t="s">
+      <c r="B20" s="603" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="488"/>
-      <c r="D20" s="488"/>
-      <c r="E20" s="488"/>
-      <c r="F20" s="488"/>
-      <c r="G20" s="488"/>
+      <c r="C20" s="453"/>
+      <c r="D20" s="453"/>
+      <c r="E20" s="453"/>
+      <c r="F20" s="453"/>
+      <c r="G20" s="453"/>
       <c r="H20" s="3"/>
       <c r="Q20" s="395"/>
     </row>
@@ -34643,39 +34770,39 @@
       <c r="Q21" s="395"/>
     </row>
     <row r="22" spans="2:18" ht="27" customHeight="1" thickBot="1">
-      <c r="B22" s="626" t="s">
+      <c r="B22" s="613" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="627"/>
-      <c r="D22" s="628" t="s">
+      <c r="C22" s="614"/>
+      <c r="D22" s="615" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="629"/>
-      <c r="F22" s="628" t="s">
+      <c r="E22" s="616"/>
+      <c r="F22" s="615" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="630"/>
+      <c r="G22" s="617"/>
       <c r="H22" s="239"/>
       <c r="Q22" s="395" t="s">
         <v>338</v>
       </c>
       <c r="R22" s="230">
-        <f>B29</f>
-        <v>18976803.850000001</v>
+        <f ca="1">B29</f>
+        <v>30715365</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="27" customHeight="1">
-      <c r="B23" s="631" t="s">
+      <c r="B23" s="618" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="632"/>
-      <c r="D23" s="633" t="s">
+      <c r="C23" s="619"/>
+      <c r="D23" s="620" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="632"/>
-      <c r="F23" s="201" t="str">
+      <c r="E23" s="619"/>
+      <c r="F23" s="201">
         <f>'別表4,5'!G52</f>
-        <v>-</v>
+        <v>257.79000000000002</v>
       </c>
       <c r="G23" s="186" t="s">
         <v>101</v>
@@ -34685,22 +34812,22 @@
         <v>635</v>
       </c>
       <c r="R23" s="229">
-        <f>D29</f>
+        <f ca="1">D29</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="27" customHeight="1">
-      <c r="B24" s="607" t="s">
+      <c r="B24" s="600" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="608"/>
-      <c r="D24" s="609" t="s">
+      <c r="C24" s="601"/>
+      <c r="D24" s="602" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="608"/>
-      <c r="F24" s="202" t="str">
-        <f>'別表4,5'!G53</f>
-        <v>-</v>
+      <c r="E24" s="601"/>
+      <c r="F24" s="202">
+        <f ca="1">'別表4,5'!G53</f>
+        <v>341.13</v>
       </c>
       <c r="G24" s="187" t="s">
         <v>101</v>
@@ -34710,22 +34837,22 @@
         <v>340</v>
       </c>
       <c r="R24" s="229">
-        <f>F29</f>
-        <v>0</v>
+        <f ca="1">F29</f>
+        <v>1168799</v>
       </c>
     </row>
     <row r="25" spans="2:18" ht="27" customHeight="1">
-      <c r="B25" s="607" t="s">
+      <c r="B25" s="600" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="608"/>
-      <c r="D25" s="609" t="s">
+      <c r="C25" s="601"/>
+      <c r="D25" s="602" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="608"/>
-      <c r="F25" s="202" t="str">
+      <c r="E25" s="601"/>
+      <c r="F25" s="202">
         <f>'別表4,5'!G54</f>
-        <v>-</v>
+        <v>591.87</v>
       </c>
       <c r="G25" s="187" t="s">
         <v>101</v>
@@ -34733,17 +34860,17 @@
       <c r="H25" s="171"/>
     </row>
     <row r="26" spans="2:18" ht="27" customHeight="1" thickBot="1">
-      <c r="B26" s="610" t="s">
+      <c r="B26" s="628" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="611"/>
-      <c r="D26" s="612" t="s">
+      <c r="C26" s="629"/>
+      <c r="D26" s="630" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="611"/>
-      <c r="F26" s="203" t="str">
+      <c r="E26" s="629"/>
+      <c r="F26" s="203">
         <f>'別表4,5'!G55</f>
-        <v>-</v>
+        <v>1308.58</v>
       </c>
       <c r="G26" s="188" t="s">
         <v>108</v>
@@ -34760,40 +34887,50 @@
       <c r="H27" s="191"/>
     </row>
     <row r="28" spans="2:18" ht="27" customHeight="1">
-      <c r="B28" s="613" t="s">
+      <c r="B28" s="607" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="614"/>
-      <c r="D28" s="615" t="s">
+      <c r="C28" s="631"/>
+      <c r="D28" s="632" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="616"/>
-      <c r="F28" s="600" t="s">
+      <c r="E28" s="633"/>
+      <c r="F28" s="621" t="s">
         <v>111</v>
       </c>
-      <c r="G28" s="601"/>
+      <c r="G28" s="622"/>
       <c r="H28" s="240"/>
     </row>
     <row r="29" spans="2:18" ht="27" customHeight="1" thickBot="1">
-      <c r="B29" s="602">
-        <f>'別表4,5'!I56</f>
-        <v>18976803.850000001</v>
-      </c>
-      <c r="C29" s="603"/>
-      <c r="D29" s="604">
-        <f>'別表4,5'!K56</f>
+      <c r="B29" s="623">
+        <f ca="1">'別表4,5'!I56</f>
+        <v>30715365</v>
+      </c>
+      <c r="C29" s="624"/>
+      <c r="D29" s="625">
+        <f ca="1">'別表4,5'!K56</f>
         <v>0</v>
       </c>
-      <c r="E29" s="605"/>
-      <c r="F29" s="604">
-        <f>'別表4,5'!M56</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="606"/>
+      <c r="E29" s="626"/>
+      <c r="F29" s="625">
+        <f ca="1">'別表4,5'!M56</f>
+        <v>1168799</v>
+      </c>
+      <c r="G29" s="627"/>
       <c r="H29" s="241"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="B3:G3"/>
@@ -34807,16 +34944,6 @@
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -34885,20 +35012,20 @@
     </row>
     <row r="8" spans="2:5" ht="35" customHeight="1" thickBot="1">
       <c r="B8" s="258">
-        <f>'2_b'!B29</f>
-        <v>18976803.850000001</v>
+        <f ca="1">'2_b'!B29</f>
+        <v>30715365</v>
       </c>
       <c r="C8" s="256">
         <f>IF(HKS=1,'1_a'!H7,販売量!O8)</f>
-        <v>37926</v>
+        <v>48604.486618181822</v>
       </c>
       <c r="D8" s="259">
-        <f>B8/C8</f>
-        <v>500.36396799029694</v>
+        <f ca="1">B8/C8</f>
+        <v>631.94505563422797</v>
       </c>
       <c r="E8" s="260">
         <f>レートメイク!E29</f>
-        <v>18975979.5</v>
+        <v>30715365.140000001</v>
       </c>
     </row>
   </sheetData>
@@ -34977,7 +35104,7 @@
       </c>
       <c r="D7" s="108">
         <f>'1_a'!H19</f>
-        <v>12700000</v>
+        <v>6953445</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="20" customHeight="1">
@@ -34989,7 +35116,7 @@
       </c>
       <c r="D8" s="108">
         <f>SUM('1_a'!H23:I23)</f>
-        <v>2148650</v>
+        <v>5368245</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="20" customHeight="1">
@@ -35001,7 +35128,7 @@
       </c>
       <c r="D9" s="108">
         <f>SUM('1_a'!H24:I24)</f>
-        <v>355250</v>
+        <v>1280740</v>
       </c>
       <c r="E9" s="99"/>
       <c r="F9" s="99"/>
@@ -35020,7 +35147,7 @@
       </c>
       <c r="D10" s="108">
         <f>SUM('1_a'!H25:I25)</f>
-        <v>1460200</v>
+        <v>3555750</v>
       </c>
       <c r="E10" s="99"/>
       <c r="F10" s="99"/>
@@ -35039,7 +35166,7 @@
       </c>
       <c r="D11" s="108">
         <f>SUM('1_a'!H26:I26)</f>
-        <v>1291150</v>
+        <v>0</v>
       </c>
       <c r="E11" s="99"/>
       <c r="F11" s="99"/>
@@ -35058,7 +35185,7 @@
       </c>
       <c r="D12" s="108">
         <f>SUM('1_a'!H27:I30)</f>
-        <v>7859600</v>
+        <v>36814400</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="99"/>
@@ -35077,7 +35204,7 @@
       </c>
       <c r="D13" s="108">
         <f>SUM('1_a'!H31:I31)</f>
-        <v>3415300</v>
+        <v>5361870</v>
       </c>
       <c r="E13" s="99"/>
       <c r="F13" s="99"/>
@@ -35096,7 +35223,7 @@
       </c>
       <c r="D14" s="108">
         <f>SUM('1_a'!H32:I32)</f>
-        <v>198450</v>
+        <v>0</v>
       </c>
       <c r="E14" s="99"/>
       <c r="F14" s="99"/>
@@ -35115,7 +35242,7 @@
       </c>
       <c r="D15" s="108">
         <f>SUM('1_a'!H33:I33)</f>
-        <v>1781150</v>
+        <v>0</v>
       </c>
       <c r="E15" s="99"/>
       <c r="F15" s="99"/>
@@ -35134,7 +35261,7 @@
       </c>
       <c r="D16" s="108">
         <f>SUM(D7:D15)</f>
-        <v>31209750</v>
+        <v>59334450</v>
       </c>
       <c r="E16" s="99"/>
       <c r="F16" s="99"/>
@@ -35153,7 +35280,7 @@
       </c>
       <c r="D17" s="117">
         <f>SUM(D7:D14)</f>
-        <v>29428600</v>
+        <v>59334450</v>
       </c>
       <c r="E17" s="99"/>
       <c r="F17" s="99"/>
@@ -35346,16 +35473,16 @@
       </c>
       <c r="D31" s="216">
         <f>'2_a'!E9</f>
-        <v>7771721</v>
+        <v>11501052</v>
       </c>
       <c r="E31" s="120"/>
       <c r="F31" s="120">
         <f>ROUND(_Ａ,0)</f>
-        <v>7771721</v>
+        <v>11501052</v>
       </c>
       <c r="G31" s="120">
         <f>SUM(E31:F31)</f>
-        <v>7771721</v>
+        <v>11501052</v>
       </c>
       <c r="H31" s="120"/>
       <c r="I31" s="120"/>
@@ -35376,23 +35503,23 @@
       </c>
       <c r="D32" s="216">
         <f>'2_a'!E10</f>
-        <v>5395488</v>
+        <v>8579625</v>
       </c>
       <c r="E32" s="120"/>
       <c r="F32" s="120"/>
       <c r="G32" s="120"/>
       <c r="H32" s="120">
         <f>ROUND(_Ｂ*_Y,0)</f>
-        <v>2190029</v>
+        <v>3482470</v>
       </c>
       <c r="I32" s="120"/>
       <c r="J32" s="120">
         <f t="shared" ref="J32:J37" si="1">SUM(H32:I32)</f>
-        <v>2190029</v>
+        <v>3482470</v>
       </c>
       <c r="K32" s="120">
         <f t="shared" si="0"/>
-        <v>3205459</v>
+        <v>5097155</v>
       </c>
       <c r="L32" s="207"/>
       <c r="M32" s="207"/>
@@ -35406,29 +35533,29 @@
       </c>
       <c r="D33" s="216">
         <f>'2_a'!E11</f>
-        <v>555295</v>
+        <v>1571432</v>
       </c>
       <c r="E33" s="120">
         <f>ROUND((_PB+_PC+_PD+_PE)/(_P-_PA)*_Ｃ,0)</f>
-        <v>157658</v>
+        <v>306142</v>
       </c>
       <c r="F33" s="120"/>
       <c r="G33" s="120">
         <f>SUM(E33:F33)</f>
-        <v>157658</v>
+        <v>306142</v>
       </c>
       <c r="H33" s="120">
         <f>ROUND((_V*_PF+_PH+_Y*_PI)/(_P-_PA)*_Ｃ,0)</f>
-        <v>224291</v>
+        <v>921097</v>
       </c>
       <c r="I33" s="120"/>
       <c r="J33" s="120">
         <f t="shared" si="1"/>
-        <v>224291</v>
+        <v>921097</v>
       </c>
       <c r="K33" s="120">
         <f t="shared" si="0"/>
-        <v>173346</v>
+        <v>344193</v>
       </c>
       <c r="L33" s="207"/>
       <c r="M33" s="207"/>
@@ -35442,29 +35569,29 @@
       </c>
       <c r="D34" s="216">
         <f>'2_a'!E12</f>
-        <v>186219</v>
+        <v>261400</v>
       </c>
       <c r="E34" s="120">
         <f>ROUND((_PA+_PB+_PC+_PD+_PE)/_P*_Ｄ,0)</f>
-        <v>107133</v>
+        <v>75591</v>
       </c>
       <c r="F34" s="120"/>
       <c r="G34" s="120">
         <f>SUM(E34:F34)</f>
-        <v>107133</v>
+        <v>75591</v>
       </c>
       <c r="H34" s="120">
         <f>ROUND((_V*_PF+_PH+_Y*_PI)/_P*_Ｄ,0)</f>
-        <v>44609</v>
+        <v>135264</v>
       </c>
       <c r="I34" s="120"/>
       <c r="J34" s="120">
         <f t="shared" si="1"/>
-        <v>44609</v>
+        <v>135264</v>
       </c>
       <c r="K34" s="120">
         <f t="shared" si="0"/>
-        <v>34477</v>
+        <v>50545</v>
       </c>
       <c r="L34" s="207"/>
       <c r="M34" s="207"/>
@@ -35478,19 +35605,19 @@
       </c>
       <c r="D35" s="216">
         <f>'2_a'!E14</f>
-        <v>36750</v>
+        <v>340900</v>
       </c>
       <c r="E35" s="120"/>
       <c r="F35" s="120"/>
       <c r="G35" s="120"/>
       <c r="H35" s="120">
         <f>ROUND(_Ｑ,0)</f>
-        <v>36750</v>
+        <v>340900</v>
       </c>
       <c r="I35" s="120"/>
       <c r="J35" s="120">
         <f t="shared" si="1"/>
-        <v>36750</v>
+        <v>340900</v>
       </c>
       <c r="K35" s="120">
         <f t="shared" si="0"/>
@@ -35508,29 +35635,29 @@
       </c>
       <c r="D36" s="216">
         <f>'1_b'!G54</f>
-        <v>1369483.85</v>
+        <v>3892269</v>
       </c>
       <c r="E36" s="120">
         <f>ROUND((_PB+_PC+_PD+_PE)/(_PP-_PA)*_Ｅ,0)</f>
-        <v>430220</v>
+        <v>758282</v>
       </c>
       <c r="F36" s="120"/>
       <c r="G36" s="120">
         <f>SUM(E36:F36)</f>
-        <v>430220</v>
+        <v>758282</v>
       </c>
       <c r="H36" s="120">
         <f>ROUND((_V*_PF+_PH)/(_PP-_PA)*_Ｅ,0)</f>
-        <v>552862</v>
+        <v>2281460</v>
       </c>
       <c r="I36" s="120"/>
       <c r="J36" s="120">
         <f t="shared" si="1"/>
-        <v>552862</v>
+        <v>2281460</v>
       </c>
       <c r="K36" s="120">
         <f t="shared" si="0"/>
-        <v>386401.85000000009</v>
+        <v>852527</v>
       </c>
       <c r="L36" s="207"/>
       <c r="M36" s="207"/>
@@ -35544,23 +35671,23 @@
       </c>
       <c r="D37" s="216">
         <f>'1_b'!G57</f>
-        <v>356230</v>
+        <v>0</v>
       </c>
       <c r="E37" s="120"/>
       <c r="F37" s="120"/>
       <c r="G37" s="120"/>
       <c r="H37" s="120">
         <f>ROUND(_Ｆ*_Y,0)</f>
-        <v>144594</v>
+        <v>0</v>
       </c>
       <c r="I37" s="120"/>
       <c r="J37" s="120">
         <f t="shared" si="1"/>
-        <v>144594</v>
+        <v>0</v>
       </c>
       <c r="K37" s="120">
         <f t="shared" si="0"/>
-        <v>211636</v>
+        <v>0</v>
       </c>
       <c r="L37" s="207"/>
       <c r="M37" s="207"/>
@@ -35574,29 +35701,29 @@
       </c>
       <c r="D38" s="216">
         <f>SUM(D36:D37)</f>
-        <v>1725713.85</v>
+        <v>3892269</v>
       </c>
       <c r="E38" s="120">
         <f>SUM(E36:E37)</f>
-        <v>430220</v>
+        <v>758282</v>
       </c>
       <c r="F38" s="120"/>
       <c r="G38" s="120">
         <f>SUM(G36:G37)</f>
-        <v>430220</v>
+        <v>758282</v>
       </c>
       <c r="H38" s="120">
         <f>SUM(H36:H37)</f>
-        <v>697456</v>
+        <v>2281460</v>
       </c>
       <c r="I38" s="120"/>
       <c r="J38" s="120">
         <f>SUM(J36:J37)</f>
-        <v>697456</v>
+        <v>2281460</v>
       </c>
       <c r="K38" s="120">
         <f t="shared" si="0"/>
-        <v>598037.85000000009</v>
+        <v>852527</v>
       </c>
       <c r="L38" s="207"/>
       <c r="M38" s="207"/>
@@ -35610,23 +35737,23 @@
       </c>
       <c r="D39" s="216">
         <f t="shared" ref="D39:J39" si="2">SUM(D31:D35,D38)</f>
-        <v>15671186.85</v>
+        <v>26146678</v>
       </c>
       <c r="E39" s="120">
         <f t="shared" si="2"/>
-        <v>695011</v>
+        <v>1140015</v>
       </c>
       <c r="F39" s="120">
         <f t="shared" si="2"/>
-        <v>7771721</v>
+        <v>11501052</v>
       </c>
       <c r="G39" s="120">
         <f t="shared" si="2"/>
-        <v>8466732</v>
+        <v>12641067</v>
       </c>
       <c r="H39" s="120">
         <f t="shared" si="2"/>
-        <v>3193135</v>
+        <v>7161191</v>
       </c>
       <c r="I39" s="120">
         <f t="shared" si="2"/>
@@ -35634,11 +35761,11 @@
       </c>
       <c r="J39" s="120">
         <f t="shared" si="2"/>
-        <v>3193135</v>
+        <v>7161191</v>
       </c>
       <c r="K39" s="120">
         <f t="shared" si="0"/>
-        <v>4011319.8499999996</v>
+        <v>6344420</v>
       </c>
       <c r="L39" s="207"/>
       <c r="M39" s="207"/>
@@ -35652,35 +35779,35 @@
       </c>
       <c r="D40" s="216">
         <f>'2_a'!E16</f>
-        <v>2350678</v>
+        <v>3922002</v>
       </c>
       <c r="E40" s="120">
         <f>ROUND(_Hc/_Ｈ*(_Ｂ+_Ｃ+_Ｄ+_Ｑ+_Ｇ)/_Ｈ*_Ｉ,0)</f>
-        <v>640181</v>
+        <v>1062103</v>
       </c>
       <c r="F40" s="120">
         <f>ROUND(_Hc/_Ｈ*_Ａ/_Ｈ*_Ｉ,0)</f>
-        <v>629829</v>
+        <v>834058</v>
       </c>
       <c r="G40" s="120">
         <f>SUM(E40:F40)</f>
-        <v>1270010</v>
+        <v>1896161</v>
       </c>
       <c r="H40" s="120">
         <f>ROUND(_Hf/_Ｈ*(_Ｂ+_Ｃ+_Ｄ+_Ｑ+_Ｇ)/_Ｈ*_Ｉ,0)</f>
-        <v>241437</v>
+        <v>601683</v>
       </c>
       <c r="I40" s="120">
         <f>ROUND(_Hf/_Ｈ*_Ａ/_Ｈ*_Ｉ,0)</f>
-        <v>237533</v>
+        <v>472495</v>
       </c>
       <c r="J40" s="120">
         <f>SUM(H40:I40)</f>
-        <v>478970</v>
+        <v>1074178</v>
       </c>
       <c r="K40" s="120">
         <f t="shared" si="0"/>
-        <v>601698</v>
+        <v>951663</v>
       </c>
       <c r="L40" s="207"/>
       <c r="M40" s="207"/>
@@ -35694,35 +35821,35 @@
       </c>
       <c r="D41" s="216">
         <f t="shared" ref="D41:J41" si="3">SUM(D39:D40)</f>
-        <v>18021864.850000001</v>
+        <v>30068680</v>
       </c>
       <c r="E41" s="120">
         <f t="shared" si="3"/>
-        <v>1335192</v>
+        <v>2202118</v>
       </c>
       <c r="F41" s="120">
         <f t="shared" si="3"/>
-        <v>8401550</v>
+        <v>12335110</v>
       </c>
       <c r="G41" s="120">
         <f t="shared" si="3"/>
-        <v>9736742</v>
+        <v>14537228</v>
       </c>
       <c r="H41" s="120">
         <f t="shared" si="3"/>
-        <v>3434572</v>
+        <v>7762874</v>
       </c>
       <c r="I41" s="120">
         <f t="shared" si="3"/>
-        <v>237533</v>
+        <v>472495</v>
       </c>
       <c r="J41" s="120">
         <f t="shared" si="3"/>
-        <v>3672105</v>
+        <v>8235369</v>
       </c>
       <c r="K41" s="120">
         <f t="shared" si="0"/>
-        <v>4613017.8500000015</v>
+        <v>7296083</v>
       </c>
       <c r="L41" s="207"/>
       <c r="M41" s="207"/>
@@ -35736,35 +35863,35 @@
       </c>
       <c r="D42" s="216">
         <f>'2_a'!E18</f>
-        <v>848905</v>
+        <v>1613897</v>
       </c>
       <c r="E42" s="120">
         <f>ROUND((_PA+_PB+_PC+_PD+_PE)/_P*_Ｋ*_Ja/_Jc,0)</f>
-        <v>66972</v>
+        <v>70697</v>
       </c>
       <c r="F42" s="120">
         <f>ROUND((_PA+_PB+_PC+_PD+_PE)/_P*_Ｋ*_Jb/_Jc,0)</f>
-        <v>421411</v>
+        <v>396006</v>
       </c>
       <c r="G42" s="120">
         <f>SUM(E42:F42)</f>
-        <v>488383</v>
+        <v>466703</v>
       </c>
       <c r="H42" s="120">
         <f>ROUND((_V*_PF+_PH+_Y*_PI)/_P*_Ｋ*_Jd/_Jf,0)</f>
-        <v>190202</v>
+        <v>787213</v>
       </c>
       <c r="I42" s="120">
         <f>ROUND((_V*_PF+_PH+_Y*_PI)/_P*_Ｋ*_Je/_Jf,0)</f>
-        <v>13154</v>
+        <v>47914</v>
       </c>
       <c r="J42" s="120">
         <f>SUM(H42:I42)</f>
-        <v>203356</v>
+        <v>835127</v>
       </c>
       <c r="K42" s="120">
         <f t="shared" si="0"/>
-        <v>157166</v>
+        <v>312067</v>
       </c>
       <c r="L42" s="207"/>
       <c r="M42" s="207"/>
@@ -35778,35 +35905,35 @@
       </c>
       <c r="D43" s="216">
         <f>SUM('2_a'!E19:E21)</f>
-        <v>103336</v>
+        <v>196457</v>
       </c>
       <c r="E43" s="120">
         <f>ROUND((_PA+_PB+_PC+_PD+_PE)/_P*_Ｌ*_Ja/_Jc,0)</f>
-        <v>8152</v>
+        <v>8606</v>
       </c>
       <c r="F43" s="120">
         <f>ROUND((_PA+_PB+_PC+_PD+_PE)/_P*_Ｌ*_Jb/_Jc,0)</f>
-        <v>51298</v>
+        <v>48205</v>
       </c>
       <c r="G43" s="120">
         <f>SUM(E43:F43)</f>
-        <v>59450</v>
+        <v>56811</v>
       </c>
       <c r="H43" s="120">
         <f>ROUND((_V*_PF+_PH+_Y*_PI)/_P*_Ｌ*_Jd/_Jf,0)</f>
-        <v>23153</v>
+        <v>95826</v>
       </c>
       <c r="I43" s="120">
         <f>ROUND((_V*_PF+_PH+_Y*_PI)/_P*_Ｌ*_Je/_Jf,0)</f>
-        <v>1601</v>
+        <v>5833</v>
       </c>
       <c r="J43" s="120">
         <f>SUM(H43:I43)</f>
-        <v>24754</v>
+        <v>101659</v>
       </c>
       <c r="K43" s="120">
         <f t="shared" si="0"/>
-        <v>19132</v>
+        <v>37987</v>
       </c>
       <c r="L43" s="207"/>
       <c r="M43" s="207"/>
@@ -35820,35 +35947,35 @@
       </c>
       <c r="D44" s="216">
         <f t="shared" ref="D44:J44" si="4">SUM(D41:D43)</f>
-        <v>18974105.850000001</v>
+        <v>31879034</v>
       </c>
       <c r="E44" s="120">
         <f t="shared" si="4"/>
-        <v>1410316</v>
+        <v>2281421</v>
       </c>
       <c r="F44" s="120">
         <f t="shared" si="4"/>
-        <v>8874259</v>
+        <v>12779321</v>
       </c>
       <c r="G44" s="120">
         <f t="shared" si="4"/>
-        <v>10284575</v>
+        <v>15060742</v>
       </c>
       <c r="H44" s="120">
         <f t="shared" si="4"/>
-        <v>3647927</v>
+        <v>8645913</v>
       </c>
       <c r="I44" s="120">
         <f t="shared" si="4"/>
-        <v>252288</v>
+        <v>526242</v>
       </c>
       <c r="J44" s="120">
         <f t="shared" si="4"/>
-        <v>3900215</v>
+        <v>9172155</v>
       </c>
       <c r="K44" s="120">
         <f t="shared" si="0"/>
-        <v>4789315.8500000015</v>
+        <v>7646137</v>
       </c>
       <c r="L44" s="207"/>
       <c r="M44" s="207"/>
@@ -35862,35 +35989,35 @@
       </c>
       <c r="D45" s="216">
         <f>'2_a'!E13</f>
-        <v>2698</v>
+        <v>5130</v>
       </c>
       <c r="E45" s="120">
         <f>ROUND(_Mc/_Ｍ*_Ｎ*_Ma/_Mc,0)</f>
-        <v>201</v>
+        <v>367</v>
       </c>
       <c r="F45" s="120">
         <f>ROUND(_Mc/_Ｍ*_Ｎ*_Mb/_Mc,0)</f>
-        <v>1262</v>
+        <v>2056</v>
       </c>
       <c r="G45" s="120">
         <f>SUM(E45:F45)</f>
-        <v>1463</v>
+        <v>2423</v>
       </c>
       <c r="H45" s="120">
         <f>ROUND(_Mf/_Ｍ*_Ｎ*_Md/_Mf,0)</f>
-        <v>519</v>
+        <v>1391</v>
       </c>
       <c r="I45" s="120">
         <f>ROUND(_Mf/_Ｍ*_Ｎ*_Me/_Mf,0)</f>
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="J45" s="120">
         <f>SUM(H45:I45)</f>
-        <v>555</v>
+        <v>1476</v>
       </c>
       <c r="K45" s="120">
         <f t="shared" si="0"/>
-        <v>680</v>
+        <v>1231</v>
       </c>
       <c r="L45" s="207"/>
       <c r="M45" s="207"/>
@@ -35904,35 +36031,35 @@
       </c>
       <c r="D46" s="216">
         <f t="shared" ref="D46:J46" si="5">SUM(D44:D45)</f>
-        <v>18976803.850000001</v>
+        <v>31884164</v>
       </c>
       <c r="E46" s="120">
         <f t="shared" si="5"/>
-        <v>1410517</v>
+        <v>2281788</v>
       </c>
       <c r="F46" s="120">
         <f t="shared" si="5"/>
-        <v>8875521</v>
+        <v>12781377</v>
       </c>
       <c r="G46" s="120">
         <f t="shared" si="5"/>
-        <v>10286038</v>
+        <v>15063165</v>
       </c>
       <c r="H46" s="120">
         <f t="shared" si="5"/>
-        <v>3648446</v>
+        <v>8647304</v>
       </c>
       <c r="I46" s="120">
         <f t="shared" si="5"/>
-        <v>252324</v>
+        <v>526327</v>
       </c>
       <c r="J46" s="120">
         <f t="shared" si="5"/>
-        <v>3900770</v>
+        <v>9173631</v>
       </c>
       <c r="K46" s="120">
         <f t="shared" si="0"/>
-        <v>4789995.8500000015</v>
+        <v>7647368</v>
       </c>
       <c r="L46" s="207"/>
       <c r="M46" s="207"/>
@@ -36013,26 +36140,26 @@
       <c r="C52" s="155"/>
       <c r="D52" s="223">
         <f>SUM(F46,I46)</f>
-        <v>9127845</v>
+        <v>13307704</v>
       </c>
       <c r="E52" s="405" t="s">
         <v>549</v>
       </c>
       <c r="F52" s="116">
         <f>販売量!O11</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="234" t="str">
+        <v>51621.886618181823</v>
+      </c>
+      <c r="G52" s="234">
         <f>IF(KYN=1,"-",ROUNDDOWN(D52/F52,2))</f>
-        <v>-</v>
+        <v>257.79000000000002</v>
       </c>
       <c r="H52" s="235">
         <f>F52-(J52+L52)</f>
-        <v>0</v>
+        <v>48604.886618181823</v>
       </c>
       <c r="I52" s="117">
         <f>D52-(K52+M52)</f>
-        <v>9127845</v>
+        <v>12529952</v>
       </c>
       <c r="J52" s="236">
         <f>ROUNDDOWN(販売量!O9,0)</f>
@@ -36044,11 +36171,11 @@
       </c>
       <c r="L52" s="120">
         <f>ROUNDDOWN(販売量!O10,0)</f>
-        <v>0</v>
+        <v>3017</v>
       </c>
       <c r="M52" s="120">
         <f>IF(KYN=1,0,ROUNDDOWN(G52*L52,0))</f>
-        <v>0</v>
+        <v>777752</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="20" customHeight="1">
@@ -36058,42 +36185,42 @@
       <c r="C53" s="155"/>
       <c r="D53" s="223">
         <f>E46</f>
-        <v>1410517</v>
+        <v>2281788</v>
       </c>
       <c r="E53" s="405" t="s">
         <v>554</v>
       </c>
       <c r="F53" s="116">
         <f ca="1">販売量!S11</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="234" t="str">
-        <f>IF(KYN=1,"-",ROUNDDOWN(D53/F53,2))</f>
-        <v>-</v>
+        <v>6688.8866181818175</v>
+      </c>
+      <c r="G53" s="234">
+        <f ca="1">IF(KYN=1,"-",ROUNDDOWN(D53/F53,2))</f>
+        <v>341.13</v>
       </c>
       <c r="H53" s="235">
         <f t="shared" ref="H53:H55" ca="1" si="6">F53-(J53+L53)</f>
-        <v>0</v>
+        <v>5934.8866181818175</v>
       </c>
       <c r="I53" s="117">
-        <f t="shared" ref="I53:I55" si="7">D53-(K53+M53)</f>
-        <v>1410517</v>
+        <f t="shared" ref="I53:I55" ca="1" si="7">D53-(K53+M53)</f>
+        <v>2024576</v>
       </c>
       <c r="J53" s="236">
         <f ca="1">ROUNDDOWN(販売量!S9,0)</f>
         <v>0</v>
       </c>
       <c r="K53" s="120">
-        <f>IF(KYN=1,0,ROUNDDOWN(G53*J53,0))</f>
+        <f ca="1">IF(KYN=1,0,ROUNDDOWN(G53*J53,0))</f>
         <v>0</v>
       </c>
       <c r="L53" s="120">
         <f ca="1">ROUNDDOWN(販売量!S10,0)</f>
-        <v>0</v>
+        <v>754</v>
       </c>
       <c r="M53" s="120">
-        <f>IF(KYN=1,0,ROUNDDOWN(G53*L53,0))</f>
-        <v>0</v>
+        <f ca="1">IF(KYN=1,0,ROUNDDOWN(G53*L53,0))</f>
+        <v>257212</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="20" customHeight="1">
@@ -36103,26 +36230,26 @@
       <c r="C54" s="155"/>
       <c r="D54" s="223">
         <f>H46</f>
-        <v>3648446</v>
+        <v>8647304</v>
       </c>
       <c r="E54" s="405" t="s">
         <v>555</v>
       </c>
       <c r="F54" s="116">
         <f>販売量!U11</f>
-        <v>7350</v>
-      </c>
-      <c r="G54" s="234" t="str">
+        <v>14610</v>
+      </c>
+      <c r="G54" s="234">
         <f>IF(KYN=1,"-",ROUNDDOWN(D54/F54,2))</f>
-        <v>-</v>
+        <v>591.87</v>
       </c>
       <c r="H54" s="235">
         <f t="shared" si="6"/>
-        <v>7350</v>
+        <v>14490</v>
       </c>
       <c r="I54" s="117">
         <f t="shared" si="7"/>
-        <v>3648446</v>
+        <v>8576280</v>
       </c>
       <c r="J54" s="236">
         <f>ROUNDDOWN(販売量!U9,0)</f>
@@ -36134,11 +36261,11 @@
       </c>
       <c r="L54" s="120">
         <f>ROUNDDOWN(販売量!U10,0)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M54" s="120">
         <f>IF(KYN=1,0,ROUNDDOWN(G54*L54,0))</f>
-        <v>0</v>
+        <v>71024</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="20" customHeight="1">
@@ -36148,26 +36275,26 @@
       <c r="C55" s="155"/>
       <c r="D55" s="223">
         <f>K46</f>
-        <v>4789995.8500000015</v>
+        <v>7647368</v>
       </c>
       <c r="E55" s="405" t="s">
         <v>556</v>
       </c>
       <c r="F55" s="116">
         <f>販売量!R11</f>
-        <v>2940</v>
-      </c>
-      <c r="G55" s="234" t="str">
+        <v>5844</v>
+      </c>
+      <c r="G55" s="234">
         <f>IF(KYN=1,"-",ROUNDDOWN(D55/F55,2))</f>
-        <v>-</v>
+        <v>1308.58</v>
       </c>
       <c r="H55" s="235">
         <f t="shared" si="6"/>
-        <v>2940</v>
+        <v>5796</v>
       </c>
       <c r="I55" s="117">
         <f t="shared" si="7"/>
-        <v>4789995.8500000015</v>
+        <v>7584557</v>
       </c>
       <c r="J55" s="236">
         <f>ROUNDDOWN(販売量!R9,0)</f>
@@ -36179,11 +36306,11 @@
       </c>
       <c r="L55" s="120">
         <f>ROUNDDOWN(販売量!R10,0)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M55" s="120">
         <f>IF(KYN=1,0,ROUNDDOWN(G55*L55,0))</f>
-        <v>0</v>
+        <v>62811</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="20" customHeight="1">
@@ -36193,28 +36320,28 @@
       <c r="C56" s="155"/>
       <c r="D56" s="223">
         <f>SUM(D52:D55)</f>
-        <v>18976803.850000001</v>
+        <v>31884164</v>
       </c>
       <c r="E56" s="110"/>
       <c r="F56" s="115">
         <f ca="1">SUM(F52:F55)</f>
-        <v>10290</v>
+        <v>78764.773236363631</v>
       </c>
       <c r="G56" s="110"/>
       <c r="H56" s="235"/>
       <c r="I56" s="117">
-        <f>SUM(I52:I55)</f>
-        <v>18976803.850000001</v>
+        <f ca="1">SUM(I52:I55)</f>
+        <v>30715365</v>
       </c>
       <c r="J56" s="117"/>
       <c r="K56" s="120">
-        <f>SUM(K52:K55)</f>
+        <f ca="1">SUM(K52:K55)</f>
         <v>0</v>
       </c>
       <c r="L56" s="117"/>
       <c r="M56" s="120">
-        <f>SUM(M52:M55)</f>
-        <v>0</v>
+        <f ca="1">SUM(M52:M55)</f>
+        <v>1168799</v>
       </c>
     </row>
     <row r="57" spans="2:13" ht="20" customHeight="1"/>
@@ -36253,10 +36380,10 @@
       <c r="C2" s="266"/>
       <c r="D2" s="266"/>
       <c r="E2" s="266"/>
-      <c r="F2" s="654" t="s">
+      <c r="F2" s="650" t="s">
         <v>706</v>
       </c>
-      <c r="G2" s="654"/>
+      <c r="G2" s="650"/>
       <c r="H2" s="268"/>
       <c r="I2" s="404" t="str">
         <f>ナビ!C4</f>
@@ -36285,28 +36412,28 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="21" customHeight="1">
-      <c r="B5" s="635" t="s">
+      <c r="B5" s="676" t="s">
         <v>665</v>
       </c>
-      <c r="C5" s="637" t="s">
+      <c r="C5" s="678" t="s">
         <v>666</v>
       </c>
-      <c r="D5" s="638"/>
-      <c r="E5" s="639"/>
-      <c r="F5" s="643" t="s">
+      <c r="D5" s="679"/>
+      <c r="E5" s="680"/>
+      <c r="F5" s="684" t="s">
         <v>667</v>
       </c>
-      <c r="G5" s="644"/>
-      <c r="H5" s="645" t="s">
+      <c r="G5" s="685"/>
+      <c r="H5" s="686" t="s">
         <v>668</v>
       </c>
-      <c r="I5" s="646"/>
+      <c r="I5" s="687"/>
     </row>
     <row r="6" spans="2:9" ht="21" customHeight="1">
-      <c r="B6" s="636"/>
-      <c r="C6" s="640"/>
-      <c r="D6" s="641"/>
-      <c r="E6" s="642"/>
+      <c r="B6" s="677"/>
+      <c r="C6" s="681"/>
+      <c r="D6" s="682"/>
+      <c r="E6" s="683"/>
       <c r="F6" s="270" t="s">
         <v>669</v>
       </c>
@@ -36324,86 +36451,86 @@
       <c r="B7" s="272" t="s">
         <v>672</v>
       </c>
-      <c r="C7" s="662" t="s">
+      <c r="C7" s="656" t="s">
         <v>724</v>
       </c>
-      <c r="D7" s="663"/>
+      <c r="D7" s="657"/>
       <c r="E7" s="262">
         <f>レートメイク!D20</f>
         <v>8</v>
       </c>
       <c r="F7" s="273">
         <f>レートメイク!E20</f>
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="G7" s="273">
         <f>レートメイク!F20</f>
-        <v>460</v>
+        <v>550</v>
       </c>
       <c r="H7" s="273">
         <f>レートメイク!L20</f>
-        <v>980</v>
+        <v>1080</v>
       </c>
       <c r="I7" s="349">
         <f>レートメイク!M20</f>
-        <v>450</v>
+        <v>493.04</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="21" customHeight="1">
       <c r="B8" s="274" t="s">
         <v>673</v>
       </c>
-      <c r="C8" s="671">
+      <c r="C8" s="663">
         <f>レートメイク!C21</f>
         <v>8.1</v>
       </c>
-      <c r="D8" s="672"/>
+      <c r="D8" s="664"/>
       <c r="E8" s="263">
         <f>レートメイク!D21</f>
         <v>30</v>
       </c>
       <c r="F8" s="273">
         <f>レートメイク!E21</f>
-        <v>2078</v>
+        <v>1800</v>
       </c>
       <c r="G8" s="273">
         <f>レートメイク!F21</f>
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="H8" s="273">
         <f>レートメイク!L21</f>
-        <v>1780</v>
+        <v>1679.9999999999995</v>
       </c>
       <c r="I8" s="349">
         <f>レートメイク!M21</f>
-        <v>350</v>
+        <v>418.04</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="21" customHeight="1" thickBot="1">
       <c r="B9" s="275" t="s">
         <v>674</v>
       </c>
-      <c r="C9" s="673">
+      <c r="C9" s="665">
         <f>レートメイク!C22</f>
         <v>30.1</v>
       </c>
-      <c r="D9" s="674"/>
-      <c r="E9" s="675"/>
+      <c r="D9" s="666"/>
+      <c r="E9" s="667"/>
       <c r="F9" s="276">
         <f>レートメイク!E22</f>
-        <v>4028</v>
+        <v>4050</v>
       </c>
       <c r="G9" s="276">
         <f>レートメイク!F22</f>
-        <v>285</v>
+        <v>400</v>
       </c>
       <c r="H9" s="276">
         <f>レートメイク!L22</f>
-        <v>3880</v>
+        <v>3930</v>
       </c>
       <c r="I9" s="350">
         <f>レートメイク!M22</f>
-        <v>280</v>
+        <v>343.04</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="21" customHeight="1">
@@ -36418,171 +36545,171 @@
     </row>
     <row r="11" spans="2:9" ht="21" customHeight="1" thickBot="1"/>
     <row r="12" spans="2:9" ht="21" customHeight="1">
-      <c r="B12" s="676" t="s">
+      <c r="B12" s="668" t="s">
         <v>675</v>
       </c>
-      <c r="C12" s="679" t="s">
+      <c r="C12" s="671" t="s">
         <v>676</v>
       </c>
       <c r="D12" s="279"/>
-      <c r="E12" s="680" t="s">
+      <c r="E12" s="674" t="s">
         <v>677</v>
       </c>
-      <c r="F12" s="680"/>
-      <c r="G12" s="680"/>
-      <c r="H12" s="680"/>
+      <c r="F12" s="674"/>
+      <c r="G12" s="674"/>
+      <c r="H12" s="674"/>
       <c r="I12" s="280"/>
     </row>
     <row r="13" spans="2:9" ht="21" customHeight="1">
-      <c r="B13" s="677"/>
-      <c r="C13" s="648"/>
+      <c r="B13" s="669"/>
+      <c r="C13" s="672"/>
       <c r="D13" s="281"/>
-      <c r="E13" s="651" t="s">
+      <c r="E13" s="675" t="s">
         <v>678</v>
       </c>
-      <c r="F13" s="651"/>
-      <c r="G13" s="651"/>
-      <c r="H13" s="651"/>
+      <c r="F13" s="675"/>
+      <c r="G13" s="675"/>
+      <c r="H13" s="675"/>
       <c r="I13" s="282"/>
     </row>
     <row r="14" spans="2:9" ht="21" customHeight="1">
-      <c r="B14" s="677"/>
-      <c r="C14" s="649"/>
-      <c r="D14" s="652">
-        <f>'2_b'!B29</f>
-        <v>18976803.850000001</v>
-      </c>
-      <c r="E14" s="653"/>
+      <c r="B14" s="669"/>
+      <c r="C14" s="673"/>
+      <c r="D14" s="690">
+        <f ca="1">'2_b'!B29</f>
+        <v>30715365</v>
+      </c>
+      <c r="E14" s="691"/>
       <c r="F14" s="283" t="s">
         <v>679</v>
       </c>
       <c r="G14" s="284">
         <f>IF(HKS=1,'1_a'!H7,販売量!O8)</f>
-        <v>37926</v>
+        <v>48604.486618181822</v>
       </c>
       <c r="H14" s="283" t="s">
         <v>680</v>
       </c>
       <c r="I14" s="285">
-        <f>+ROUND(+D14/G14,2)</f>
-        <v>500.36</v>
+        <f ca="1">+ROUND(+D14/G14,2)</f>
+        <v>631.95000000000005</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="21" customHeight="1">
-      <c r="B15" s="677"/>
-      <c r="C15" s="647" t="s">
+      <c r="B15" s="669"/>
+      <c r="C15" s="688" t="s">
         <v>681</v>
       </c>
       <c r="D15" s="286"/>
-      <c r="E15" s="650" t="s">
+      <c r="E15" s="689" t="s">
         <v>682</v>
       </c>
-      <c r="F15" s="650"/>
-      <c r="G15" s="650"/>
-      <c r="H15" s="650"/>
+      <c r="F15" s="689"/>
+      <c r="G15" s="689"/>
+      <c r="H15" s="689"/>
       <c r="I15" s="287"/>
     </row>
     <row r="16" spans="2:9" ht="21" customHeight="1">
-      <c r="B16" s="677"/>
-      <c r="C16" s="648"/>
+      <c r="B16" s="669"/>
+      <c r="C16" s="672"/>
       <c r="D16" s="288"/>
-      <c r="E16" s="651" t="s">
+      <c r="E16" s="675" t="s">
         <v>678</v>
       </c>
-      <c r="F16" s="651"/>
-      <c r="G16" s="651"/>
-      <c r="H16" s="651"/>
+      <c r="F16" s="675"/>
+      <c r="G16" s="675"/>
+      <c r="H16" s="675"/>
       <c r="I16" s="282"/>
     </row>
     <row r="17" spans="2:9" ht="21" customHeight="1">
-      <c r="B17" s="678"/>
-      <c r="C17" s="649"/>
-      <c r="D17" s="652">
+      <c r="B17" s="670"/>
+      <c r="C17" s="673"/>
+      <c r="D17" s="690">
         <f>I41</f>
-        <v>18133497</v>
-      </c>
-      <c r="E17" s="653"/>
+        <v>27251333</v>
+      </c>
+      <c r="E17" s="691"/>
       <c r="F17" s="283" t="s">
         <v>679</v>
       </c>
       <c r="G17" s="284">
         <f>G14</f>
-        <v>37926</v>
+        <v>48604.486618181822</v>
       </c>
       <c r="H17" s="283" t="s">
         <v>680</v>
       </c>
       <c r="I17" s="285">
         <f>IF(D17="","",+ROUND(+D17/G17,2))</f>
-        <v>478.13</v>
+        <v>560.67999999999995</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="21" customHeight="1">
-      <c r="B18" s="664"/>
-      <c r="C18" s="665"/>
+      <c r="B18" s="658"/>
+      <c r="C18" s="659"/>
       <c r="D18" s="290"/>
       <c r="E18" s="291" t="s">
         <v>683</v>
       </c>
-      <c r="F18" s="666" t="s">
+      <c r="F18" s="660" t="s">
         <v>707</v>
       </c>
-      <c r="G18" s="667" t="s">
+      <c r="G18" s="661" t="s">
         <v>708</v>
       </c>
       <c r="H18" s="292"/>
       <c r="I18" s="293"/>
     </row>
     <row r="19" spans="2:9" ht="21" customHeight="1">
-      <c r="B19" s="669" t="s">
+      <c r="B19" s="644" t="s">
         <v>684</v>
       </c>
-      <c r="C19" s="670"/>
+      <c r="C19" s="645"/>
       <c r="D19" s="266"/>
       <c r="E19" s="294" t="s">
         <v>685</v>
       </c>
-      <c r="F19" s="657"/>
-      <c r="G19" s="668"/>
+      <c r="F19" s="647"/>
+      <c r="G19" s="662"/>
       <c r="H19" s="266"/>
       <c r="I19" s="265"/>
     </row>
     <row r="20" spans="2:9" ht="21" customHeight="1">
-      <c r="B20" s="669" t="s">
+      <c r="B20" s="644" t="s">
         <v>686</v>
       </c>
-      <c r="C20" s="670"/>
-      <c r="D20" s="690" t="s">
+      <c r="C20" s="645"/>
+      <c r="D20" s="646" t="s">
         <v>687</v>
       </c>
-      <c r="E20" s="657"/>
+      <c r="E20" s="647"/>
       <c r="F20" s="296">
-        <f>I14</f>
-        <v>500.36</v>
-      </c>
-      <c r="G20" s="655" t="s">
+        <f ca="1">I14</f>
+        <v>631.95000000000005</v>
+      </c>
+      <c r="G20" s="651" t="s">
         <v>709</v>
       </c>
-      <c r="H20" s="657" t="s">
+      <c r="H20" s="647" t="s">
         <v>680</v>
       </c>
-      <c r="I20" s="658">
-        <f>IF(F21="","",ROUND(((F20/F21*100-100)/100),4))</f>
-        <v>4.65E-2</v>
+      <c r="I20" s="652">
+        <f ca="1">IF(F21="","",ROUND(((F20/F21*100-100)/100),4))</f>
+        <v>0.12709999999999999</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="21" customHeight="1" thickBot="1">
-      <c r="B21" s="660"/>
-      <c r="C21" s="661"/>
-      <c r="D21" s="691"/>
-      <c r="E21" s="656"/>
+      <c r="B21" s="654"/>
+      <c r="C21" s="655"/>
+      <c r="D21" s="648"/>
+      <c r="E21" s="649"/>
       <c r="F21" s="297">
         <f>I17</f>
-        <v>478.13</v>
-      </c>
-      <c r="G21" s="656"/>
-      <c r="H21" s="656"/>
-      <c r="I21" s="659"/>
+        <v>560.67999999999995</v>
+      </c>
+      <c r="G21" s="649"/>
+      <c r="H21" s="649"/>
+      <c r="I21" s="653"/>
     </row>
     <row r="22" spans="2:9" ht="21" customHeight="1">
       <c r="B22" s="298"/>
@@ -36713,10 +36840,10 @@
       <c r="I32" s="308"/>
     </row>
     <row r="33" spans="2:9" ht="21" customHeight="1">
-      <c r="B33" s="681" t="s">
+      <c r="B33" s="635" t="s">
         <v>696</v>
       </c>
-      <c r="C33" s="684" t="s">
+      <c r="C33" s="638" t="s">
         <v>697</v>
       </c>
       <c r="D33" s="316"/>
@@ -36737,83 +36864,83 @@
       </c>
     </row>
     <row r="34" spans="2:9" ht="21" customHeight="1">
-      <c r="B34" s="682"/>
-      <c r="C34" s="685"/>
+      <c r="B34" s="636"/>
+      <c r="C34" s="639"/>
       <c r="D34" s="319" t="s">
         <v>672</v>
       </c>
       <c r="E34" s="320">
         <f>レートメイク!L20</f>
-        <v>980</v>
+        <v>1080</v>
       </c>
       <c r="F34" s="321" t="s">
         <v>699</v>
       </c>
       <c r="G34" s="322">
         <f>レートメイク!E11</f>
-        <v>677</v>
+        <v>4927</v>
       </c>
       <c r="H34" s="290" t="s">
         <v>680</v>
       </c>
       <c r="I34" s="323">
         <f>IF(E34="","",ROUND(+E34*G34,0))</f>
-        <v>663460</v>
+        <v>5321160</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="21" customHeight="1">
-      <c r="B35" s="682"/>
-      <c r="C35" s="685"/>
+      <c r="B35" s="636"/>
+      <c r="C35" s="639"/>
       <c r="D35" s="319" t="s">
         <v>673</v>
       </c>
       <c r="E35" s="324">
         <f>レートメイク!L21</f>
-        <v>1780</v>
+        <v>1679.9999999999995</v>
       </c>
       <c r="F35" s="325" t="s">
         <v>699</v>
       </c>
       <c r="G35" s="326">
         <f>レートメイク!E12</f>
-        <v>1793</v>
+        <v>753</v>
       </c>
       <c r="H35" s="289" t="s">
         <v>680</v>
       </c>
       <c r="I35" s="327">
         <f>IF(E35="","",ROUND(+E35*G35,0))</f>
-        <v>3191540</v>
+        <v>1265040</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="21" customHeight="1">
-      <c r="B36" s="682"/>
-      <c r="C36" s="686"/>
+      <c r="B36" s="636"/>
+      <c r="C36" s="640"/>
       <c r="D36" s="319" t="s">
         <v>674</v>
       </c>
       <c r="E36" s="328">
         <f>レートメイク!L22</f>
-        <v>3880</v>
+        <v>3930</v>
       </c>
       <c r="F36" s="329" t="s">
         <v>699</v>
       </c>
       <c r="G36" s="330">
         <f>レートメイク!E13</f>
-        <v>470</v>
+        <v>116</v>
       </c>
       <c r="H36" s="331" t="s">
         <v>680</v>
       </c>
       <c r="I36" s="332">
         <f>IF(E36="","",ROUND(+E36*G36,0))</f>
-        <v>1823600</v>
+        <v>455880</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="21" customHeight="1">
-      <c r="B37" s="682"/>
-      <c r="C37" s="687" t="s">
+      <c r="B37" s="636"/>
+      <c r="C37" s="641" t="s">
         <v>671</v>
       </c>
       <c r="D37" s="333"/>
@@ -36834,82 +36961,82 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="21" customHeight="1">
-      <c r="B38" s="682"/>
-      <c r="C38" s="688"/>
+      <c r="B38" s="636"/>
+      <c r="C38" s="642"/>
       <c r="D38" s="319" t="s">
         <v>672</v>
       </c>
       <c r="E38" s="334">
         <f>レートメイク!M20</f>
-        <v>450</v>
+        <v>493.04</v>
       </c>
       <c r="F38" s="321" t="s">
         <v>699</v>
       </c>
       <c r="G38" s="322">
         <f>レートメイク!F11</f>
-        <v>1896.3000000000029</v>
+        <v>16525.486618181822</v>
       </c>
       <c r="H38" s="290" t="s">
         <v>680</v>
       </c>
       <c r="I38" s="323">
         <f>IF(E38="","",ROUND(+E38*G38,0))</f>
-        <v>853335</v>
+        <v>8147726</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="21" customHeight="1">
-      <c r="B39" s="682"/>
-      <c r="C39" s="688"/>
+      <c r="B39" s="636"/>
+      <c r="C39" s="642"/>
       <c r="D39" s="319" t="s">
         <v>673</v>
       </c>
       <c r="E39" s="335">
         <f>レートメイク!M21</f>
-        <v>350</v>
+        <v>418.04</v>
       </c>
       <c r="F39" s="325" t="s">
         <v>699</v>
       </c>
       <c r="G39" s="326">
         <f>レートメイク!F12</f>
-        <v>21617.8</v>
+        <v>14095.3</v>
       </c>
       <c r="H39" s="289" t="s">
         <v>680</v>
       </c>
       <c r="I39" s="327">
         <f>IF(E39="","",ROUND(+E39*G39,0))</f>
-        <v>7566230</v>
+        <v>5892399</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="21" customHeight="1">
-      <c r="B40" s="682"/>
-      <c r="C40" s="689"/>
+      <c r="B40" s="636"/>
+      <c r="C40" s="643"/>
       <c r="D40" s="336" t="s">
         <v>674</v>
       </c>
       <c r="E40" s="337">
         <f>レートメイク!M22</f>
-        <v>280</v>
+        <v>343.04</v>
       </c>
       <c r="F40" s="329" t="s">
         <v>699</v>
       </c>
       <c r="G40" s="330">
         <f>レートメイク!F13</f>
-        <v>14411.9</v>
+        <v>17983.7</v>
       </c>
       <c r="H40" s="331" t="s">
         <v>680</v>
       </c>
       <c r="I40" s="332">
         <f>IF(E40="","",ROUND(+E40*G40,0))</f>
-        <v>4035332</v>
+        <v>6169128</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="21" customHeight="1" thickBot="1">
-      <c r="B41" s="683"/>
+      <c r="B41" s="637"/>
       <c r="C41" s="338"/>
       <c r="D41" s="338"/>
       <c r="E41" s="339" t="s">
@@ -36922,16 +37049,20 @@
       <c r="H41" s="341"/>
       <c r="I41" s="342">
         <f>SUM(I34:I40)</f>
-        <v>18133497</v>
+        <v>27251333</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
@@ -36948,15 +37079,11 @@
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E13:H13"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.8" right="0.39" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
